--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_97.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_97.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32420-d78789-Reviews-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>153</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Candlewood-Suites-North-Orange-County.h126586.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_97.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_97.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="690">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2054 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r569997707-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>32420</t>
+  </si>
+  <si>
+    <t>78789</t>
+  </si>
+  <si>
+    <t>569997707</t>
+  </si>
+  <si>
+    <t>03/31/2018</t>
+  </si>
+  <si>
+    <t>Dishonest hotel staff</t>
+  </si>
+  <si>
+    <t>Checked out of the hotel 3/29/18.  Realized 5 hours later I forgot 2 expensive sweaters hanging in the closet.  I called immediately and was told they would check with housekeeping.  I never received a call the next day so I call them again.  Told they did not find them and they would do a more extensive search and call me back.  It's 3 days later and no return phone call.  Housekeeping or hotel staff most certainly found them and decided to keep them.  My fault for forgetting them but any reputable establishment would return items left behind if they cared about customer service.  My first and last time staying at this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites North Orange County, responded to this reviewResponded April 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2018</t>
+  </si>
+  <si>
+    <t>Checked out of the hotel 3/29/18.  Realized 5 hours later I forgot 2 expensive sweaters hanging in the closet.  I called immediately and was told they would check with housekeeping.  I never received a call the next day so I call them again.  Told they did not find them and they would do a more extensive search and call me back.  It's 3 days later and no return phone call.  Housekeeping or hotel staff most certainly found them and decided to keep them.  My fault for forgetting them but any reputable establishment would return items left behind if they cared about customer service.  My first and last time staying at this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r566182849-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>566182849</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t>Okay</t>
+  </si>
+  <si>
+    <t>We stay regularly at IHG properties and Candlewood Suites frequently.  The staff was friendly and helpful. The property is run down and due for some building upgrades as well the furniture and fixtures.  The kitchenette area in our room had less than normal dishes,pans,silverware etc. All were worn. The items you could sign out and borrow were almost nonexistent. The pantry shop had very few choices in dry goods or refrigerated/frozen. Generally both areas are very well stocked with basic but good variety.  MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites North Orange County, responded to this reviewResponded March 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2018</t>
+  </si>
+  <si>
+    <t>We stay regularly at IHG properties and Candlewood Suites frequently.  The staff was friendly and helpful. The property is run down and due for some building upgrades as well the furniture and fixtures.  The kitchenette area in our room had less than normal dishes,pans,silverware etc. All were worn. The items you could sign out and borrow were almost nonexistent. The pantry shop had very few choices in dry goods or refrigerated/frozen. Generally both areas are very well stocked with basic but good variety.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r538899982-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>538899982</t>
+  </si>
+  <si>
+    <t>11/06/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice suit for the price </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice room at a great price for our last minute vacation to Disneyland. Only issues would have to be dirty HVAC with no filter, ac control had a dead display so you never New what temp you had. Other than that parking was good and free also close to highway, gas and food. No pool but the kids are there for Disneyland so they’ll get over it. </t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r494573456-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>494573456</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>Last minute stay</t>
+  </si>
+  <si>
+    <t>My girlfriend and I came in for our vacation to Catalina island. After missing the boat, we had to stay somewhere overnight.
+As an IHG member and credit card holder, I booked a room here on the app. Received a generous AAA discount and got a free upgrade for being an IHG platinum member.
+The front desk personal was very nice and accommodating. 
+The room was a very nice, clean 1 bedroom suite with full kitchen and appliances.
+The gym was clean and in order.
+There were appliances (blender) that we could check out. 
+Overall the room/hotel/accommodations were excellent. Nearby to shopping,food and entertainment. We went out to lunch, did some shopping and seen a movie at a nearby theater.
+I was very impressed with my stay and would recommend a stay here.
+CONS: 
+My only couple complaints are that the community laundry room and the gym are connected. So the gym was HOT from all the people doing their laundry.
+Also, it seems this place rents out to weekly/monthly residents. And not a very prestigious group.
+I wasn't pleased having to see women running around in flip flops and nightgowns / moomoos in and out of the laundry/gym area. 
+Dirty men in their dirty work clothes or wearing boxer shorts and wifebeater tank tops in and out of the lobbyvarea and concession area.
+They really brought down the ambience of the place. 
+And I'm just about positive that they're...My girlfriend and I came in for our vacation to Catalina island. After missing the boat, we had to stay somewhere overnight.As an IHG member and credit card holder, I booked a room here on the app. Received a generous AAA discount and got a free upgrade for being an IHG platinum member.The front desk personal was very nice and accommodating. The room was a very nice, clean 1 bedroom suite with full kitchen and appliances.The gym was clean and in order.There were appliances (blender) that we could check out. Overall the room/hotel/accommodations were excellent. Nearby to shopping,food and entertainment. We went out to lunch, did some shopping and seen a movie at a nearby theater.I was very impressed with my stay and would recommend a stay here.CONS: My only couple complaints are that the community laundry room and the gym are connected. So the gym was HOT from all the people doing their laundry.Also, it seems this place rents out to weekly/monthly residents. And not a very prestigious group.I wasn't pleased having to see women running around in flip flops and nightgowns / moomoos in and out of the laundry/gym area. Dirty men in their dirty work clothes or wearing boxer shorts and wifebeater tank tops in and out of the lobbyvarea and concession area.They really brought down the ambience of the place. And I'm just about positive that they're not paying anywhere close to the $105.00 I spent for the night.That's why it received a 4 star rather than 5. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>My girlfriend and I came in for our vacation to Catalina island. After missing the boat, we had to stay somewhere overnight.
+As an IHG member and credit card holder, I booked a room here on the app. Received a generous AAA discount and got a free upgrade for being an IHG platinum member.
+The front desk personal was very nice and accommodating. 
+The room was a very nice, clean 1 bedroom suite with full kitchen and appliances.
+The gym was clean and in order.
+There were appliances (blender) that we could check out. 
+Overall the room/hotel/accommodations were excellent. Nearby to shopping,food and entertainment. We went out to lunch, did some shopping and seen a movie at a nearby theater.
+I was very impressed with my stay and would recommend a stay here.
+CONS: 
+My only couple complaints are that the community laundry room and the gym are connected. So the gym was HOT from all the people doing their laundry.
+Also, it seems this place rents out to weekly/monthly residents. And not a very prestigious group.
+I wasn't pleased having to see women running around in flip flops and nightgowns / moomoos in and out of the laundry/gym area. 
+Dirty men in their dirty work clothes or wearing boxer shorts and wifebeater tank tops in and out of the lobbyvarea and concession area.
+They really brought down the ambience of the place. 
+And I'm just about positive that they're...My girlfriend and I came in for our vacation to Catalina island. After missing the boat, we had to stay somewhere overnight.As an IHG member and credit card holder, I booked a room here on the app. Received a generous AAA discount and got a free upgrade for being an IHG platinum member.The front desk personal was very nice and accommodating. The room was a very nice, clean 1 bedroom suite with full kitchen and appliances.The gym was clean and in order.There were appliances (blender) that we could check out. Overall the room/hotel/accommodations were excellent. Nearby to shopping,food and entertainment. We went out to lunch, did some shopping and seen a movie at a nearby theater.I was very impressed with my stay and would recommend a stay here.CONS: My only couple complaints are that the community laundry room and the gym are connected. So the gym was HOT from all the people doing their laundry.Also, it seems this place rents out to weekly/monthly residents. And not a very prestigious group.I wasn't pleased having to see women running around in flip flops and nightgowns / moomoos in and out of the laundry/gym area. Dirty men in their dirty work clothes or wearing boxer shorts and wifebeater tank tops in and out of the lobbyvarea and concession area.They really brought down the ambience of the place. And I'm just about positive that they're not paying anywhere close to the $105.00 I spent for the night.That's why it received a 4 star rather than 5. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r479872725-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>479872725</t>
+  </si>
+  <si>
+    <t>04/28/2017</t>
+  </si>
+  <si>
+    <t>Stay Away</t>
+  </si>
+  <si>
+    <t>Can't think of one good reason to ever stay here again. One bad experience after another. Everything from the room not ready, getting charged a rate other than contracted. No towel service or daily service. Maid carts in empty halls with no maids around. Noisy upstairs guests and the front desk would do nothing. Dogs barking all hours of day and night. Lights not working in bathrooms. Roaches. Employees "GRUNTING" at you like a pig when you asked them a questionMoreShow less</t>
+  </si>
+  <si>
+    <t>Chase D, Manager at Candlewood Suites North Orange County, responded to this reviewResponded May 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2017</t>
+  </si>
+  <si>
+    <t>Can't think of one good reason to ever stay here again. One bad experience after another. Everything from the room not ready, getting charged a rate other than contracted. No towel service or daily service. Maid carts in empty halls with no maids around. Noisy upstairs guests and the front desk would do nothing. Dogs barking all hours of day and night. Lights not working in bathrooms. Roaches. Employees "GRUNTING" at you like a pig when you asked them a questionMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r469924891-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>469924891</t>
+  </si>
+  <si>
+    <t>03/24/2017</t>
+  </si>
+  <si>
+    <t>Helpful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We flew overnight and got there early. 930 am.  We were told there was none available at the moment but they're going to clean some now so we completed the paperwork and left my phone number.  They said probably about 2 hours for the 3 rooms to be ready . We got the call in 2 hours and gave us the keys when we walked in. </t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r457752418-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>457752418</t>
+  </si>
+  <si>
+    <t>02/06/2017</t>
+  </si>
+  <si>
+    <t>Great experience!</t>
+  </si>
+  <si>
+    <t>Great service! Personnel &amp; room service were very helpful. Environment was peaceful &amp; clean. The price was low &amp; good my pocket! Highly recommend it to anyone willing to save money &amp; enjoy the Orange County area.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r450485144-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>450485144</t>
+  </si>
+  <si>
+    <t>01/08/2017</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay</t>
+  </si>
+  <si>
+    <t>We had a fab stay here, free parking and very good wifi. All the staff were lovely. Room was clean with small kitchen area. Had a couple of minor issues but these were dealt with immediately which was great. Housekeeping only come once a week so you don't get beds made/new toiletries/fresh towels/ bins emptied daily. Although you can change towels for fresh ones at reception when you need to. Overall we enjoyed our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Richard S, General Manager at Candlewood Suites North Orange County, responded to this reviewResponded January 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2017</t>
+  </si>
+  <si>
+    <t>We had a fab stay here, free parking and very good wifi. All the staff were lovely. Room was clean with small kitchen area. Had a couple of minor issues but these were dealt with immediately which was great. Housekeeping only come once a week so you don't get beds made/new toiletries/fresh towels/ bins emptied daily. Although you can change towels for fresh ones at reception when you need to. Overall we enjoyed our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r447071549-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>447071549</t>
+  </si>
+  <si>
+    <t>12/27/2016</t>
+  </si>
+  <si>
+    <t>Stellar Customer Service</t>
+  </si>
+  <si>
+    <t>"Ivy" the night concierge gave my family and I stellar customer service. I made an error and booked a hotel room with only one bed in it for my family of four. Ivy immediately accomidated my family and I by getting us another room so everyone had a place to sleep. Thank you so much for your outstanding  service! This is just another reason why I love this hotel! Sincerely, The Hasse FamilyMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Richard S, General Manager at Candlewood Suites North Orange County, responded to this reviewResponded January 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 3, 2017</t>
+  </si>
+  <si>
+    <t>"Ivy" the night concierge gave my family and I stellar customer service. I made an error and booked a hotel room with only one bed in it for my family of four. Ivy immediately accomidated my family and I by getting us another room so everyone had a place to sleep. Thank you so much for your outstanding  service! This is just another reason why I love this hotel! Sincerely, The Hasse FamilyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r440776520-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>440776520</t>
+  </si>
+  <si>
+    <t>11/28/2016</t>
+  </si>
+  <si>
+    <t>Holiday visit</t>
+  </si>
+  <si>
+    <t>Property is not hard to find. Has plenty of parking.Check in was quick. Front desk lady was nice and professional.Room is spacious enough.Kitchen sink was not clean upon arrival.TV remote was missing from room. I was given a new one but it quit working as well.Front desk sent somebody right up to remedy the issues.TV channel line up is a little short but good enough. Room has a DVD player.They half updated the rooms which is nice.Bathroom was clean. Plenty of towels.Kitchenette and full size fridge were just what I needed for the week.They stock the kitchen with everything you need too.Wish their lending area had more appliances like a toaster oven or a pizza cooker. That would be nice.Stove top was a little weak so you had to turn it all the way up to get it hot enough.Property also has a fitness center, a small store with limited goodies and chilled beverages and a small laundry room.Out back there's a gazebo with bbq grills.This property does accept pets and even has a small outside pet area.Suites are sound proofed somewhat between rooms so I hardly ever heard other guests. Love my quiet time.I do wish they had a jacuzzi to relax in.I would come and stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Richard S, General Manager at Candlewood Suites North Orange County, responded to this reviewResponded December 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2016</t>
+  </si>
+  <si>
+    <t>Property is not hard to find. Has plenty of parking.Check in was quick. Front desk lady was nice and professional.Room is spacious enough.Kitchen sink was not clean upon arrival.TV remote was missing from room. I was given a new one but it quit working as well.Front desk sent somebody right up to remedy the issues.TV channel line up is a little short but good enough. Room has a DVD player.They half updated the rooms which is nice.Bathroom was clean. Plenty of towels.Kitchenette and full size fridge were just what I needed for the week.They stock the kitchen with everything you need too.Wish their lending area had more appliances like a toaster oven or a pizza cooker. That would be nice.Stove top was a little weak so you had to turn it all the way up to get it hot enough.Property also has a fitness center, a small store with limited goodies and chilled beverages and a small laundry room.Out back there's a gazebo with bbq grills.This property does accept pets and even has a small outside pet area.Suites are sound proofed somewhat between rooms so I hardly ever heard other guests. Love my quiet time.I do wish they had a jacuzzi to relax in.I would come and stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r438113365-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>438113365</t>
+  </si>
+  <si>
+    <t>11/17/2016</t>
+  </si>
+  <si>
+    <t>Comfortable and quiet</t>
+  </si>
+  <si>
+    <t>I always love staying at the Candlewood because the beds are super comfortable, the shower has good water pressure and the room is relaxing and quiet. I love the kitchen area and you can even borrow a blender!MoreShow less</t>
+  </si>
+  <si>
+    <t>I always love staying at the Candlewood because the beds are super comfortable, the shower has good water pressure and the room is relaxing and quiet. I love the kitchen area and you can even borrow a blender!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r435888480-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>435888480</t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t>Things that go bump not just in the night</t>
+  </si>
+  <si>
+    <t>It was clean and the staff handles the customer needs fine. They just seem a bit rushed and unsure at times about how to get answers. The security patrols and is around in the late evening. I appreciate that due to parking in the lot and walking at night. He is manerly, helpful and pleasant.The folks with kids above me room stomped, banged and were falling everyday at random time. They seem to have to control. I was a day sleeper and have frequented Candlewood in the past for long term businesss stays for weeks and was contented with my stay.Maybe there is new managentet now. The general manager is the same tho. I was told everytime i called that they would call thier room. EVERYDAY, NO REAL CHANGE. THEN , I GOT A WEIRD KNOCK AT MY DOOR BUT NO REAL CHANGE.Would I stay at this location again? After, speaking with them regarding some concession for my days of disturbance and unbridled annoyances, I WILL WRITE ANOTHER REVIEW WITH MORE DETAILS OF MY STAYS AND EXPERIENCES.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Richard S, General Manager at Candlewood Suites North Orange County, responded to this reviewResponded November 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2016</t>
+  </si>
+  <si>
+    <t>It was clean and the staff handles the customer needs fine. They just seem a bit rushed and unsure at times about how to get answers. The security patrols and is around in the late evening. I appreciate that due to parking in the lot and walking at night. He is manerly, helpful and pleasant.The folks with kids above me room stomped, banged and were falling everyday at random time. They seem to have to control. I was a day sleeper and have frequented Candlewood in the past for long term businesss stays for weeks and was contented with my stay.Maybe there is new managentet now. The general manager is the same tho. I was told everytime i called that they would call thier room. EVERYDAY, NO REAL CHANGE. THEN , I GOT A WEIRD KNOCK AT MY DOOR BUT NO REAL CHANGE.Would I stay at this location again? After, speaking with them regarding some concession for my days of disturbance and unbridled annoyances, I WILL WRITE ANOTHER REVIEW WITH MORE DETAILS OF MY STAYS AND EXPERIENCES.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r422784436-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>422784436</t>
+  </si>
+  <si>
+    <t>09/27/2016</t>
+  </si>
+  <si>
+    <t>Old, tired hotel with responsive staff</t>
+  </si>
+  <si>
+    <t>We had bad timing for our stay.  The hotel had just begun the process of replacing the carpeting in the guest rooms when we arrived.  Old carpeting and padding is very stinky and new carpeting glue on top of that makes it very unpleasant.  We also were surrounded by hammers banging around us and workers speaking and eating in the hallways.  They cleaned up everything each night but it really made for an unpleasant environment.  Our room had not yet had its carpeting replaced.  The furniture was in good shape, but the drapes/sheer were frayed and the hem torn.  The tub shower did not drain well, which is pretty gross (we yanked out the plug entirely and it helped, although the thing was pretty nasty to look at.) 
+This is one of the older Candlewoods, so there is almost no lobby.  The "cupboard" (self-service sundries shop) is wedged into the laundry room and sparsely stocked because of a high rate of theft.  This was unfortunate as I had to rely on that as a source of meal twice during the stay - cup o noodles gets old after a bite or two.  
+Now for the good part.  These hotels carry a very small staff.  Despite that, the team was very friendly, answered our calls and requests immediately (like asking for the carpet guys to move to a different room when they started next door at 6am), and did everything they...We had bad timing for our stay.  The hotel had just begun the process of replacing the carpeting in the guest rooms when we arrived.  Old carpeting and padding is very stinky and new carpeting glue on top of that makes it very unpleasant.  We also were surrounded by hammers banging around us and workers speaking and eating in the hallways.  They cleaned up everything each night but it really made for an unpleasant environment.  Our room had not yet had its carpeting replaced.  The furniture was in good shape, but the drapes/sheer were frayed and the hem torn.  The tub shower did not drain well, which is pretty gross (we yanked out the plug entirely and it helped, although the thing was pretty nasty to look at.) This is one of the older Candlewoods, so there is almost no lobby.  The "cupboard" (self-service sundries shop) is wedged into the laundry room and sparsely stocked because of a high rate of theft.  This was unfortunate as I had to rely on that as a source of meal twice during the stay - cup o noodles gets old after a bite or two.  Now for the good part.  These hotels carry a very small staff.  Despite that, the team was very friendly, answered our calls and requests immediately (like asking for the carpet guys to move to a different room when they started next door at 6am), and did everything they could to make our stay better.  I like that the hotel is renovating a little - that plus a great staff will make future stays much better.  We just had bad timing.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Richard S, General Manager at Candlewood Suites North Orange County, responded to this reviewResponded September 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2016</t>
+  </si>
+  <si>
+    <t>We had bad timing for our stay.  The hotel had just begun the process of replacing the carpeting in the guest rooms when we arrived.  Old carpeting and padding is very stinky and new carpeting glue on top of that makes it very unpleasant.  We also were surrounded by hammers banging around us and workers speaking and eating in the hallways.  They cleaned up everything each night but it really made for an unpleasant environment.  Our room had not yet had its carpeting replaced.  The furniture was in good shape, but the drapes/sheer were frayed and the hem torn.  The tub shower did not drain well, which is pretty gross (we yanked out the plug entirely and it helped, although the thing was pretty nasty to look at.) 
+This is one of the older Candlewoods, so there is almost no lobby.  The "cupboard" (self-service sundries shop) is wedged into the laundry room and sparsely stocked because of a high rate of theft.  This was unfortunate as I had to rely on that as a source of meal twice during the stay - cup o noodles gets old after a bite or two.  
+Now for the good part.  These hotels carry a very small staff.  Despite that, the team was very friendly, answered our calls and requests immediately (like asking for the carpet guys to move to a different room when they started next door at 6am), and did everything they...We had bad timing for our stay.  The hotel had just begun the process of replacing the carpeting in the guest rooms when we arrived.  Old carpeting and padding is very stinky and new carpeting glue on top of that makes it very unpleasant.  We also were surrounded by hammers banging around us and workers speaking and eating in the hallways.  They cleaned up everything each night but it really made for an unpleasant environment.  Our room had not yet had its carpeting replaced.  The furniture was in good shape, but the drapes/sheer were frayed and the hem torn.  The tub shower did not drain well, which is pretty gross (we yanked out the plug entirely and it helped, although the thing was pretty nasty to look at.) This is one of the older Candlewoods, so there is almost no lobby.  The "cupboard" (self-service sundries shop) is wedged into the laundry room and sparsely stocked because of a high rate of theft.  This was unfortunate as I had to rely on that as a source of meal twice during the stay - cup o noodles gets old after a bite or two.  Now for the good part.  These hotels carry a very small staff.  Despite that, the team was very friendly, answered our calls and requests immediately (like asking for the carpet guys to move to a different room when they started next door at 6am), and did everything they could to make our stay better.  I like that the hotel is renovating a little - that plus a great staff will make future stays much better.  We just had bad timing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r417663199-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>417663199</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>Excellent value, convenient location but not as great as another Candlewood Suites</t>
+  </si>
+  <si>
+    <t>I stayed at the Candlewood Suites in Garden Grove, CA for 2.5 weeks recently.The location is convenient to access near the intersection of highways 22, 5 and 57. There are 1 big asian supermarket in a strip mall 1/3 mile away on the same Garden Grove Boulevard and plenty of restaurants around.The room decor is the same as other Candlewood Suites but for the same price, room is smaller than the Candlewood Suites I stayed just before in Morris Plains, NJ although this hotel is bigger with 4 floors. The common areas, hallways, elevators appear more dated and are not as well kept as the NJ hotel. Checking was fast however I notice that the desk chair in the room had a large tear and had to ask the front desk to replace it. My stay overall is good. Pillows are soft and you can get a good sleep. The hotel is relatively well insulated from noise. Parking, security are good. High speed internet access over wifi is good and better here than in NJ.Given hotel prices in the Los Angeles basin, I can say this hotel does offer excellent value if you make your reservations fairly well in advance like I did.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Richard S, General Manager at Candlewood Suites North Orange County, responded to this reviewResponded September 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at the Candlewood Suites in Garden Grove, CA for 2.5 weeks recently.The location is convenient to access near the intersection of highways 22, 5 and 57. There are 1 big asian supermarket in a strip mall 1/3 mile away on the same Garden Grove Boulevard and plenty of restaurants around.The room decor is the same as other Candlewood Suites but for the same price, room is smaller than the Candlewood Suites I stayed just before in Morris Plains, NJ although this hotel is bigger with 4 floors. The common areas, hallways, elevators appear more dated and are not as well kept as the NJ hotel. Checking was fast however I notice that the desk chair in the room had a large tear and had to ask the front desk to replace it. My stay overall is good. Pillows are soft and you can get a good sleep. The hotel is relatively well insulated from noise. Parking, security are good. High speed internet access over wifi is good and better here than in NJ.Given hotel prices in the Los Angeles basin, I can say this hotel does offer excellent value if you make your reservations fairly well in advance like I did.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r411250642-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>411250642</t>
+  </si>
+  <si>
+    <t>08/26/2016</t>
+  </si>
+  <si>
+    <t>OK for the price</t>
+  </si>
+  <si>
+    <t>Not a lot to tell .Reception was quick.Queen size bedroom (bed was a little too soft for my liking but that's my preference for a firm mattress).Functional albeit a little old.  Looks like it had been renovated - bathroom/shower etc were sort of modern but clean.  Carpet needs a good clean.Sufficient number of power points.Good kitchenette setup with 2 electric burners, microwave, pots and pans etc.Stayed just the night as was passing through.MoreShow less</t>
+  </si>
+  <si>
+    <t>Richard S, General Manager at Candlewood Suites North Orange County, responded to this reviewResponded August 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2016</t>
+  </si>
+  <si>
+    <t>Not a lot to tell .Reception was quick.Queen size bedroom (bed was a little too soft for my liking but that's my preference for a firm mattress).Functional albeit a little old.  Looks like it had been renovated - bathroom/shower etc were sort of modern but clean.  Carpet needs a good clean.Sufficient number of power points.Good kitchenette setup with 2 electric burners, microwave, pots and pans etc.Stayed just the night as was passing through.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r392160485-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>392160485</t>
+  </si>
+  <si>
+    <t>07/13/2016</t>
+  </si>
+  <si>
+    <t>Thumbs up</t>
+  </si>
+  <si>
+    <t>This is best bag for your dollar. Has kitchen no over but rest is there. Has BBQ area but no pool. Staff is very helpful was able to check in early. They will track down a blender if need one which we did for our BBQ that was very helpful. Close to highways   MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Richard S, General Manager at Candlewood Suites North Orange County, responded to this reviewResponded July 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2016</t>
+  </si>
+  <si>
+    <t>This is best bag for your dollar. Has kitchen no over but rest is there. Has BBQ area but no pool. Staff is very helpful was able to check in early. They will track down a blender if need one which we did for our BBQ that was very helpful. Close to highways   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r387267843-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>387267843</t>
+  </si>
+  <si>
+    <t>06/28/2016</t>
+  </si>
+  <si>
+    <t>A good stay overall</t>
+  </si>
+  <si>
+    <t>We recently stayed here, and our experience was very positive throughout.  Our room was clean and and well equipped.  The staff was very helpful, and the rates very reasonable.  TV and Wifi were both decent.A few things though prevent me from giving it the perfect score.  First, everything inside and outside the rooms is dated.  The paint on the walls, the carpet in the hallways, the fridge in the room, it's all just OLD.  The lobby and side entrances don't have any automatic sliding doors. (Opening two sets of single regular doors while pushing a stroller and lugging a suitcase is not awesome). Also, as a very frequent IHG patron elite member, I'm used to traveling to other hotels in this chain and enjoying little perks like free bottled water at the front, free room upgrades, and so forth.  Small things like that add up to be a minor annoyance, although nothing like a dealbreaker.In the end, since the value was very good, I would have no problem staying here again, despite the little inconveniences.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Richard S, General Manager at Candlewood Suites North Orange County, responded to this reviewResponded July 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2016</t>
+  </si>
+  <si>
+    <t>We recently stayed here, and our experience was very positive throughout.  Our room was clean and and well equipped.  The staff was very helpful, and the rates very reasonable.  TV and Wifi were both decent.A few things though prevent me from giving it the perfect score.  First, everything inside and outside the rooms is dated.  The paint on the walls, the carpet in the hallways, the fridge in the room, it's all just OLD.  The lobby and side entrances don't have any automatic sliding doors. (Opening two sets of single regular doors while pushing a stroller and lugging a suitcase is not awesome). Also, as a very frequent IHG patron elite member, I'm used to traveling to other hotels in this chain and enjoying little perks like free bottled water at the front, free room upgrades, and so forth.  Small things like that add up to be a minor annoyance, although nothing like a dealbreaker.In the end, since the value was very good, I would have no problem staying here again, despite the little inconveniences.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r387260917-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>387260917</t>
+  </si>
+  <si>
+    <t>Comfortable and Conveniant</t>
+  </si>
+  <si>
+    <t>Rented 12 rooms here for a work conference nearby. Great location just off the freeway. Staff was very helpful and friendly. Rooms had a home-like feel. Beds were very comfortable. Great little kitchenette with all the necessities. I had one misunderstanding which was handled and resolved very professionally by their manager, Richard. We would definitely stay here again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r381760158-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>381760158</t>
+  </si>
+  <si>
+    <t>06/11/2016</t>
+  </si>
+  <si>
+    <t>I recommend coming to this place</t>
+  </si>
+  <si>
+    <t>The service was great, the room for super clean, location is good next to freeway access, it's near the beach to the Angel Stadium and Disneyland too, it was my first time being at this hotel, I recommend coming to stay if you need too, MoreShow less</t>
+  </si>
+  <si>
+    <t>Richard S, General Manager at Candlewood Suites North Orange County, responded to this reviewResponded June 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2016</t>
+  </si>
+  <si>
+    <t>The service was great, the room for super clean, location is good next to freeway access, it's near the beach to the Angel Stadium and Disneyland too, it was my first time being at this hotel, I recommend coming to stay if you need too, More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r378016025-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>378016025</t>
+  </si>
+  <si>
+    <t>05/30/2016</t>
+  </si>
+  <si>
+    <t>Great!</t>
+  </si>
+  <si>
+    <t>Great stay! Rooms seem a little old for the price but offered everything we were looking for in our stay. Great location with an AMPM right next door. Comfy bed &amp; very spacious room. Didn't use the full kitchen but nice if you plan on doing some cooking. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Richard S, General Manager at Candlewood Suites North Orange County, responded to this reviewResponded June 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2016</t>
+  </si>
+  <si>
+    <t>Great stay! Rooms seem a little old for the price but offered everything we were looking for in our stay. Great location with an AMPM right next door. Comfy bed &amp; very spacious room. Didn't use the full kitchen but nice if you plan on doing some cooking. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r373521800-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>373521800</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>Excellent stay</t>
+  </si>
+  <si>
+    <t>The customer service  at the front desk when checking in was super friendly and professional.  I was greeted with a hello how are you every time I passed by the front desk.  I enjoyed how comfortable the room felt and how clean and quite the hotel is.   Looking forward to my next stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Richard S, General Manager at Candlewood Suites North Orange County, responded to this reviewResponded May 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2016</t>
+  </si>
+  <si>
+    <t>The customer service  at the front desk when checking in was super friendly and professional.  I was greeted with a hello how are you every time I passed by the front desk.  I enjoyed how comfortable the room felt and how clean and quite the hotel is.   Looking forward to my next stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r364719001-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>364719001</t>
+  </si>
+  <si>
+    <t>04/16/2016</t>
+  </si>
+  <si>
+    <t>Nice place/functional</t>
+  </si>
+  <si>
+    <t>This is more or less a standard Candlewood Suites property.  I have stayed at a number across the country, and this is my least favorite for one reason.  The fitness center, 24/7 coffee machine, cupboard (store to buy food and drinks), laundry room, and area to pick out a game, crock pot, etc., is in one large room.  See attached photos.  I love to workout in the morning.  What a pain to be doing weights (really nice Matrix machine) or running on the treadmill and having people pop in all morning to get their cup of coffee, do laundry, or buy a granola bar.  Definitely not an ideal arrangement.  And, on top of it all, there is a large window that opens to the front desk/out into the parking lot where everyone passing can look in.  For this reason, I would not choose to stay here again.The staff is very hospitable and truly exudes the desire to please.  That said, within 48 hours, I had to go to the front desk and request creamer for my coffee three times - the basket was always out.The rooms are very nicely appointed, easy on/off access to the 22 freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Richard S, General Manager at Candlewood Suites North Orange County, responded to this reviewResponded April 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2016</t>
+  </si>
+  <si>
+    <t>This is more or less a standard Candlewood Suites property.  I have stayed at a number across the country, and this is my least favorite for one reason.  The fitness center, 24/7 coffee machine, cupboard (store to buy food and drinks), laundry room, and area to pick out a game, crock pot, etc., is in one large room.  See attached photos.  I love to workout in the morning.  What a pain to be doing weights (really nice Matrix machine) or running on the treadmill and having people pop in all morning to get their cup of coffee, do laundry, or buy a granola bar.  Definitely not an ideal arrangement.  And, on top of it all, there is a large window that opens to the front desk/out into the parking lot where everyone passing can look in.  For this reason, I would not choose to stay here again.The staff is very hospitable and truly exudes the desire to please.  That said, within 48 hours, I had to go to the front desk and request creamer for my coffee three times - the basket was always out.The rooms are very nicely appointed, easy on/off access to the 22 freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r362661891-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>362661891</t>
+  </si>
+  <si>
+    <t>04/08/2016</t>
+  </si>
+  <si>
+    <t>Pleasant</t>
+  </si>
+  <si>
+    <t>Elevators need maintenance. Over all very comfortable beds and service has been pleasant. Location is perfect for my commute to my job site with very little traffic issues. Very quit and well  maintained. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Richard S, General Manager at Candlewood Suites North Orange County, responded to this reviewResponded April 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2016</t>
+  </si>
+  <si>
+    <t>Elevators need maintenance. Over all very comfortable beds and service has been pleasant. Location is perfect for my commute to my job site with very little traffic issues. Very quit and well  maintained. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r358481567-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>358481567</t>
+  </si>
+  <si>
+    <t>03/25/2016</t>
+  </si>
+  <si>
+    <t>Soft cozy bed!</t>
+  </si>
+  <si>
+    <t>I stay at alot of hotels, so I tend to be particular.  Candlewood was great!  Clean rooms, great service, soft beds and nice workout center.  It is located by many restaurants and shopping.  I would definitely recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Richard S, Manager at Candlewood Suites North Orange County, responded to this reviewResponded March 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2016</t>
+  </si>
+  <si>
+    <t>I stay at alot of hotels, so I tend to be particular.  Candlewood was great!  Clean rooms, great service, soft beds and nice workout center.  It is located by many restaurants and shopping.  I would definitely recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r353201759-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>353201759</t>
+  </si>
+  <si>
+    <t>03/05/2016</t>
+  </si>
+  <si>
+    <t>Happiness</t>
+  </si>
+  <si>
+    <t>I always wanted to stay in this hotel for almost a month but never had the opportunity. Until today (we) meaning my daughter and I wamted to get away from home at least one night. We live in riverside and came to visit my son which resides in the city of Anaheim,calif. finally i was passing by the suites and i ask my daughter "will you like to stay here? She said Yes! So we walk-in to see a very nice gentlemen and polite which help us with our registration. And we got the room, my daughter and i love it the room is very nice it was nice to see my littke one's face with a big smile.. She's only 4 years old and was having a great time this is her first night in a hotel and i love her smile and her happiness she was feeling at the moment. Thank YouSincerely,Maria De La Cruz MoreShow less</t>
+  </si>
+  <si>
+    <t>I always wanted to stay in this hotel for almost a month but never had the opportunity. Until today (we) meaning my daughter and I wamted to get away from home at least one night. We live in riverside and came to visit my son which resides in the city of Anaheim,calif. finally i was passing by the suites and i ask my daughter "will you like to stay here? She said Yes! So we walk-in to see a very nice gentlemen and polite which help us with our registration. And we got the room, my daughter and i love it the room is very nice it was nice to see my littke one's face with a big smile.. She's only 4 years old and was having a great time this is her first night in a hotel and i love her smile and her happiness she was feeling at the moment. Thank YouSincerely,Maria De La Cruz More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r352725358-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>352725358</t>
+  </si>
+  <si>
+    <t>03/03/2016</t>
+  </si>
+  <si>
+    <t>Very nice rooms and fast wifi</t>
+  </si>
+  <si>
+    <t>The soft water was what made it for me. The kitchen had me at first sight. The desk is well equipped and useful. The tv has all my favorite channels and the bed was very comfortable room service was on point.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r350301762-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>350301762</t>
+  </si>
+  <si>
+    <t>02/23/2016</t>
+  </si>
+  <si>
+    <t>Amazing place</t>
+  </si>
+  <si>
+    <t>We decided to add an extra night and was informed the room we were going to have for the next 8 nights wasn't available so we would have to move rooms after the first night, I totally get it no biggie, pain but can't control how full they are. We got there around noon assuming we couldn't check in since it was early which again no biggie, walked in they were so friendly and welcoming, after telling her the name and we would have two reservations etc, after about five mins she said ok your room is ready and you won't have to move I was in shock, and it was on the top floor which we requested too. So we grab the buggy for luggage and head to the room, we opened the door to nice, clean room. The whole motel is non smoking so that was wonderful, everything was clean... It wad a great place, and we will stay here every two months from now on...great place, wonderful staffMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>We decided to add an extra night and was informed the room we were going to have for the next 8 nights wasn't available so we would have to move rooms after the first night, I totally get it no biggie, pain but can't control how full they are. We got there around noon assuming we couldn't check in since it was early which again no biggie, walked in they were so friendly and welcoming, after telling her the name and we would have two reservations etc, after about five mins she said ok your room is ready and you won't have to move I was in shock, and it was on the top floor which we requested too. So we grab the buggy for luggage and head to the room, we opened the door to nice, clean room. The whole motel is non smoking so that was wonderful, everything was clean... It wad a great place, and we will stay here every two months from now on...great place, wonderful staffMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r345597008-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>345597008</t>
+  </si>
+  <si>
+    <t>02/07/2016</t>
+  </si>
+  <si>
+    <t>NICE Suprise</t>
+  </si>
+  <si>
+    <t>A bit far from Disneyland ( about 6 miles)  - but what was available on short notice - Room was GREAT,CLEAN, Modern, Full kitchen with full size fridge and stovetop - room was large with oversize desk for work etc - front desk staff was very helpful and friendly - I left an expensive pair of running shoes there - they called me within an hour of my checkout and I was able to pick them up at the front desk - Bathroom and amentities were all spotless - will stay here again</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r340342639-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>340342639</t>
+  </si>
+  <si>
+    <t>01/15/2016</t>
+  </si>
+  <si>
+    <t>Good for the price</t>
+  </si>
+  <si>
+    <t>Usually get a great deal.  Larger room, comfortable bed.  Noisy AC/Heater though.  Fitness room better than average as it has a weight/pulley machine as well as cardio.  Cupboard a little barer than other Candelwoods. Room may or may not get done on alternate days.Location within walking distance of restaurants and a strip mall.  Good area.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites North Orange County, responded to this reviewResponded January 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2016</t>
+  </si>
+  <si>
+    <t>Usually get a great deal.  Larger room, comfortable bed.  Noisy AC/Heater though.  Fitness room better than average as it has a weight/pulley machine as well as cardio.  Cupboard a little barer than other Candelwoods. Room may or may not get done on alternate days.Location within walking distance of restaurants and a strip mall.  Good area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r337432089-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>337432089</t>
+  </si>
+  <si>
+    <t>01/04/2016</t>
+  </si>
+  <si>
+    <t>Great hotel for an extended stay</t>
+  </si>
+  <si>
+    <t>Very comfortable room, including kitchen in a quiet hotel.  Staff were very friendly and helpful and the location was good.  It's an extended stay hotel, so cleaning service is weekly, not daily.  This wasn't a problem for us.  It was great being able to cook our own breakfast before heading out for the day.  We'd definitely stay here again.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r326166926-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>326166926</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t>Wow! Sweet suites!</t>
+  </si>
+  <si>
+    <t>Show up w/ a party of 4 and they want to put you in a studio w/ 1 bed and a recliner...I don't think so. You can get a room w/ 2 beds in most Anaheim area hotels. We had to upgrade at additional cost to a 1 bedroom with a pullout couch. Very spacious w/ complete kitchen, free WIFI and 2 TVs; free laundry on premises but bring your own laundry soap as none is for sale; free parking. There is no daily housekeeping service so you exchange towels at the front desk...awkward...esp when towels are not available and they forget to bring them to your room so you have to make another trip downstairs. ART to Disneyland is available at sister property next door Holiday Inn ExpressMoreShow less</t>
+  </si>
+  <si>
+    <t>Show up w/ a party of 4 and they want to put you in a studio w/ 1 bed and a recliner...I don't think so. You can get a room w/ 2 beds in most Anaheim area hotels. We had to upgrade at additional cost to a 1 bedroom with a pullout couch. Very spacious w/ complete kitchen, free WIFI and 2 TVs; free laundry on premises but bring your own laundry soap as none is for sale; free parking. There is no daily housekeeping service so you exchange towels at the front desk...awkward...esp when towels are not available and they forget to bring them to your room so you have to make another trip downstairs. ART to Disneyland is available at sister property next door Holiday Inn ExpressMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r324763158-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>324763158</t>
+  </si>
+  <si>
+    <t>11/05/2015</t>
+  </si>
+  <si>
+    <t>Not so Happily Ever After.....</t>
+  </si>
+  <si>
+    <t>Booked this hotel the day we were due to stay via their own website. While we were in route to the Hotel we get a call from the Front Desk saying theyre overbooked, they cant accommodate us, theyre sorry and transferring us too the 800 reservation number. LONG, L.O.N.G story short and after being bounced back and forth between the Hotels Front Desk and the Reservation Number I demanded the GM of the Hotel. (Mind you this was over 2 hours into the ordeal.) 
+During all this time we were told they would put us up and another Hotel not within their properties so we would have to provide our CC number to them, they would book the room, send us a confirmation number and we would receive a check to cover the room. Went to the stated Hotel and they had NO info on us at all. Again we were lied too and let down by IGH/Candlewood Suites. We then drove to the Airport thinking we knew it be a "safe"  and "watched after" area and to extend our rental car an additional day because this ordeal. 
+The GM did call me back and after another hour or so on the phone and off the phone he called back to say that they amazingly "found" us a room. Really, great! We had a confirmation number and should have gotten a room hours prior, not after Midnight! I still gave...Booked this hotel the day we were due to stay via their own website. While we were in route to the Hotel we get a call from the Front Desk saying theyre overbooked, they cant accommodate us, theyre sorry and transferring us too the 800 reservation number. LONG, L.O.N.G story short and after being bounced back and forth between the Hotels Front Desk and the Reservation Number I demanded the GM of the Hotel. (Mind you this was over 2 hours into the ordeal.) During all this time we were told they would put us up and another Hotel not within their properties so we would have to provide our CC number to them, they would book the room, send us a confirmation number and we would receive a check to cover the room. Went to the stated Hotel and they had NO info on us at all. Again we were lied too and let down by IGH/Candlewood Suites. We then drove to the Airport thinking we knew it be a "safe"  and "watched after" area and to extend our rental car an additional day because this ordeal. The GM did call me back and after another hour or so on the phone and off the phone he called back to say that they amazingly "found" us a room. Really, great! We had a confirmation number and should have gotten a room hours prior, not after Midnight! I still gave them the benefit of the doubt and waited and waited for any type of follow-up which was never received. I then emailed IHG 3 times and have been told my email was being forwarded on to the Hotel Management for further assistance and Im yet to hear ANYTHING back. Very sad, very bad service and overall care for the Guests. I would highly recommend NOT staying at this property and too all around skip out on the IHG brand as they don't follow through on anything.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>cdavis1987, Manager at Candlewood Suites North Orange County, responded to this reviewResponded November 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2015</t>
+  </si>
+  <si>
+    <t>Booked this hotel the day we were due to stay via their own website. While we were in route to the Hotel we get a call from the Front Desk saying theyre overbooked, they cant accommodate us, theyre sorry and transferring us too the 800 reservation number. LONG, L.O.N.G story short and after being bounced back and forth between the Hotels Front Desk and the Reservation Number I demanded the GM of the Hotel. (Mind you this was over 2 hours into the ordeal.) 
+During all this time we were told they would put us up and another Hotel not within their properties so we would have to provide our CC number to them, they would book the room, send us a confirmation number and we would receive a check to cover the room. Went to the stated Hotel and they had NO info on us at all. Again we were lied too and let down by IGH/Candlewood Suites. We then drove to the Airport thinking we knew it be a "safe"  and "watched after" area and to extend our rental car an additional day because this ordeal. 
+The GM did call me back and after another hour or so on the phone and off the phone he called back to say that they amazingly "found" us a room. Really, great! We had a confirmation number and should have gotten a room hours prior, not after Midnight! I still gave...Booked this hotel the day we were due to stay via their own website. While we were in route to the Hotel we get a call from the Front Desk saying theyre overbooked, they cant accommodate us, theyre sorry and transferring us too the 800 reservation number. LONG, L.O.N.G story short and after being bounced back and forth between the Hotels Front Desk and the Reservation Number I demanded the GM of the Hotel. (Mind you this was over 2 hours into the ordeal.) During all this time we were told they would put us up and another Hotel not within their properties so we would have to provide our CC number to them, they would book the room, send us a confirmation number and we would receive a check to cover the room. Went to the stated Hotel and they had NO info on us at all. Again we were lied too and let down by IGH/Candlewood Suites. We then drove to the Airport thinking we knew it be a "safe"  and "watched after" area and to extend our rental car an additional day because this ordeal. The GM did call me back and after another hour or so on the phone and off the phone he called back to say that they amazingly "found" us a room. Really, great! We had a confirmation number and should have gotten a room hours prior, not after Midnight! I still gave them the benefit of the doubt and waited and waited for any type of follow-up which was never received. I then emailed IHG 3 times and have been told my email was being forwarded on to the Hotel Management for further assistance and Im yet to hear ANYTHING back. Very sad, very bad service and overall care for the Guests. I would highly recommend NOT staying at this property and too all around skip out on the IHG brand as they don't follow through on anything.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r320916757-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>320916757</t>
+  </si>
+  <si>
+    <t>10/22/2015</t>
+  </si>
+  <si>
+    <t>Booking in</t>
+  </si>
+  <si>
+    <t>Although we had booked through Expedia for some unknown reason they had cancelled our booking, but Ricardo on the front desk was most helpful in getting us booked in without stress. The BBQ gazebo area was great and the kitchen area had all that we needed.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r302618491-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>302618491</t>
+  </si>
+  <si>
+    <t>08/23/2015</t>
+  </si>
+  <si>
+    <t>Good Hotel, Good Location</t>
+  </si>
+  <si>
+    <t>We stayed here for one night on a road trip from San Diego to San Francisco.  The room was clean, quiet, and comfortable.  The hotel was right off the freeway and easy to get to.  Very close to Disneyland and other local attractions.  The staff was friendly and helpful.  Lots of nice amenities.  Our room had a fully equipped kitchenette.  Free WiFi and plenty of free parking.  There is a shady pavilion outside equipped with picnic tables and gas grills.  Nothing to complain about here.  I recommend.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r294412763-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>294412763</t>
+  </si>
+  <si>
+    <t>07/31/2015</t>
+  </si>
+  <si>
+    <t>After A Week's Stay</t>
+  </si>
+  <si>
+    <t>Super service from the time we arrived which was at 7:30am from Hawaii. Even though check-in isn't until 3pm Ricardo, desk manager, found a room for us to rest until our assigned room was ready.Location to major attractions (Disneyland, Anaheim etc) was perfect.Room was perfect for the two of us. Full refrigerator, stove, and dishwasher. Flat screen TV and free internet as well.Free laundry service as well. Work out center plus snack area which you pay on the honor system.Only downside is that there's a long working desk vice kitchen table, but for just the two of us it was fine.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r284473212-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>284473212</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Not Happy!</t>
+  </si>
+  <si>
+    <t>I tried to talk to the person at the front desk to find out if they knew of the best way to get to Disneyland and he acted as if I was inconveniencing him by asking him a question. The hotel seemed clean when we first arrived and then when I went to prepare to put my sons to bed I found different. I pulled the extra blanket out of the closet to use on the pull out sofa and found there to be what looked like blood on the blanket. I immediately through it on the closet floor to not be used. Then when I closed the door to the bedroom I found a "COACH" box next to the dresser. I had not been shopping at "COACH" so I knew it was from the previous occupant.  I also noticed that there were visible stains on the carpets in the room. At that point it was pretty clear to me that they do not properly clean the rooms after each guest leaves, which I found to be unacceptable for a hotel. You could tell that the cleaning staff just really doesn't care about the quality of their work as if you look on the stairs you will see where they put down what looks like Carpet Fresh powder and then didn't bother vacuum it all up like you are supposed to. Even with that the hotel still wreaked of cigarettes...I tried to talk to the person at the front desk to find out if they knew of the best way to get to Disneyland and he acted as if I was inconveniencing him by asking him a question. The hotel seemed clean when we first arrived and then when I went to prepare to put my sons to bed I found different. I pulled the extra blanket out of the closet to use on the pull out sofa and found there to be what looked like blood on the blanket. I immediately through it on the closet floor to not be used. Then when I closed the door to the bedroom I found a "COACH" box next to the dresser. I had not been shopping at "COACH" so I knew it was from the previous occupant.  I also noticed that there were visible stains on the carpets in the room. At that point it was pretty clear to me that they do not properly clean the rooms after each guest leaves, which I found to be unacceptable for a hotel. You could tell that the cleaning staff just really doesn't care about the quality of their work as if you look on the stairs you will see where they put down what looks like Carpet Fresh powder and then didn't bother vacuum it all up like you are supposed to. Even with that the hotel still wreaked of cigarettes in the hallways and stairwells.  If you are looking to pay a decent price in this area and don't care about cleanliness then this is the place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>cdavis1987, Manager at Candlewood Suites North Orange County, responded to this reviewResponded July 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2015</t>
+  </si>
+  <si>
+    <t>I tried to talk to the person at the front desk to find out if they knew of the best way to get to Disneyland and he acted as if I was inconveniencing him by asking him a question. The hotel seemed clean when we first arrived and then when I went to prepare to put my sons to bed I found different. I pulled the extra blanket out of the closet to use on the pull out sofa and found there to be what looked like blood on the blanket. I immediately through it on the closet floor to not be used. Then when I closed the door to the bedroom I found a "COACH" box next to the dresser. I had not been shopping at "COACH" so I knew it was from the previous occupant.  I also noticed that there were visible stains on the carpets in the room. At that point it was pretty clear to me that they do not properly clean the rooms after each guest leaves, which I found to be unacceptable for a hotel. You could tell that the cleaning staff just really doesn't care about the quality of their work as if you look on the stairs you will see where they put down what looks like Carpet Fresh powder and then didn't bother vacuum it all up like you are supposed to. Even with that the hotel still wreaked of cigarettes...I tried to talk to the person at the front desk to find out if they knew of the best way to get to Disneyland and he acted as if I was inconveniencing him by asking him a question. The hotel seemed clean when we first arrived and then when I went to prepare to put my sons to bed I found different. I pulled the extra blanket out of the closet to use on the pull out sofa and found there to be what looked like blood on the blanket. I immediately through it on the closet floor to not be used. Then when I closed the door to the bedroom I found a "COACH" box next to the dresser. I had not been shopping at "COACH" so I knew it was from the previous occupant.  I also noticed that there were visible stains on the carpets in the room. At that point it was pretty clear to me that they do not properly clean the rooms after each guest leaves, which I found to be unacceptable for a hotel. You could tell that the cleaning staff just really doesn't care about the quality of their work as if you look on the stairs you will see where they put down what looks like Carpet Fresh powder and then didn't bother vacuum it all up like you are supposed to. Even with that the hotel still wreaked of cigarettes in the hallways and stairwells.  If you are looking to pay a decent price in this area and don't care about cleanliness then this is the place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r276314874-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>276314874</t>
+  </si>
+  <si>
+    <t>05/31/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not consistent in the information they give. </t>
+  </si>
+  <si>
+    <t>I called this motel and ask for vacancies that would sleep 3 adults. I was told they had a room with a bed and a pull out sofa.  They told me the price so I book the room. After driving over an hour to get there and walked in only to find out that the room they were putting me in for the price they said was not the correct room. They told me the room didn't have a couch just a bed. I told them that wouldn't work. I was told they had the room for me with what I wanted. Now they are saying they didn't. So the man behind the counter try's to get rude and say no one would've told me that. Well. ... First of all I don't know what they have until someone told me. So I couldn't have made that up. The man continued to try and make me feel dumb but I know what I was told. Whoever talked to me on the phone misinformed me. And as a result of that I have to pay a higher rate to get what I was told I was getting the first time for a lower rate. I think  this was very unprofessional. #1 they need to be trained on what they tell every patron every time. #2 when a patron tells you what they were told don't try to make them feel like...I called this motel and ask for vacancies that would sleep 3 adults. I was told they had a room with a bed and a pull out sofa.  They told me the price so I book the room. After driving over an hour to get there and walked in only to find out that the room they were putting me in for the price they said was not the correct room. They told me the room didn't have a couch just a bed. I told them that wouldn't work. I was told they had the room for me with what I wanted. Now they are saying they didn't. So the man behind the counter try's to get rude and say no one would've told me that. Well. ... First of all I don't know what they have until someone told me. So I couldn't have made that up. The man continued to try and make me feel dumb but I know what I was told. Whoever talked to me on the phone misinformed me. And as a result of that I have to pay a higher rate to get what I was told I was getting the first time for a lower rate. I think  this was very unprofessional. #1 they need to be trained on what they tell every patron every time. #2 when a patron tells you what they were told don't try to make them feel like you are implying  they are lying and you could careless to help them. #3 you should try to make your patron happy or else word will spread and people will go other places to be treated better. All this guy kept saying is we are giving you a room. Which is true they did but NOT what was agreed upon. And had I had another place to go at that moment I would have. MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites North Orange County, responded to this reviewResponded June 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2015</t>
+  </si>
+  <si>
+    <t>I called this motel and ask for vacancies that would sleep 3 adults. I was told they had a room with a bed and a pull out sofa.  They told me the price so I book the room. After driving over an hour to get there and walked in only to find out that the room they were putting me in for the price they said was not the correct room. They told me the room didn't have a couch just a bed. I told them that wouldn't work. I was told they had the room for me with what I wanted. Now they are saying they didn't. So the man behind the counter try's to get rude and say no one would've told me that. Well. ... First of all I don't know what they have until someone told me. So I couldn't have made that up. The man continued to try and make me feel dumb but I know what I was told. Whoever talked to me on the phone misinformed me. And as a result of that I have to pay a higher rate to get what I was told I was getting the first time for a lower rate. I think  this was very unprofessional. #1 they need to be trained on what they tell every patron every time. #2 when a patron tells you what they were told don't try to make them feel like...I called this motel and ask for vacancies that would sleep 3 adults. I was told they had a room with a bed and a pull out sofa.  They told me the price so I book the room. After driving over an hour to get there and walked in only to find out that the room they were putting me in for the price they said was not the correct room. They told me the room didn't have a couch just a bed. I told them that wouldn't work. I was told they had the room for me with what I wanted. Now they are saying they didn't. So the man behind the counter try's to get rude and say no one would've told me that. Well. ... First of all I don't know what they have until someone told me. So I couldn't have made that up. The man continued to try and make me feel dumb but I know what I was told. Whoever talked to me on the phone misinformed me. And as a result of that I have to pay a higher rate to get what I was told I was getting the first time for a lower rate. I think  this was very unprofessional. #1 they need to be trained on what they tell every patron every time. #2 when a patron tells you what they were told don't try to make them feel like you are implying  they are lying and you could careless to help them. #3 you should try to make your patron happy or else word will spread and people will go other places to be treated better. All this guy kept saying is we are giving you a room. Which is true they did but NOT what was agreed upon. And had I had another place to go at that moment I would have. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r274882179-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>274882179</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>pet friendly</t>
+  </si>
+  <si>
+    <t>it is close to everything, disneyland, the honda center, Anaheim baseball stadium.  the beach is close.  you've got 6 flags up north.  the Ronald Reagan museum, there is also Hollywood.  there's laguna beach with driving distance.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r270364836-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>270364836</t>
+  </si>
+  <si>
+    <t>05/06/2015</t>
+  </si>
+  <si>
+    <t>A decent efficiency hotel -- good value and convenient to highways</t>
+  </si>
+  <si>
+    <t>Overall a good experience. Decently equipped kitchen, laundry facilities and fair wifi speeds. Though there is nothing decent within walking distance, if you're driving there are plenty of attractions around.For my purposes this hotel was an excellent value, and very well maintained. I will come again when I'm next in the area.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r255495403-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>255495403</t>
+  </si>
+  <si>
+    <t>02/20/2015</t>
+  </si>
+  <si>
+    <t>Not worth staying</t>
+  </si>
+  <si>
+    <t>I had stayed at this hotel a few years ago and had a pleasant experience. This time however, it was a different experience. The room was fine and the front desk staff was friendly but in particular the general manager was not rude, but dismissive and not very customer sensitive when I brought up a few concerns including no toiletries being placed in the room and lack of cleaning staff to clean the rooms. 
+At one point when I was made aware of the fact that there were no toiletries in the room I was required to come downstairs from the 3rd floor to get them myself. The GM's response was "well we are a long stay hotel and only have one staff after 5pm." I mentioned to him that the pricing for this hotel was comparable to other IHG properties and he responded with "that's not true the holiday inn next door is almost..." As a platinum ambassador level member of IHG I as quite shocked at his response. I didn't bring up the fact that there were cockroaches in the room and that someone was running around upstairs at 6 am prohibiting sleep. 
+The final instalment came when I checked out and there was an arbitrary 18 dollars per night fee that the front desk could not explain though they said it was probably a tax. I will be making a call to IHG to find out but...I had stayed at this hotel a few years ago and had a pleasant experience. This time however, it was a different experience. The room was fine and the front desk staff was friendly but in particular the general manager was not rude, but dismissive and not very customer sensitive when I brought up a few concerns including no toiletries being placed in the room and lack of cleaning staff to clean the rooms. At one point when I was made aware of the fact that there were no toiletries in the room I was required to come downstairs from the 3rd floor to get them myself. The GM's response was "well we are a long stay hotel and only have one staff after 5pm." I mentioned to him that the pricing for this hotel was comparable to other IHG properties and he responded with "that's not true the holiday inn next door is almost..." As a platinum ambassador level member of IHG I as quite shocked at his response. I didn't bring up the fact that there were cockroaches in the room and that someone was running around upstairs at 6 am prohibiting sleep. The final instalment came when I checked out and there was an arbitrary 18 dollars per night fee that the front desk could not explain though they said it was probably a tax. I will be making a call to IHG to find out but with that addition I could have stayed at Crowne Plaza. Rather than go on I will just vote with my wallet next time and not stay there. I would advise picking from one of the myriad of options nearby for the same price. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites North Orange County, responded to this reviewResponded March 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2015</t>
+  </si>
+  <si>
+    <t>I had stayed at this hotel a few years ago and had a pleasant experience. This time however, it was a different experience. The room was fine and the front desk staff was friendly but in particular the general manager was not rude, but dismissive and not very customer sensitive when I brought up a few concerns including no toiletries being placed in the room and lack of cleaning staff to clean the rooms. 
+At one point when I was made aware of the fact that there were no toiletries in the room I was required to come downstairs from the 3rd floor to get them myself. The GM's response was "well we are a long stay hotel and only have one staff after 5pm." I mentioned to him that the pricing for this hotel was comparable to other IHG properties and he responded with "that's not true the holiday inn next door is almost..." As a platinum ambassador level member of IHG I as quite shocked at his response. I didn't bring up the fact that there were cockroaches in the room and that someone was running around upstairs at 6 am prohibiting sleep. 
+The final instalment came when I checked out and there was an arbitrary 18 dollars per night fee that the front desk could not explain though they said it was probably a tax. I will be making a call to IHG to find out but...I had stayed at this hotel a few years ago and had a pleasant experience. This time however, it was a different experience. The room was fine and the front desk staff was friendly but in particular the general manager was not rude, but dismissive and not very customer sensitive when I brought up a few concerns including no toiletries being placed in the room and lack of cleaning staff to clean the rooms. At one point when I was made aware of the fact that there were no toiletries in the room I was required to come downstairs from the 3rd floor to get them myself. The GM's response was "well we are a long stay hotel and only have one staff after 5pm." I mentioned to him that the pricing for this hotel was comparable to other IHG properties and he responded with "that's not true the holiday inn next door is almost..." As a platinum ambassador level member of IHG I as quite shocked at his response. I didn't bring up the fact that there were cockroaches in the room and that someone was running around upstairs at 6 am prohibiting sleep. The final instalment came when I checked out and there was an arbitrary 18 dollars per night fee that the front desk could not explain though they said it was probably a tax. I will be making a call to IHG to find out but with that addition I could have stayed at Crowne Plaza. Rather than go on I will just vote with my wallet next time and not stay there. I would advise picking from one of the myriad of options nearby for the same price. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r251044166-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>251044166</t>
+  </si>
+  <si>
+    <t>01/26/2015</t>
+  </si>
+  <si>
+    <t>Hate to complain but...</t>
+  </si>
+  <si>
+    <t>This hotel has a lot of good things going for it like great price and amenities like full kitchen, cable TV,  free Internet and relatively clean rooms etc., but my two 7 day experiences along with reports from my colleagues during that time, compel me to report the negatives. The place is a pet friendly hotel and the oder in my room and stains confirms it. One guest had three dogs in her room and another was caught with a dog that she didn't report to management avoiding the pet deposit. Housekeeping services are once a week unless you want to pay extra for daily housekeeping. Unfortunately, I mistakenly had a "do not disturb" sign on my door during that one day and they didn't not try to come back the next day to make sure my room was clean which is really in their best interest having a full kitchen etc. Although I keep my room very clean  removing trash etc., one of my colleagues, reported having two cockroaches in her room. Two other co-workers had sewage come up in their bathroom sinks a few times. My coffee maker was really dirty and didn't work which was dissapointing. Other than that the staff was helpful and attentive, rooms well equipped and hotel a good value with subways, Popeyes chicken and Arco AM-PM next door. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites North Orange County, responded to this reviewResponded February 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2015</t>
+  </si>
+  <si>
+    <t>This hotel has a lot of good things going for it like great price and amenities like full kitchen, cable TV,  free Internet and relatively clean rooms etc., but my two 7 day experiences along with reports from my colleagues during that time, compel me to report the negatives. The place is a pet friendly hotel and the oder in my room and stains confirms it. One guest had three dogs in her room and another was caught with a dog that she didn't report to management avoiding the pet deposit. Housekeeping services are once a week unless you want to pay extra for daily housekeeping. Unfortunately, I mistakenly had a "do not disturb" sign on my door during that one day and they didn't not try to come back the next day to make sure my room was clean which is really in their best interest having a full kitchen etc. Although I keep my room very clean  removing trash etc., one of my colleagues, reported having two cockroaches in her room. Two other co-workers had sewage come up in their bathroom sinks a few times. My coffee maker was really dirty and didn't work which was dissapointing. Other than that the staff was helpful and attentive, rooms well equipped and hotel a good value with subways, Popeyes chicken and Arco AM-PM next door. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r243766703-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>243766703</t>
+  </si>
+  <si>
+    <t>12/09/2014</t>
+  </si>
+  <si>
+    <t>Problems problems! Avoid this place</t>
+  </si>
+  <si>
+    <t>We got this place assigned to us on Priceline at the 2 star level. I understand that you get what you pay for, but at 80 bucks a night, this place was not worth the money. At check in, the staff had a MasterCard on file for us, which was disturbing, since we don't even have a MasterCard. I wonder whose card they were going to charge. We asked about a shuttle or city bus stop to Disneyland and was told there was a trolley, then were given a flyer for a shuttle to Huntington Beach. Ummm, okay.....So, no shuttle to Disneyland, or else the staff is clueless. The room was musty and smelled bad. We found we had been given a single queen, and were told there were no other options. A gentleman in the elevator told us that his room had no working AC and he was told "no big deal it's only 74 outside"! What an inappropriate response to a legitimate problem. Also, be aware that housekeeping comes only once a week here. Not worth the money. Stay elsewhere, as there are much better values in the Anaheim area. MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites North Orange County, responded to this reviewResponded December 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 25, 2014</t>
+  </si>
+  <si>
+    <t>We got this place assigned to us on Priceline at the 2 star level. I understand that you get what you pay for, but at 80 bucks a night, this place was not worth the money. At check in, the staff had a MasterCard on file for us, which was disturbing, since we don't even have a MasterCard. I wonder whose card they were going to charge. We asked about a shuttle or city bus stop to Disneyland and was told there was a trolley, then were given a flyer for a shuttle to Huntington Beach. Ummm, okay.....So, no shuttle to Disneyland, or else the staff is clueless. The room was musty and smelled bad. We found we had been given a single queen, and were told there were no other options. A gentleman in the elevator told us that his room had no working AC and he was told "no big deal it's only 74 outside"! What an inappropriate response to a legitimate problem. Also, be aware that housekeeping comes only once a week here. Not worth the money. Stay elsewhere, as there are much better values in the Anaheim area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r229685099-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>229685099</t>
+  </si>
+  <si>
+    <t>09/18/2014</t>
+  </si>
+  <si>
+    <t>I'm generous, but the mix of location, price, good staff and recently renovated rooms bring me back</t>
+  </si>
+  <si>
+    <t>I've been here before and in fact the last time was a disaster.  But, stuff happens and they acknowledged it during my previous visit and rectified the situation.  The rooms have been re-done and the location for this part of OC is pretty damn perfect.  Close to Anaheim and Disney, but none of the crowds and congestion.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r215925713-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>215925713</t>
+  </si>
+  <si>
+    <t>07/17/2014</t>
+  </si>
+  <si>
+    <t>You get what you pay for...</t>
+  </si>
+  <si>
+    <t>There is a reason for the lower prices as the hotel is not up to par. My sister and I arrived around 1130p and just made it before the front desk closed for the night (there is a gate that comes down). When we asked for a luggage cart, we were advised it was on 1 of the floors and we had to look for it; we looked thru 4 floors and none were found. There is a muggy smell, stained carpets and small beds. Housekeeping seems to be once a week and there were only 1 or 2 parking spots left when we arrived. Overall we had booked a 10 day stay in error and just stood the 1 night before finding another hotel. Perhaps this place will due for an overnight stay...MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites North Orange County, responded to this reviewResponded August 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2014</t>
+  </si>
+  <si>
+    <t>There is a reason for the lower prices as the hotel is not up to par. My sister and I arrived around 1130p and just made it before the front desk closed for the night (there is a gate that comes down). When we asked for a luggage cart, we were advised it was on 1 of the floors and we had to look for it; we looked thru 4 floors and none were found. There is a muggy smell, stained carpets and small beds. Housekeeping seems to be once a week and there were only 1 or 2 parking spots left when we arrived. Overall we had booked a 10 day stay in error and just stood the 1 night before finding another hotel. Perhaps this place will due for an overnight stay...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r211240231-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>211240231</t>
+  </si>
+  <si>
+    <t>06/20/2014</t>
+  </si>
+  <si>
+    <t>A summer visit</t>
+  </si>
+  <si>
+    <t>We were expecting a little better and were disappoint. There was no pool, no breakfast bar, no ice machine. The pull-out mattress was very thin. The sheets for these pull-out bed had holes in them. On the plus side the room was clean and modern.  All the appliances were in good condition and working. The area was quite.  MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites North Orange County, responded to this reviewResponded July 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2014</t>
+  </si>
+  <si>
+    <t>We were expecting a little better and were disappoint. There was no pool, no breakfast bar, no ice machine. The pull-out mattress was very thin. The sheets for these pull-out bed had holes in them. On the plus side the room was clean and modern.  All the appliances were in good condition and working. The area was quite.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r205396109-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>205396109</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>There are better, cheaper, cleaner Candlewoods in the area</t>
+  </si>
+  <si>
+    <t>We stayed here for one night and then moved to another Candlewood in Irvine.
+The room was dirty, the linens had not been laundered, the bathroom was not cleaned, and the laundry room was filthy and disgusting. It was too late to change hotels by the time we got here, but we left asap in the morning to go to another Candlewood in Irvine. I stripped out the linens (fortunately, since we had planned to stay a while at Candlewood, I had packed extra linens in the suitcase).
+I tried to wash the hotel's dirty linens, but the laundry room was full, even at midnight!
+Since this is the closest Candlewood to the theme parks (Disneyland, Knott's Berry Farm), I assume that it attracts tourists, especially ones who are staying for an extended period of time. Some of those tourists may be treating the property not like a hotel (where people should be considerate of other guests) but like home (where they probably feel free to mess up the place like pigs).
+The Candlewood in Garden Grove is also the most expensive of all the Candlewoods in the area. What's more, when there is a convention in town, or during graduation, or spring break, or high tourist season, the prices are jacked up even more. But that is actually typical of all the hotels near Anaheim - they gouge tourists.
+I would not recommend this hotel at all. Sure, the...We stayed here for one night and then moved to another Candlewood in Irvine.The room was dirty, the linens had not been laundered, the bathroom was not cleaned, and the laundry room was filthy and disgusting. It was too late to change hotels by the time we got here, but we left asap in the morning to go to another Candlewood in Irvine. I stripped out the linens (fortunately, since we had planned to stay a while at Candlewood, I had packed extra linens in the suitcase).I tried to wash the hotel's dirty linens, but the laundry room was full, even at midnight!Since this is the closest Candlewood to the theme parks (Disneyland, Knott's Berry Farm), I assume that it attracts tourists, especially ones who are staying for an extended period of time. Some of those tourists may be treating the property not like a hotel (where people should be considerate of other guests) but like home (where they probably feel free to mess up the place like pigs).The Candlewood in Garden Grove is also the most expensive of all the Candlewoods in the area. What's more, when there is a convention in town, or during graduation, or spring break, or high tourist season, the prices are jacked up even more. But that is actually typical of all the hotels near Anaheim - they gouge tourists.I would not recommend this hotel at all. Sure, the free laundry is a draw, but why pay the outrageous prices for a poorly-maintained and sloppy facility? Stay somewhere else, at a real hotel that has daily housekeeping service and just go to the laundromat if you're going to be there a while.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites North Orange County, responded to this reviewResponded May 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here for one night and then moved to another Candlewood in Irvine.
+The room was dirty, the linens had not been laundered, the bathroom was not cleaned, and the laundry room was filthy and disgusting. It was too late to change hotels by the time we got here, but we left asap in the morning to go to another Candlewood in Irvine. I stripped out the linens (fortunately, since we had planned to stay a while at Candlewood, I had packed extra linens in the suitcase).
+I tried to wash the hotel's dirty linens, but the laundry room was full, even at midnight!
+Since this is the closest Candlewood to the theme parks (Disneyland, Knott's Berry Farm), I assume that it attracts tourists, especially ones who are staying for an extended period of time. Some of those tourists may be treating the property not like a hotel (where people should be considerate of other guests) but like home (where they probably feel free to mess up the place like pigs).
+The Candlewood in Garden Grove is also the most expensive of all the Candlewoods in the area. What's more, when there is a convention in town, or during graduation, or spring break, or high tourist season, the prices are jacked up even more. But that is actually typical of all the hotels near Anaheim - they gouge tourists.
+I would not recommend this hotel at all. Sure, the...We stayed here for one night and then moved to another Candlewood in Irvine.The room was dirty, the linens had not been laundered, the bathroom was not cleaned, and the laundry room was filthy and disgusting. It was too late to change hotels by the time we got here, but we left asap in the morning to go to another Candlewood in Irvine. I stripped out the linens (fortunately, since we had planned to stay a while at Candlewood, I had packed extra linens in the suitcase).I tried to wash the hotel's dirty linens, but the laundry room was full, even at midnight!Since this is the closest Candlewood to the theme parks (Disneyland, Knott's Berry Farm), I assume that it attracts tourists, especially ones who are staying for an extended period of time. Some of those tourists may be treating the property not like a hotel (where people should be considerate of other guests) but like home (where they probably feel free to mess up the place like pigs).The Candlewood in Garden Grove is also the most expensive of all the Candlewoods in the area. What's more, when there is a convention in town, or during graduation, or spring break, or high tourist season, the prices are jacked up even more. But that is actually typical of all the hotels near Anaheim - they gouge tourists.I would not recommend this hotel at all. Sure, the free laundry is a draw, but why pay the outrageous prices for a poorly-maintained and sloppy facility? Stay somewhere else, at a real hotel that has daily housekeeping service and just go to the laundromat if you're going to be there a while.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r205260601-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>205260601</t>
+  </si>
+  <si>
+    <t>05/12/2014</t>
+  </si>
+  <si>
+    <t>Needs rehab.</t>
+  </si>
+  <si>
+    <t>Dirty carpet, my recliner had the vinyl ripped off of both armrests. Poor lighting in rear parking lot. Definitely not up to the standards of most Candlewood Suites. My truck was broken into one night, no video cameras on exterior though.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites North Orange County, responded to this reviewResponded May 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2014</t>
+  </si>
+  <si>
+    <t>Dirty carpet, my recliner had the vinyl ripped off of both armrests. Poor lighting in rear parking lot. Definitely not up to the standards of most Candlewood Suites. My truck was broken into one night, no video cameras on exterior though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r200042680-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>200042680</t>
+  </si>
+  <si>
+    <t>04/05/2014</t>
+  </si>
+  <si>
+    <t>A little disappointed</t>
+  </si>
+  <si>
+    <t>I had stayed a Candlewood Suites in Texas and had a great experience, so I decided to book a room with Candlewood for my family's Disneyland vacation. The carpet in the hallway and in the room was stained. The sofa cushions were also stained. The housekeeper did not clean our room or provide us with new towels. I had to ask for them at the front desk. There was areas of exposed dry wall in the room. The good things about the hotel are the friendly staff and price. I would not choose to stay here again nor recommend this Candlewood to family or friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites North Orange County, responded to this reviewResponded April 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2014</t>
+  </si>
+  <si>
+    <t>I had stayed a Candlewood Suites in Texas and had a great experience, so I decided to book a room with Candlewood for my family's Disneyland vacation. The carpet in the hallway and in the room was stained. The sofa cushions were also stained. The housekeeper did not clean our room or provide us with new towels. I had to ask for them at the front desk. There was areas of exposed dry wall in the room. The good things about the hotel are the friendly staff and price. I would not choose to stay here again nor recommend this Candlewood to family or friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r197224644-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>197224644</t>
+  </si>
+  <si>
+    <t>03/12/2014</t>
+  </si>
+  <si>
+    <t>Nice Candlewood Suites</t>
+  </si>
+  <si>
+    <t>First of all the hotel management is the best. They went out of their way to make sure my stay was acceptable. The room was clean and comfortable, the Candlewood Kitchen was well stocked and everything in the workout room seemed to be functioning well. A good location right off the highway. Best of all are the room prices. I will return on my next visit to the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>GGRGGSales, General Manager at Candlewood Suites North Orange County, responded to this reviewResponded March 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2014</t>
+  </si>
+  <si>
+    <t>First of all the hotel management is the best. They went out of their way to make sure my stay was acceptable. The room was clean and comfortable, the Candlewood Kitchen was well stocked and everything in the workout room seemed to be functioning well. A good location right off the highway. Best of all are the room prices. I will return on my next visit to the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r194012181-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>194012181</t>
+  </si>
+  <si>
+    <t>02/13/2014</t>
+  </si>
+  <si>
+    <t>The good, the bad and the ugly</t>
+  </si>
+  <si>
+    <t>The good - the bed was very comfortable and the water pressure in the shower was very strong.The bad - the location is in a residential area, I wouldn't recommend walking around thereThe ugly - the hallway carpet is not just dirty but downright filthy and unsanitary. If you travelling with small kids, then the germ factor is very high here.  Check in - the person who checked me announced my room number for anyone in the narrow check in area to hear. I thought that was Hospitality 101 that room numbers should be written down and shared only with the guest.I read the reviews before coming here. The place is dirty.  There are some nice touches in the room but the carpet itself in the room had a huge stain on it.  The carpets in this entire hotel need to be replaced like immediately.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>GGRGGSales, Front Office Manager at Candlewood Suites North Orange County, responded to this reviewResponded February 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2014</t>
+  </si>
+  <si>
+    <t>The good - the bed was very comfortable and the water pressure in the shower was very strong.The bad - the location is in a residential area, I wouldn't recommend walking around thereThe ugly - the hallway carpet is not just dirty but downright filthy and unsanitary. If you travelling with small kids, then the germ factor is very high here.  Check in - the person who checked me announced my room number for anyone in the narrow check in area to hear. I thought that was Hospitality 101 that room numbers should be written down and shared only with the guest.I read the reviews before coming here. The place is dirty.  There are some nice touches in the room but the carpet itself in the room had a huge stain on it.  The carpets in this entire hotel need to be replaced like immediately.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r192171231-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>192171231</t>
+  </si>
+  <si>
+    <t>01/26/2014</t>
+  </si>
+  <si>
+    <t>Good value for the price</t>
+  </si>
+  <si>
+    <t>Not a bad place to stay if you are on a budget. The rooms  are fine and adequately equipped. The vending machines on the ground floor let you purchase edible offerings for your rooms cooking facility. One problem was the arm chair - it looked like it had been salvaged from a dump! Seriously a leather chair with all of the leather worn off and he stuffing showing through.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r185942194-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>185942194</t>
+  </si>
+  <si>
+    <t>11/26/2013</t>
+  </si>
+  <si>
+    <t>Not sure why the reviews are so uneven...</t>
+  </si>
+  <si>
+    <t>Doing a "mattrice run" to qualify for the Bin Win promotion of the frequent guest program and needed a cheap hotel in the LA area.  This priced out the lowest.I was a little worried about the hotel given the uneven reviews.  I was pleasantly surprised.  The staff is friendly, the area is decent (mostly business parks) and my room was actually very nice.  I got conflicting stories on what rooms are renovated - it sounded like most of the rooms, but not all, are renovated.The bed is slightly soft but OK and comfortable.  The renovation did not change the refregirator or dishwasher - so they look a little out of place.  The AC unit is brand new and quiet - have never seen one this fancy.  Windows open all the way.  The bathroom sink is beautiful.  The rolling chair, even raised to highest, is a little low to work on my computer.There are imperfections - stairway not very clean, spots on the carpet and incorrect pricing/room # sign in my room - I was on the 4th floor but the sign in the back of the closet door said it was room 3xx!  That is sloppy work.  Luckily, the fire evacuation sign on the door was correct.  I did not feel the hotel was dirty like some others commented and you don't expect perfection at this hotel category.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Doing a "mattrice run" to qualify for the Bin Win promotion of the frequent guest program and needed a cheap hotel in the LA area.  This priced out the lowest.I was a little worried about the hotel given the uneven reviews.  I was pleasantly surprised.  The staff is friendly, the area is decent (mostly business parks) and my room was actually very nice.  I got conflicting stories on what rooms are renovated - it sounded like most of the rooms, but not all, are renovated.The bed is slightly soft but OK and comfortable.  The renovation did not change the refregirator or dishwasher - so they look a little out of place.  The AC unit is brand new and quiet - have never seen one this fancy.  Windows open all the way.  The bathroom sink is beautiful.  The rolling chair, even raised to highest, is a little low to work on my computer.There are imperfections - stairway not very clean, spots on the carpet and incorrect pricing/room # sign in my room - I was on the 4th floor but the sign in the back of the closet door said it was room 3xx!  That is sloppy work.  Luckily, the fire evacuation sign on the door was correct.  I did not feel the hotel was dirty like some others commented and you don't expect perfection at this hotel category.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r184932292-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>184932292</t>
+  </si>
+  <si>
+    <t>11/16/2013</t>
+  </si>
+  <si>
+    <t>Outstanding Manager; Friendly, Helpful Staff; Clean, Stylish Rooms</t>
+  </si>
+  <si>
+    <t>I recently moved back to Orange County to open my own law practice. I haven't decided whether to buy or rent a house and apartment living is not an option for me so I started looking into "extended stay" hotels and discovered Candlewod Suites Garden Grove.  I'm glad I did.  First, you simply can't find a better value. $88 dollars (including hotel and city taxes) for a suite is a bargain considering what you get: a spacious room; modern, stylish kitchen and bathroom fixtures; range, microwave, dishwasher and refrigerator; a work area large enough to actually work at; comfortable recliner chair; late model Panasonic flat screen television; and the most comfortable bed I've ever slept on.  (Seriously.)  For approximately $30 more there are also "one bedroom" units which are similar in layout and floor design, except that they feature a separate "living room" with a sleeper sofa, and a separate bedroom.  Washers and dryers are located on the first floor and are available for use 24 hours a day at no charge.  There is also a very well-equipped exercise and weight room on the same floor.  
+I've stayed at Candlewood Suites Garden Grove several times since August and am currently staying as an extended stay guest.  Consequently, I've been in a keen position to watch how management staff treat and respond to their guests and I can honestly say that at no time have I ever witnessed management or staff...I recently moved back to Orange County to open my own law practice. I haven't decided whether to buy or rent a house and apartment living is not an option for me so I started looking into "extended stay" hotels and discovered Candlewod Suites Garden Grove.  I'm glad I did.  First, you simply can't find a better value. $88 dollars (including hotel and city taxes) for a suite is a bargain considering what you get: a spacious room; modern, stylish kitchen and bathroom fixtures; range, microwave, dishwasher and refrigerator; a work area large enough to actually work at; comfortable recliner chair; late model Panasonic flat screen television; and the most comfortable bed I've ever slept on.  (Seriously.)  For approximately $30 more there are also "one bedroom" units which are similar in layout and floor design, except that they feature a separate "living room" with a sleeper sofa, and a separate bedroom.  Washers and dryers are located on the first floor and are available for use 24 hours a day at no charge.  There is also a very well-equipped exercise and weight room on the same floor.  I've stayed at Candlewood Suites Garden Grove several times since August and am currently staying as an extended stay guest.  Consequently, I've been in a keen position to watch how management staff treat and respond to their guests and I can honestly say that at no time have I ever witnessed management or staff treat any guest disrespectfully or rudely.  As for how I've been treated, Manager Debbie Mahone has consistently gone out of her way to make my stay here the best and most pleasant it can be. She has always succeeded.  I typically travel a lot and I’ve stayed at many hotels and I've never seen any manager come close to Debbie with respect to the high level of customer service she provides.  Her professionalism is reflected in the front desk staff she manages, including Gabby and Aidee, but especially Bliss Cosme, who is extremely competent, possesses outstanding customer service skills, and always laughs at my jokes.  I don't have a lot of free time and posting online reviews is not something I typically do.  In fact, this is only the second internet review I've ever posted.  When I come across a good deal and excellent customer service, however – the type I've consistently received during my stay at Candlewood Suites Garden Grove – I'm happy to take the time to publicly acknowledge it.MoreShow less</t>
+  </si>
+  <si>
+    <t>I recently moved back to Orange County to open my own law practice. I haven't decided whether to buy or rent a house and apartment living is not an option for me so I started looking into "extended stay" hotels and discovered Candlewod Suites Garden Grove.  I'm glad I did.  First, you simply can't find a better value. $88 dollars (including hotel and city taxes) for a suite is a bargain considering what you get: a spacious room; modern, stylish kitchen and bathroom fixtures; range, microwave, dishwasher and refrigerator; a work area large enough to actually work at; comfortable recliner chair; late model Panasonic flat screen television; and the most comfortable bed I've ever slept on.  (Seriously.)  For approximately $30 more there are also "one bedroom" units which are similar in layout and floor design, except that they feature a separate "living room" with a sleeper sofa, and a separate bedroom.  Washers and dryers are located on the first floor and are available for use 24 hours a day at no charge.  There is also a very well-equipped exercise and weight room on the same floor.  
+I've stayed at Candlewood Suites Garden Grove several times since August and am currently staying as an extended stay guest.  Consequently, I've been in a keen position to watch how management staff treat and respond to their guests and I can honestly say that at no time have I ever witnessed management or staff...I recently moved back to Orange County to open my own law practice. I haven't decided whether to buy or rent a house and apartment living is not an option for me so I started looking into "extended stay" hotels and discovered Candlewod Suites Garden Grove.  I'm glad I did.  First, you simply can't find a better value. $88 dollars (including hotel and city taxes) for a suite is a bargain considering what you get: a spacious room; modern, stylish kitchen and bathroom fixtures; range, microwave, dishwasher and refrigerator; a work area large enough to actually work at; comfortable recliner chair; late model Panasonic flat screen television; and the most comfortable bed I've ever slept on.  (Seriously.)  For approximately $30 more there are also "one bedroom" units which are similar in layout and floor design, except that they feature a separate "living room" with a sleeper sofa, and a separate bedroom.  Washers and dryers are located on the first floor and are available for use 24 hours a day at no charge.  There is also a very well-equipped exercise and weight room on the same floor.  I've stayed at Candlewood Suites Garden Grove several times since August and am currently staying as an extended stay guest.  Consequently, I've been in a keen position to watch how management staff treat and respond to their guests and I can honestly say that at no time have I ever witnessed management or staff treat any guest disrespectfully or rudely.  As for how I've been treated, Manager Debbie Mahone has consistently gone out of her way to make my stay here the best and most pleasant it can be. She has always succeeded.  I typically travel a lot and I’ve stayed at many hotels and I've never seen any manager come close to Debbie with respect to the high level of customer service she provides.  Her professionalism is reflected in the front desk staff she manages, including Gabby and Aidee, but especially Bliss Cosme, who is extremely competent, possesses outstanding customer service skills, and always laughs at my jokes.  I don't have a lot of free time and posting online reviews is not something I typically do.  In fact, this is only the second internet review I've ever posted.  When I come across a good deal and excellent customer service, however – the type I've consistently received during my stay at Candlewood Suites Garden Grove – I'm happy to take the time to publicly acknowledge it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r179147565-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>179147565</t>
+  </si>
+  <si>
+    <t>09/29/2013</t>
+  </si>
+  <si>
+    <t>Great Rates. Needs Cleaning</t>
+  </si>
+  <si>
+    <t>We had two rooms, an efficiency and a 1 bedroom suite. Two granddaughters with us to sleep on the sofa bed ..... ghastly uncomfortable and also dirty mattress. Staff very pleasant. Beds comfortable, except the sofa bed. Carpet in rooms so dirty our feet and socks got dirty. Kitchens equipped well enough for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>GGRGGSales, General Manager at Candlewood Suites North Orange County, responded to this reviewResponded October 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2013</t>
+  </si>
+  <si>
+    <t>We had two rooms, an efficiency and a 1 bedroom suite. Two granddaughters with us to sleep on the sofa bed ..... ghastly uncomfortable and also dirty mattress. Staff very pleasant. Beds comfortable, except the sofa bed. Carpet in rooms so dirty our feet and socks got dirty. Kitchens equipped well enough for us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r172510484-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>172510484</t>
+  </si>
+  <si>
+    <t>08/16/2013</t>
+  </si>
+  <si>
+    <t>Great Value, Clean and Quiet</t>
+  </si>
+  <si>
+    <t>My family stayed here for 11 days in a one bedroom suite (201). The rooms are just as pictured on the web site very modern and clean. The kitchen had everything we need to make Breakfast and dinners. The room has 2 LCD TVs a pull out couch a reclining chair and a table/desk area. The room also has two large closets and lots of drawers to put clothes in. The bath area was very nice with great towels. The clean - free laundry was a big help.We did have one issue. The bed in our room was very- very squeaky (but it was comfortable). The first night we checked in the hotel was full and management offered to move us the next day but we declined because our room was at the end of the hall and very quiet. A couple of days later I wondered into a room that was being cleaned and the bed was very nice. I would stay at this location and brand again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>GGRGGSales, Director of Sales at Candlewood Suites North Orange County, responded to this reviewResponded October 2, 2013</t>
+  </si>
+  <si>
+    <t>My family stayed here for 11 days in a one bedroom suite (201). The rooms are just as pictured on the web site very modern and clean. The kitchen had everything we need to make Breakfast and dinners. The room has 2 LCD TVs a pull out couch a reclining chair and a table/desk area. The room also has two large closets and lots of drawers to put clothes in. The bath area was very nice with great towels. The clean - free laundry was a big help.We did have one issue. The bed in our room was very- very squeaky (but it was comfortable). The first night we checked in the hotel was full and management offered to move us the next day but we declined because our room was at the end of the hall and very quiet. A couple of days later I wondered into a room that was being cleaned and the bed was very nice. I would stay at this location and brand again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r171821095-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>171821095</t>
+  </si>
+  <si>
+    <t>08/11/2013</t>
+  </si>
+  <si>
+    <t>Substandard Hotel / Will never go back again</t>
+  </si>
+  <si>
+    <t>Based on reviews on tripadvisor, I booked my stay in the hotel from 08/08/13 to 08/10/13. Here is my experience :
+- I checked into hotel and checkin was smooth. I was given room/suite # 134
+- I opened the door and the room had smell. I ignored the smell and started settling down 
+- I opened the bathroom door and saw there was no shower curtain. Just Shower. I went to front desk and reported the issue. The guy came with me and looked at bathroom and gave me wage explanation that bathroom is meant to be like this. There are no fixtures for bathroom curtain so he can not do anything
+- After sometime, I noticed the toilet paper holder is missing. I went again and reported the issue to front desk. The answer was that "Some hockey team was occupying the room and might have taken it out". I requested if I can be moved into another room and I was told it is not possible.
+- The old style bathroom sink which was tilting and was about to fall. I am not even sure how these guys have got license to run hotel with this type of room.
+- After sometime, I realized that I need some blankets and sheets. I went back to front desk and request for it. Initially I was told they are running short of sheets &amp; blankets but finally was given...Based on reviews on tripadvisor, I booked my stay in the hotel from 08/08/13 to 08/10/13. Here is my experience :- I checked into hotel and checkin was smooth. I was given room/suite # 134- I opened the door and the room had smell. I ignored the smell and started settling down - I opened the bathroom door and saw there was no shower curtain. Just Shower. I went to front desk and reported the issue. The guy came with me and looked at bathroom and gave me wage explanation that bathroom is meant to be like this. There are no fixtures for bathroom curtain so he can not do anything- After sometime, I noticed the toilet paper holder is missing. I went again and reported the issue to front desk. The answer was that "Some hockey team was occupying the room and might have taken it out". I requested if I can be moved into another room and I was told it is not possible.- The old style bathroom sink which was tilting and was about to fall. I am not even sure how these guys have got license to run hotel with this type of room.- After sometime, I realized that I need some blankets and sheets. I went back to front desk and request for it. Initially I was told they are running short of sheets &amp; blankets but finally was given the blanket &amp; sheet.- Out of three keys (magnetic card) given to me, only one worked. The other two were so much worn and it seems the magnetic strip was not getting sensed properlyThe front desk was great in listening and understanding the issues but I didn't see them acting on it or at least acknowledging the issues. I normally don't write reviews but I feel the reviews on tripadvisor didn't give me clear picture on the quality and service of this hotel. I am writing my experience  so other users get fair picture and quality of this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>lisa A, Director of Sales at Candlewood Suites North Orange County, responded to this reviewResponded August 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2013</t>
+  </si>
+  <si>
+    <t>Based on reviews on tripadvisor, I booked my stay in the hotel from 08/08/13 to 08/10/13. Here is my experience :
+- I checked into hotel and checkin was smooth. I was given room/suite # 134
+- I opened the door and the room had smell. I ignored the smell and started settling down 
+- I opened the bathroom door and saw there was no shower curtain. Just Shower. I went to front desk and reported the issue. The guy came with me and looked at bathroom and gave me wage explanation that bathroom is meant to be like this. There are no fixtures for bathroom curtain so he can not do anything
+- After sometime, I noticed the toilet paper holder is missing. I went again and reported the issue to front desk. The answer was that "Some hockey team was occupying the room and might have taken it out". I requested if I can be moved into another room and I was told it is not possible.
+- The old style bathroom sink which was tilting and was about to fall. I am not even sure how these guys have got license to run hotel with this type of room.
+- After sometime, I realized that I need some blankets and sheets. I went back to front desk and request for it. Initially I was told they are running short of sheets &amp; blankets but finally was given...Based on reviews on tripadvisor, I booked my stay in the hotel from 08/08/13 to 08/10/13. Here is my experience :- I checked into hotel and checkin was smooth. I was given room/suite # 134- I opened the door and the room had smell. I ignored the smell and started settling down - I opened the bathroom door and saw there was no shower curtain. Just Shower. I went to front desk and reported the issue. The guy came with me and looked at bathroom and gave me wage explanation that bathroom is meant to be like this. There are no fixtures for bathroom curtain so he can not do anything- After sometime, I noticed the toilet paper holder is missing. I went again and reported the issue to front desk. The answer was that "Some hockey team was occupying the room and might have taken it out". I requested if I can be moved into another room and I was told it is not possible.- The old style bathroom sink which was tilting and was about to fall. I am not even sure how these guys have got license to run hotel with this type of room.- After sometime, I realized that I need some blankets and sheets. I went back to front desk and request for it. Initially I was told they are running short of sheets &amp; blankets but finally was given the blanket &amp; sheet.- Out of three keys (magnetic card) given to me, only one worked. The other two were so much worn and it seems the magnetic strip was not getting sensed properlyThe front desk was great in listening and understanding the issues but I didn't see them acting on it or at least acknowledging the issues. I normally don't write reviews but I feel the reviews on tripadvisor didn't give me clear picture on the quality and service of this hotel. I am writing my experience  so other users get fair picture and quality of this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r168733268-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>168733268</t>
+  </si>
+  <si>
+    <t>07/23/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>I nice hotel located in a great location just minutes off the freeway. The room was clean and spacious and the bed was comfortable. we were on our way to Rancho Bernardo and it was only about little over a hour from Orange County.MoreShow less</t>
+  </si>
+  <si>
+    <t>GGRGGSales, Director of Sales at Candlewood Suites North Orange County, responded to this reviewResponded July 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2013</t>
+  </si>
+  <si>
+    <t>I nice hotel located in a great location just minutes off the freeway. The room was clean and spacious and the bed was comfortable. we were on our way to Rancho Bernardo and it was only about little over a hour from Orange County.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r159537729-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>159537729</t>
+  </si>
+  <si>
+    <t>05/03/2013</t>
+  </si>
+  <si>
+    <t>A real home while traveling, cost effective gem,A model for others</t>
+  </si>
+  <si>
+    <t>this place is a true model that other extended stay hotels need to take lessons from. From the manager,to Francasca Tyler and Anya they treat you like family. The rooms are spacious,well equipped kitchens,( more than 2 spoons,a plate and microwave) I have traveled around the country and this is one of the best places ever, This hotel offers free laundry,weekly housekeeping ( they are excellent. )  This place is more like an apartment than an small hotel room. If you are visiting area, this place is worth a drive to stay here. Near disneyland,freeways, lots of parking, Has lots of amenties like gym ,wide selection of TV channels, DVD movies, and the famous Candlewood Kitchen.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>lisa A, Director of Sales at Candlewood Suites North Orange County, responded to this reviewResponded May 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2013</t>
+  </si>
+  <si>
+    <t>this place is a true model that other extended stay hotels need to take lessons from. From the manager,to Francasca Tyler and Anya they treat you like family. The rooms are spacious,well equipped kitchens,( more than 2 spoons,a plate and microwave) I have traveled around the country and this is one of the best places ever, This hotel offers free laundry,weekly housekeeping ( they are excellent. )  This place is more like an apartment than an small hotel room. If you are visiting area, this place is worth a drive to stay here. Near disneyland,freeways, lots of parking, Has lots of amenties like gym ,wide selection of TV channels, DVD movies, and the famous Candlewood Kitchen.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r158109068-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>158109068</t>
+  </si>
+  <si>
+    <t>04/18/2013</t>
+  </si>
+  <si>
+    <t>simple and confortable</t>
+  </si>
+  <si>
+    <t>there is no daily housekeeping but you can change towels everyday.If you dont want to spend lots of money with hotel it is a good option.Clean simple and confortable with mini kitchen.Sometimes smell of food outside the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>GGRGGSales, Director of Sales at Candlewood Suites North Orange County, responded to this reviewResponded April 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2013</t>
+  </si>
+  <si>
+    <t>there is no daily housekeeping but you can change towels everyday.If you dont want to spend lots of money with hotel it is a good option.Clean simple and confortable with mini kitchen.Sometimes smell of food outside the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r157737693-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>157737693</t>
+  </si>
+  <si>
+    <t>04/14/2013</t>
+  </si>
+  <si>
+    <t>Excellent Gem!</t>
+  </si>
+  <si>
+    <t>We recently booked a block of rooms for our wedding at this hotel. The hotel was absolutely wonderful and all of our guests expressed how much they enjoyed the rooms. The rooms were very spacious and have definitely been updated. The kitchen in the room is wonderful stocked with plenty of dishes and appliances  and the beds are comfortable. The facility is very clean and is very inviting. There is free laundry and a nice fitness center as well as the Candlewood Cupboard to purchase those little things to snack on.   Lisa in sales  and her front desk team, especially Francesca and Tyler went above and beyond for not only us but for our guests as well. You will not be disappointed!  Next time we are in the area we will stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>GGRGGSales, Director of Sales at Candlewood Suites North Orange County, responded to this reviewResponded April 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 15, 2013</t>
+  </si>
+  <si>
+    <t>We recently booked a block of rooms for our wedding at this hotel. The hotel was absolutely wonderful and all of our guests expressed how much they enjoyed the rooms. The rooms were very spacious and have definitely been updated. The kitchen in the room is wonderful stocked with plenty of dishes and appliances  and the beds are comfortable. The facility is very clean and is very inviting. There is free laundry and a nice fitness center as well as the Candlewood Cupboard to purchase those little things to snack on.   Lisa in sales  and her front desk team, especially Francesca and Tyler went above and beyond for not only us but for our guests as well. You will not be disappointed!  Next time we are in the area we will stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r148163669-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>148163669</t>
+  </si>
+  <si>
+    <t>12/27/2012</t>
+  </si>
+  <si>
+    <t>Excellent customer service</t>
+  </si>
+  <si>
+    <t>We stayed here while visiting Disneyland. It is very close by and the amenities at the hotel was excellent. Allthough we had a problem with the heating Brenda the manager was amazing and sorted it all out to our satisfaction. We would happily stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>lisa A, Director of Sales at Candlewood Suites North Orange County, responded to this reviewResponded January 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2013</t>
+  </si>
+  <si>
+    <t>We stayed here while visiting Disneyland. It is very close by and the amenities at the hotel was excellent. Allthough we had a problem with the heating Brenda the manager was amazing and sorted it all out to our satisfaction. We would happily stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r148094208-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>148094208</t>
+  </si>
+  <si>
+    <t>12/26/2012</t>
+  </si>
+  <si>
+    <t>A+  In Every Area</t>
+  </si>
+  <si>
+    <t>Cant say a negative thing about my stay at the candlewood.   Rooms were more than equipped with everything,  laundry was even free.  The staff wa great and many food place within walking distance.    I stayed on the ground floor and didnt hear a thing above me.   well worth price!!!!  Oh and its pet friendly without the outrageous pet price~MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Cant say a negative thing about my stay at the candlewood.   Rooms were more than equipped with everything,  laundry was even free.  The staff wa great and many food place within walking distance.    I stayed on the ground floor and didnt hear a thing above me.   well worth price!!!!  Oh and its pet friendly without the outrageous pet price~More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r145961459-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>145961459</t>
+  </si>
+  <si>
+    <t>11/22/2012</t>
+  </si>
+  <si>
+    <t>Excellent value,lots amenities nicely appointed rooms,&amp; Disneyland</t>
+  </si>
+  <si>
+    <t>well worth the little extra compared to other extended stay hotels,and not far from Disneyland,love the free laundry mini store to pickup snacks ,ect, rooms are well equipped with full size refrigator stove top and very nice cookware, Disneyland bus next door, as is many fast food places within walking distance.lots of parkingMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>GGRGGSales, Director of Sales at Candlewood Suites North Orange County, responded to this reviewResponded December 7, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2012</t>
+  </si>
+  <si>
+    <t>well worth the little extra compared to other extended stay hotels,and not far from Disneyland,love the free laundry mini store to pickup snacks ,ect, rooms are well equipped with full size refrigator stove top and very nice cookware, Disneyland bus next door, as is many fast food places within walking distance.lots of parkingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r137388018-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>137388018</t>
+  </si>
+  <si>
+    <t>08/16/2012</t>
+  </si>
+  <si>
+    <t>Business Travel better than usual</t>
+  </si>
+  <si>
+    <t>I found this hotel last year and was please  with  location (not) far from Disneyland, restaurants, and other areas of Orange County and the beaches.Both times the hotel  was relatively quiet. Occupancy was not full, but close and still nothing to disturb my sleep for two consecutive nights. ( Somethng that is often not happening at other hotels) I plan a return trip next month, and convienience/price/and friendly staff will bring me back.As some indicate it is a refurbished inn.  But clean,with stovetop, microwave, dishwasher, full refrigerator (w ice maker) and a few dishes/silverware furnished. All for a very reasonable rate.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r135587398-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>135587398</t>
+  </si>
+  <si>
+    <t>07/27/2012</t>
+  </si>
+  <si>
+    <t>exceptionally decent</t>
+  </si>
+  <si>
+    <t>My boyfriend and I have been coming here once a year for the past 3 years now for a 2-4night stay usually. We really like this place because they allow pets, they have a kitchen top stove, microwave, fridge, and washers/dryers conveniently down stairs next to work out room. For the price its at, in my opinion is much more suitable instead of staying in a $120-$300 a night stay with out a mini kitchen in it, free laundry (that you do yourself) Plus the going rates for most pet stays are outrageous even, or you simply can't find many places that allow them anyways. Plus, It's an easy drive to Huntington dog beach for us as well, including the theme parks are even closer yet. There was a time when our TV didn't work, not that we stayed in the room watching television to begin with, However we informed the front desk. They came up and took a look, apologized for the inconvenience and gave us the option to switch rooms into a one bedroom suite for our last night - no extra charge if we wanted. We thought that was very courteous of them. Overall, its clean, convenient, quiet, has bonuses when it comes to kitchenette, laundry, and for allowing pets. thumbs up for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>My boyfriend and I have been coming here once a year for the past 3 years now for a 2-4night stay usually. We really like this place because they allow pets, they have a kitchen top stove, microwave, fridge, and washers/dryers conveniently down stairs next to work out room. For the price its at, in my opinion is much more suitable instead of staying in a $120-$300 a night stay with out a mini kitchen in it, free laundry (that you do yourself) Plus the going rates for most pet stays are outrageous even, or you simply can't find many places that allow them anyways. Plus, It's an easy drive to Huntington dog beach for us as well, including the theme parks are even closer yet. There was a time when our TV didn't work, not that we stayed in the room watching television to begin with, However we informed the front desk. They came up and took a look, apologized for the inconvenience and gave us the option to switch rooms into a one bedroom suite for our last night - no extra charge if we wanted. We thought that was very courteous of them. Overall, its clean, convenient, quiet, has bonuses when it comes to kitchenette, laundry, and for allowing pets. thumbs up for sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r135468817-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>135468817</t>
+  </si>
+  <si>
+    <t>07/26/2012</t>
+  </si>
+  <si>
+    <t>Great stay for $$</t>
+  </si>
+  <si>
+    <t>Great place to stay for money. Service is a little different than other hotels I have stayed at with no pool and no daily housekeeping but full kitchen in room was great. Location was good to attractions and dining. The free laundry was another bonus I was not expecting. Overall I would return on my next trip to the area</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r124730149-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>124730149</t>
+  </si>
+  <si>
+    <t>02/17/2012</t>
+  </si>
+  <si>
+    <t>Lousy Stay Even By Candlewood Standards</t>
+  </si>
+  <si>
+    <t>Hotel was under renovation, clerk said was on the Candlewood site but I booked through the parent IHG site and it was NOT indicated. Paint &amp; carper glue smell everywhere. Painters decided to paint the onsite pantry area so could not use my $3.00 coupon, nor would they take it off the bill. No remote control to TV, the one delivered had no back (the batteries kept falling out). Toilet ran all night, shower pressure very low. Admittedly, a Candlewood isn't a Hilton, but even by that standard, this was a miserable stay.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r123817054-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>123817054</t>
+  </si>
+  <si>
+    <t>01/29/2012</t>
+  </si>
+  <si>
+    <t>Great staff and motorcycle friendly</t>
+  </si>
+  <si>
+    <t>We have stayed here about a dozen times in the last 3 years. The stay is great and always the same folks. The are renovating rooms (Dec-Jan12) which means the rooms will be even nicer. Parking is good and well lit. Freeway close.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r122743834-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>122743834</t>
+  </si>
+  <si>
+    <t>01/07/2012</t>
+  </si>
+  <si>
+    <t>Changes needed</t>
+  </si>
+  <si>
+    <t>Rooms are well stocked.small gym,and food products available.okay for long term.but watch outt if you have allergies.rooms need a major renovation,and housekeeping needs to get strong smells under control.maybe clean carpets? I would rate this 2  stars.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r115872726-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>115872726</t>
+  </si>
+  <si>
+    <t>07/27/2011</t>
+  </si>
+  <si>
+    <t>The name matches the smell</t>
+  </si>
+  <si>
+    <t>The Candlewood Suites in Garden Grove California is one of those hotels that you start off by trying to convince yourself your choice wasn't that bad. At $100/per night you try to say its a good value. It isn't. I asked for a king suite. I got a double queen room. I asked for non-smoking. I got a room that smelled of something between a chemical mix of cleaner spray and rancid cigarette smoke. The clerk at the front desk put on a good show of disgust and distain, mid her throaty smokers cough. But at least they were kind enough to say that my credit card wouldn't be charged. I departed with a lie, stating that I may stay there sometime in the future. Sorry Candlewood. Your hotel sucks. That was my short and vivid experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>The Candlewood Suites in Garden Grove California is one of those hotels that you start off by trying to convince yourself your choice wasn't that bad. At $100/per night you try to say its a good value. It isn't. I asked for a king suite. I got a double queen room. I asked for non-smoking. I got a room that smelled of something between a chemical mix of cleaner spray and rancid cigarette smoke. The clerk at the front desk put on a good show of disgust and distain, mid her throaty smokers cough. But at least they were kind enough to say that my credit card wouldn't be charged. I departed with a lie, stating that I may stay there sometime in the future. Sorry Candlewood. Your hotel sucks. That was my short and vivid experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r114772495-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>114772495</t>
+  </si>
+  <si>
+    <t>06/26/2011</t>
+  </si>
+  <si>
+    <t>Nice Place, Nice Price</t>
+  </si>
+  <si>
+    <t>This hotel is only about five minutes from Disneyland. It has a kitchen which makes it convenient and you can save money on food if you wish not to eat out. There is a convienent store next to the hotel. Place in nice, felt safe and easy access to the freeway.I saved about 50% compared to hotels next to Disneyland. The bed is confortable and one of the best shower water presure. I would consider this hotel for future stays.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r111184185-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>111184185</t>
+  </si>
+  <si>
+    <t>06/02/2011</t>
+  </si>
+  <si>
+    <t>It works for business</t>
+  </si>
+  <si>
+    <t>Like: very friendly and helpful staff, convenient to highways but not noisy or busy, nice neighborhood, cupboard - quick snack and not overly pricy, free laundry facility, free fitness room with good (not superb) equipment, free videos to use with new ones added each time I've stayed, always plenty of convenient, off-street parking, free Internet.Could improve: odd smell in hallways and rooms, when I left the bathmat on the floor there were bugs crawling all over it when I came back to the room one night, otherwise the entire hotel is VERY clean, Internet is not very fast.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r92570255-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>92570255</t>
+  </si>
+  <si>
+    <t>01/11/2011</t>
+  </si>
+  <si>
+    <t>Terrible Hotel!</t>
+  </si>
+  <si>
+    <t>I recently found this Hotel on Priceline.com, what a mistake!  I have never stayed in such a horrible place, the rooms are terrible, rundown and old.  I asked for non-smoking and was informed when I checked in that I could only have smoking and she could give me some air freshner if I would like.  Do not be deceived by the pictures online from the manager these are not from this hotel it is totally different room and very dissappointing.  I will never stay here again!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r82379509-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>82379509</t>
+  </si>
+  <si>
+    <t>10/06/2010</t>
+  </si>
+  <si>
+    <t>This is a hotel? I thought it was the dump!!</t>
+  </si>
+  <si>
+    <t>Wow, this is the WORST hotel I have ever stayed at period. The room was very dirty, carpets stained. The sheets had dried blood on them, pillows had hairs from previous guests, carpets stained, lights falling off the ceiling, small holes in the wall. I am shocked that a division of Holiday Inn hotels allows this to be operated. It looked more like a hotel that should be rented by the hour,not by the week. Look at the phoots, read others reviews then really decide if you would ever stay here by yourself, or even worse with your family. Dont let their low rates lure you in, you will regret it. I regret staying here even after the fact I got a free night for complaining, I wish in hinsight I would have left and PAID for a room at another hotel in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>GGRGGSales, Director of Sales at Candlewood Suites North Orange County, responded to this reviewResponded October 26, 2010</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2010</t>
+  </si>
+  <si>
+    <t>Wow, this is the WORST hotel I have ever stayed at period. The room was very dirty, carpets stained. The sheets had dried blood on them, pillows had hairs from previous guests, carpets stained, lights falling off the ceiling, small holes in the wall. I am shocked that a division of Holiday Inn hotels allows this to be operated. It looked more like a hotel that should be rented by the hour,not by the week. Look at the phoots, read others reviews then really decide if you would ever stay here by yourself, or even worse with your family. Dont let their low rates lure you in, you will regret it. I regret staying here even after the fact I got a free night for complaining, I wish in hinsight I would have left and PAID for a room at another hotel in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r78178911-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>78178911</t>
+  </si>
+  <si>
+    <t>09/03/2010</t>
+  </si>
+  <si>
+    <t>Stay here if you want your laptop, camera &amp; camcorder stolen from your room</t>
+  </si>
+  <si>
+    <t>I will warn you ahead of time - this is a LONG review, but the entire US needs to know what happened to us at the Candlewood Suites - if you don't value your belongings, stay here.
+My son and I got a decently priced room here from Priceline (we'll never do this again at anything less than a 3star level, by the way).  We came down here for a father/son trip to Disneyland Resort the weekend of August 13-15.  
+I should have known this was going to be bad from the moment we stepped up to the desk, but it was late, we were tired and just wanted a room to sleep in.  Now, I know that Priceline only guarantees double occupancy - but the Candlewood Suites thought is was OK for me and my son to share a Queen bed.  No rollaway.  No pullout.  No hide-a-bed.  He's 6' tall and I am 6'2" tall.  This wasn't a great nights sleep, but the hotel was quiet that night.  I was told when we checked in that 'All they had were Queen Studios - nothing else.'  It turns out that after visiting the front desk the next morning, they did have a 1 Bedroom Suite with a Hide-A-Bed.  It was $33 extra a night which I argued about since I had not been told the truth last night and she went ahead and ran me keys for the 1 Bedroom....I will warn you ahead of time - this is a LONG review, but the entire US needs to know what happened to us at the Candlewood Suites - if you don't value your belongings, stay here.My son and I got a decently priced room here from Priceline (we'll never do this again at anything less than a 3star level, by the way).  We came down here for a father/son trip to Disneyland Resort the weekend of August 13-15.  I should have known this was going to be bad from the moment we stepped up to the desk, but it was late, we were tired and just wanted a room to sleep in.  Now, I know that Priceline only guarantees double occupancy - but the Candlewood Suites thought is was OK for me and my son to share a Queen bed.  No rollaway.  No pullout.  No hide-a-bed.  He's 6' tall and I am 6'2" tall.  This wasn't a great nights sleep, but the hotel was quiet that night.  I was told when we checked in that 'All they had were Queen Studios - nothing else.'  It turns out that after visiting the front desk the next morning, they did have a 1 Bedroom Suite with a Hide-A-Bed.  It was $33 extra a night which I argued about since I had not been told the truth last night and she went ahead and ran me keys for the 1 Bedroom.Saturday was uneventful.  At one point we couldn't get into the outside door closest to our room but it started working the next day.  By this night we figured out that this wasn't just a hotel, it was a residence for some people.  Sunday started off great.  We spent the day at Disneyland Resort and got tired mid-day and came back to the room around 4pm to take a cat-nap.  We left our room at 8pm to head back to the DL Resort to watch World of Color.  After the park closed at 11pm (Cali Adventure) we headed to the Denny's on Katella.  We left at 12:45am to head back to Candlewood Suites stopping at the AM/PM around the corner to fill up the rental car. (nice Nissan Cube we got from Avis BTW for $12/day)I walked in the door to our LOCKED room to find a empty stop on my desk where my Apple 17" Macbook Pro laptop was plugged in sitting on the desk.  It was gone.  My Digital Camera and HD Camcorder were also missing.  Also missing were a pile of SDHC cards, USB Drives, and 1TB Lacie Hard Drive.  Now, I am one of those way too trusting people that was naive enough to think that if i left my hotel locked at 8pm, it would be safe and secure.   There was no sign of forced entry into my room.  This hotel has no official staff on duty after 11pm.  After leaving 3 voice messages at the front desk for the night management I decided to go to the office.  The door was answered by Alex the night manager who had just listened to my messages according to him.  We proceeded to tell him what had happened, and while he was apologetic, he was unwilling to contact the hotel manager in the night after $4000 of a guests merchandise had been stolen.I asked Alex to check the key computer log and he told my son and I that there had been 6 keys issued to my room.  I had 2 keys.  So obviously someone on the hotel staff had issued 4 other keys to someone - not us.  Alex's story changed over the course of the rest of conveying to him my frustration from 6 to 4 to 2 keys.  We had a Garden Grove Police Officer come over a take a police report from us.  The officer told me that Alex wasn't being very cooperative he apparently was unable to show the office the key logs and the security footage for the hotel.  Basically, my son and I had to be on a plane in 3 hours back home to Oregon - the officer recommended to just head home and file a claim with the hotel.  Candlewood Suites is owned by IHG - they also own Holiday Inns, Crowne Plaza and more.  After filing a report with IHG Complaint I was told the process would take 3 weeks.  In 2 weeks I got a letter from IHG telling me there's nothing more they could do and if I wanted to pursue it any further, to contact the hotel.  After calling and speaking to a rep at IHG after getting the letter, I was told that "IHG is not responsible - contact my personal insurance company or the hotel (who is no help - they wont return any phone calls and the general manger is never available).At the Candlewood Suites, my belongings were not safe and secure in my hotel room that I paid money for.  The chain that hotel is part of claims NO RESPONSIBILITY and now I am out $1000 since I have to claim this on homeowners insurance.  We come to Anaheim at least 5 times a year for trips to the Disneyland Resort or to attend the NAMM show in January - we will never stay here again, nor would I recommend  anyone stay here for business or pleasure.  The rooms at Candlewood Suites Garden Grove are NOT SAFE.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>I will warn you ahead of time - this is a LONG review, but the entire US needs to know what happened to us at the Candlewood Suites - if you don't value your belongings, stay here.
+My son and I got a decently priced room here from Priceline (we'll never do this again at anything less than a 3star level, by the way).  We came down here for a father/son trip to Disneyland Resort the weekend of August 13-15.  
+I should have known this was going to be bad from the moment we stepped up to the desk, but it was late, we were tired and just wanted a room to sleep in.  Now, I know that Priceline only guarantees double occupancy - but the Candlewood Suites thought is was OK for me and my son to share a Queen bed.  No rollaway.  No pullout.  No hide-a-bed.  He's 6' tall and I am 6'2" tall.  This wasn't a great nights sleep, but the hotel was quiet that night.  I was told when we checked in that 'All they had were Queen Studios - nothing else.'  It turns out that after visiting the front desk the next morning, they did have a 1 Bedroom Suite with a Hide-A-Bed.  It was $33 extra a night which I argued about since I had not been told the truth last night and she went ahead and ran me keys for the 1 Bedroom....I will warn you ahead of time - this is a LONG review, but the entire US needs to know what happened to us at the Candlewood Suites - if you don't value your belongings, stay here.My son and I got a decently priced room here from Priceline (we'll never do this again at anything less than a 3star level, by the way).  We came down here for a father/son trip to Disneyland Resort the weekend of August 13-15.  I should have known this was going to be bad from the moment we stepped up to the desk, but it was late, we were tired and just wanted a room to sleep in.  Now, I know that Priceline only guarantees double occupancy - but the Candlewood Suites thought is was OK for me and my son to share a Queen bed.  No rollaway.  No pullout.  No hide-a-bed.  He's 6' tall and I am 6'2" tall.  This wasn't a great nights sleep, but the hotel was quiet that night.  I was told when we checked in that 'All they had were Queen Studios - nothing else.'  It turns out that after visiting the front desk the next morning, they did have a 1 Bedroom Suite with a Hide-A-Bed.  It was $33 extra a night which I argued about since I had not been told the truth last night and she went ahead and ran me keys for the 1 Bedroom.Saturday was uneventful.  At one point we couldn't get into the outside door closest to our room but it started working the next day.  By this night we figured out that this wasn't just a hotel, it was a residence for some people.  Sunday started off great.  We spent the day at Disneyland Resort and got tired mid-day and came back to the room around 4pm to take a cat-nap.  We left our room at 8pm to head back to the DL Resort to watch World of Color.  After the park closed at 11pm (Cali Adventure) we headed to the Denny's on Katella.  We left at 12:45am to head back to Candlewood Suites stopping at the AM/PM around the corner to fill up the rental car. (nice Nissan Cube we got from Avis BTW for $12/day)I walked in the door to our LOCKED room to find a empty stop on my desk where my Apple 17" Macbook Pro laptop was plugged in sitting on the desk.  It was gone.  My Digital Camera and HD Camcorder were also missing.  Also missing were a pile of SDHC cards, USB Drives, and 1TB Lacie Hard Drive.  Now, I am one of those way too trusting people that was naive enough to think that if i left my hotel locked at 8pm, it would be safe and secure.   There was no sign of forced entry into my room.  This hotel has no official staff on duty after 11pm.  After leaving 3 voice messages at the front desk for the night management I decided to go to the office.  The door was answered by Alex the night manager who had just listened to my messages according to him.  We proceeded to tell him what had happened, and while he was apologetic, he was unwilling to contact the hotel manager in the night after $4000 of a guests merchandise had been stolen.I asked Alex to check the key computer log and he told my son and I that there had been 6 keys issued to my room.  I had 2 keys.  So obviously someone on the hotel staff had issued 4 other keys to someone - not us.  Alex's story changed over the course of the rest of conveying to him my frustration from 6 to 4 to 2 keys.  We had a Garden Grove Police Officer come over a take a police report from us.  The officer told me that Alex wasn't being very cooperative he apparently was unable to show the office the key logs and the security footage for the hotel.  Basically, my son and I had to be on a plane in 3 hours back home to Oregon - the officer recommended to just head home and file a claim with the hotel.  Candlewood Suites is owned by IHG - they also own Holiday Inns, Crowne Plaza and more.  After filing a report with IHG Complaint I was told the process would take 3 weeks.  In 2 weeks I got a letter from IHG telling me there's nothing more they could do and if I wanted to pursue it any further, to contact the hotel.  After calling and speaking to a rep at IHG after getting the letter, I was told that "IHG is not responsible - contact my personal insurance company or the hotel (who is no help - they wont return any phone calls and the general manger is never available).At the Candlewood Suites, my belongings were not safe and secure in my hotel room that I paid money for.  The chain that hotel is part of claims NO RESPONSIBILITY and now I am out $1000 since I have to claim this on homeowners insurance.  We come to Anaheim at least 5 times a year for trips to the Disneyland Resort or to attend the NAMM show in January - we will never stay here again, nor would I recommend  anyone stay here for business or pleasure.  The rooms at Candlewood Suites Garden Grove are NOT SAFE.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r72796351-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>72796351</t>
+  </si>
+  <si>
+    <t>07/28/2010</t>
+  </si>
+  <si>
+    <t>Not my first choice in the D'land area!</t>
+  </si>
+  <si>
+    <t>Booked through Priceline. A bit disappointed.  I have asked for an iron and someone to check cable TV since I checked in a few days ago.  Pretty good location, no wi fi (but wired), small rooms, pretty basic.</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r70566445-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>70566445</t>
+  </si>
+  <si>
+    <t>07/11/2010</t>
+  </si>
+  <si>
+    <t>Feels like a motel disguised as "suites"</t>
+  </si>
+  <si>
+    <t>Though the staff was generally polite and friendly here, this really feels like a motel masquerading as a suites-hotel.  Yes, there is a tiny kitchen - ours had chips in the counter, peeled back linoleum on the floor and a tiny fridge - but the room was too small to be considered a suite.  It looked as if a wall was erected in the middle of a large room to section it off into a living room and bedroom - the result is both are small and cramped.  Maid service only once a week, and from the look of the bathroom it hadn't been cleaned well in quite some time.  Basic TV, no swimming pool, no wireless internet and no restaurants in the vicinity -- basically, nothing for the kids to do here - and the area is so questionable we felt uncomfortable walking to the gas station next door to get drinks.  If you don't require much space, only need a place to sleep and all other hotels in the area are booked, you might be able to tolerate the Candlewood Suites.  Otherwise I would suggest traveling a little further down the freeway and looking for a room in Anaheim or Irvine.MoreShow less</t>
+  </si>
+  <si>
+    <t>Though the staff was generally polite and friendly here, this really feels like a motel masquerading as a suites-hotel.  Yes, there is a tiny kitchen - ours had chips in the counter, peeled back linoleum on the floor and a tiny fridge - but the room was too small to be considered a suite.  It looked as if a wall was erected in the middle of a large room to section it off into a living room and bedroom - the result is both are small and cramped.  Maid service only once a week, and from the look of the bathroom it hadn't been cleaned well in quite some time.  Basic TV, no swimming pool, no wireless internet and no restaurants in the vicinity -- basically, nothing for the kids to do here - and the area is so questionable we felt uncomfortable walking to the gas station next door to get drinks.  If you don't require much space, only need a place to sleep and all other hotels in the area are booked, you might be able to tolerate the Candlewood Suites.  Otherwise I would suggest traveling a little further down the freeway and looking for a room in Anaheim or Irvine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r36489784-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>36489784</t>
+  </si>
+  <si>
+    <t>08/02/2009</t>
+  </si>
+  <si>
+    <t>Never stay here unless you like to self-service the whole time</t>
+  </si>
+  <si>
+    <t>I am very upset with my stay at your hotel chain. First, I went to the gym, and the temperature was set at 85 degrees! I informed the front desk (Paul), said that they could not do anything about it. He told me to "crack the window." What type of hotel worker tells me to crack the window and takes no initiative to fix the problem. 
+Secondly, check-out time is 12p. The maid came and knocked on our door while we were asleep at 9a and wanted to service the room. She had assumed that we already checked out. Maid services should make sure that guests have completely checked out before intruding on our hotel. Plus, check out time should be a huge factor before they decide to service the room anyway.
+Thirdly, I had made reservations through your website. There was nothing on there stating that you only service rooms once a week! I understand the need to cut costs, but you need to clearly indicate that so that customers can make decisions of staying with your hotel or not. I happen to think that is a big factor in determining whether or not I would stay with you all. I finally researched it on the website and the "service once a week" was in the "govt and military section" of the website. So, this means that only govt and military people are informed of the once a week...I am very upset with my stay at your hotel chain. First, I went to the gym, and the temperature was set at 85 degrees! I informed the front desk (Paul), said that they could not do anything about it. He told me to "crack the window." What type of hotel worker tells me to crack the window and takes no initiative to fix the problem. Secondly, check-out time is 12p. The maid came and knocked on our door while we were asleep at 9a and wanted to service the room. She had assumed that we already checked out. Maid services should make sure that guests have completely checked out before intruding on our hotel. Plus, check out time should be a huge factor before they decide to service the room anyway.Thirdly, I had made reservations through your website. There was nothing on there stating that you only service rooms once a week! I understand the need to cut costs, but you need to clearly indicate that so that customers can make decisions of staying with your hotel or not. I happen to think that is a big factor in determining whether or not I would stay with you all. I finally researched it on the website and the "service once a week" was in the "govt and military section" of the website. So, this means that only govt and military people are informed of the once a week service? This is ridiculous! I felt that I was deceived and conned into staying at your hotel because I got a great deal, but the most important information I wanted to see, or maybe didn't even think about at first, was hidden from me for some type of purpose. *Suggestion: You should clearly indicate that you only service the rooms once a week, customers have to take out their own trash everyday on your front home page website, or at least when the reservation page comes up.I understand the needs to cut costs, but sacrificing service for that will only lead your company on to becoming bankrupt faster because no one will want to stay at your hotel. The point of a hotel is to receive concierge service and we received none of that with our stay. The desk ran out of laundry soap, you had to go to the desk to ask for towels, etc... I will most likely never stay at this self-service hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>GGRGGSales, Manager at Candlewood Suites North Orange County, responded to this reviewResponded September 23, 2009</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2009</t>
+  </si>
+  <si>
+    <t>I am very upset with my stay at your hotel chain. First, I went to the gym, and the temperature was set at 85 degrees! I informed the front desk (Paul), said that they could not do anything about it. He told me to "crack the window." What type of hotel worker tells me to crack the window and takes no initiative to fix the problem. 
+Secondly, check-out time is 12p. The maid came and knocked on our door while we were asleep at 9a and wanted to service the room. She had assumed that we already checked out. Maid services should make sure that guests have completely checked out before intruding on our hotel. Plus, check out time should be a huge factor before they decide to service the room anyway.
+Thirdly, I had made reservations through your website. There was nothing on there stating that you only service rooms once a week! I understand the need to cut costs, but you need to clearly indicate that so that customers can make decisions of staying with your hotel or not. I happen to think that is a big factor in determining whether or not I would stay with you all. I finally researched it on the website and the "service once a week" was in the "govt and military section" of the website. So, this means that only govt and military people are informed of the once a week...I am very upset with my stay at your hotel chain. First, I went to the gym, and the temperature was set at 85 degrees! I informed the front desk (Paul), said that they could not do anything about it. He told me to "crack the window." What type of hotel worker tells me to crack the window and takes no initiative to fix the problem. Secondly, check-out time is 12p. The maid came and knocked on our door while we were asleep at 9a and wanted to service the room. She had assumed that we already checked out. Maid services should make sure that guests have completely checked out before intruding on our hotel. Plus, check out time should be a huge factor before they decide to service the room anyway.Thirdly, I had made reservations through your website. There was nothing on there stating that you only service rooms once a week! I understand the need to cut costs, but you need to clearly indicate that so that customers can make decisions of staying with your hotel or not. I happen to think that is a big factor in determining whether or not I would stay with you all. I finally researched it on the website and the "service once a week" was in the "govt and military section" of the website. So, this means that only govt and military people are informed of the once a week service? This is ridiculous! I felt that I was deceived and conned into staying at your hotel because I got a great deal, but the most important information I wanted to see, or maybe didn't even think about at first, was hidden from me for some type of purpose. *Suggestion: You should clearly indicate that you only service the rooms once a week, customers have to take out their own trash everyday on your front home page website, or at least when the reservation page comes up.I understand the needs to cut costs, but sacrificing service for that will only lead your company on to becoming bankrupt faster because no one will want to stay at your hotel. The point of a hotel is to receive concierge service and we received none of that with our stay. The desk ran out of laundry soap, you had to go to the desk to ask for towels, etc... I will most likely never stay at this self-service hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r19363286-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>19363286</t>
+  </si>
+  <si>
+    <t>08/25/2008</t>
+  </si>
+  <si>
+    <t>Kinda like home ...</t>
+  </si>
+  <si>
+    <t>And when I say, Kinda like home, it means that when I got back to my room after a day out, there was my unmade bed, orange peels on the table, and a damp towel on the towel rack. I guess I tolerate my slovenly behavior slightly better in my own home than I do at a place where I thought I was paying someone else $65 a day to do so.
+Pros: 
+- Kitchenette means you can eat in if you want &amp; can have cold beverages, fruit etc. 
+- Very comfortable bed.
+- Free laundry.
+- Clean (at least for the first day) and quiet. 
+- Neighbourhood felt reasonably safe for a large city.
+Cons:
+- No daily housekeeping, not even to take out the garbage.
+- Nothing nearby (No, really. Nothing) except for Starbucks, Subway, and an Arco station.
+- Exercise room has 4 pieces of old rundown equipment and overlooks the laundry room/convenience store, which is constantly full of people taking advantage of the free laundry.
+- Rooms facing east are dark. Rooms are on the small side.
+- What's with putting a round toilet seat on a elongated toilet? Seriously, new toilet seats are $20 - get one that fits. It was uncomfortable enough for an able-bodied person - I can't imagine it would be comfortable for someone with a disability (I was given an accessible suite).j
+There is a shabby but pleasant park (Twin...And when I say, Kinda like home, it means that when I got back to my room after a day out, there was my unmade bed, orange peels on the table, and a damp towel on the towel rack. I guess I tolerate my slovenly behavior slightly better in my own home than I do at a place where I thought I was paying someone else $65 a day to do so.Pros: - Kitchenette means you can eat in if you want &amp; can have cold beverages, fruit etc. - Very comfortable bed.- Free laundry.- Clean (at least for the first day) and quiet. - Neighbourhood felt reasonably safe for a large city.Cons:- No daily housekeeping, not even to take out the garbage.- Nothing nearby (No, really. Nothing) except for Starbucks, Subway, and an Arco station.- Exercise room has 4 pieces of old rundown equipment and overlooks the laundry room/convenience store, which is constantly full of people taking advantage of the free laundry.- Rooms facing east are dark. Rooms are on the small side.- What's with putting a round toilet seat on a elongated toilet? Seriously, new toilet seats are $20 - get one that fits. It was uncomfortable enough for an able-bodied person - I can't imagine it would be comfortable for someone with a disability (I was given an accessible suite).jThere is a shabby but pleasant park (Twin Lakes Park) about 1/2 mile north on Haster Ave with a small pond and jogging trail, and a shamefully decrepit Safeway/Vons supermarket about 1 mile north at Haster &amp; Chapman which offers the very basics. If you walk 1/2 mile west to Harbor Blvd, the 43 bus runs up and down Harbor to Disneyland every 15-20 minutes.This would be an acceptable place for a small family wanting affordable accommodation reasonably close to Disneyland.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>And when I say, Kinda like home, it means that when I got back to my room after a day out, there was my unmade bed, orange peels on the table, and a damp towel on the towel rack. I guess I tolerate my slovenly behavior slightly better in my own home than I do at a place where I thought I was paying someone else $65 a day to do so.
+Pros: 
+- Kitchenette means you can eat in if you want &amp; can have cold beverages, fruit etc. 
+- Very comfortable bed.
+- Free laundry.
+- Clean (at least for the first day) and quiet. 
+- Neighbourhood felt reasonably safe for a large city.
+Cons:
+- No daily housekeeping, not even to take out the garbage.
+- Nothing nearby (No, really. Nothing) except for Starbucks, Subway, and an Arco station.
+- Exercise room has 4 pieces of old rundown equipment and overlooks the laundry room/convenience store, which is constantly full of people taking advantage of the free laundry.
+- Rooms facing east are dark. Rooms are on the small side.
+- What's with putting a round toilet seat on a elongated toilet? Seriously, new toilet seats are $20 - get one that fits. It was uncomfortable enough for an able-bodied person - I can't imagine it would be comfortable for someone with a disability (I was given an accessible suite).j
+There is a shabby but pleasant park (Twin...And when I say, Kinda like home, it means that when I got back to my room after a day out, there was my unmade bed, orange peels on the table, and a damp towel on the towel rack. I guess I tolerate my slovenly behavior slightly better in my own home than I do at a place where I thought I was paying someone else $65 a day to do so.Pros: - Kitchenette means you can eat in if you want &amp; can have cold beverages, fruit etc. - Very comfortable bed.- Free laundry.- Clean (at least for the first day) and quiet. - Neighbourhood felt reasonably safe for a large city.Cons:- No daily housekeeping, not even to take out the garbage.- Nothing nearby (No, really. Nothing) except for Starbucks, Subway, and an Arco station.- Exercise room has 4 pieces of old rundown equipment and overlooks the laundry room/convenience store, which is constantly full of people taking advantage of the free laundry.- Rooms facing east are dark. Rooms are on the small side.- What's with putting a round toilet seat on a elongated toilet? Seriously, new toilet seats are $20 - get one that fits. It was uncomfortable enough for an able-bodied person - I can't imagine it would be comfortable for someone with a disability (I was given an accessible suite).jThere is a shabby but pleasant park (Twin Lakes Park) about 1/2 mile north on Haster Ave with a small pond and jogging trail, and a shamefully decrepit Safeway/Vons supermarket about 1 mile north at Haster &amp; Chapman which offers the very basics. If you walk 1/2 mile west to Harbor Blvd, the 43 bus runs up and down Harbor to Disneyland every 15-20 minutes.This would be an acceptable place for a small family wanting affordable accommodation reasonably close to Disneyland.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r14368950-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>14368950</t>
+  </si>
+  <si>
+    <t>03/18/2008</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>I was attending a conference at the Anaheim Convention Center but did not want to pay very high rates for an average hotel.  Because I was driving this time, I would have a car and this made the Candlewood Suites very attractive.  It was half the price of a similar hotel nearer the convention center.
+The hotel is easy to find and is close to two major freeways and is just South of the convention center and Disneyland.  It is about a 5-10 minute drive to the convention center if there is no traffic.  Friday night traffic is horrible and it actually took another 20 minutes of bumper to bumper traffic one I neared the convention center and Disneyland.  Parking is free at the hotel, compared to $9.00 per day for a hotel nearer the convention center and Disneyland.  A Starbucks and a Subway sandwich shop is just around the corner.  So too is an Arco gas station but because of traffic considerations one must drive further and make some U-turns to actually drive next door.  Other than the Subway and Starbucks, there is no restaurant within walking distance.
+The hotel was relatively quiet and clean a big plus in my opinion.  The furniture and amenities were better than normal.  The queen size bed was comfortable and there was full size refrigerator, dishwasher and microwave in the room.  There was also a two burner electric "stove" together with pots, pans...I was attending a conference at the Anaheim Convention Center but did not want to pay very high rates for an average hotel.  Because I was driving this time, I would have a car and this made the Candlewood Suites very attractive.  It was half the price of a similar hotel nearer the convention center.The hotel is easy to find and is close to two major freeways and is just South of the convention center and Disneyland.  It is about a 5-10 minute drive to the convention center if there is no traffic.  Friday night traffic is horrible and it actually took another 20 minutes of bumper to bumper traffic one I neared the convention center and Disneyland.  Parking is free at the hotel, compared to $9.00 per day for a hotel nearer the convention center and Disneyland.  A Starbucks and a Subway sandwich shop is just around the corner.  So too is an Arco gas station but because of traffic considerations one must drive further and make some U-turns to actually drive next door.  Other than the Subway and Starbucks, there is no restaurant within walking distance.The hotel was relatively quiet and clean a big plus in my opinion.  The furniture and amenities were better than normal.  The queen size bed was comfortable and there was full size refrigerator, dishwasher and microwave in the room.  There was also a two burner electric "stove" together with pots, pans and dishes.  All were in excellent condition.  On the final day of my stay, some refurbishment was underway and workmen were repainting the corridor.There was free high speed internet but it required a network cable that was provided; there was no wireless internet.  The desk and chairs were excellent and quite comfortable.  The cable TV was also good but there were a number of channels including HBO that were difficult to see because of interference.  The room also had a DVD player with free DVD's available at the desk.  There was a CD-clock radio alarm with dual alarms that worked well once you figured out how to use it.  Instructions would have been a positive addition.There was a laundry room and a excellent work out room if you wanted to use it.  This was adjacent to a little mini shop that offered self-service drinks and microwave snacks for modest charges.  An example would be 12 oz. cans of soft drinks for just $0.50 instead of the $1.00 charges often found in machines.  My only real "complaint" about the room was the lack of daily maid service.  That being said, it was clear to me at the time of the booking that the hotel did not offer daily maid service so I cannot really complain.  If you wanted additional towels or linens they were available from the desk.I will likely stay here again and was perfectly satisfied with my experience.  The price was definitely right for me.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2008</t>
+  </si>
+  <si>
+    <t>I was attending a conference at the Anaheim Convention Center but did not want to pay very high rates for an average hotel.  Because I was driving this time, I would have a car and this made the Candlewood Suites very attractive.  It was half the price of a similar hotel nearer the convention center.
+The hotel is easy to find and is close to two major freeways and is just South of the convention center and Disneyland.  It is about a 5-10 minute drive to the convention center if there is no traffic.  Friday night traffic is horrible and it actually took another 20 minutes of bumper to bumper traffic one I neared the convention center and Disneyland.  Parking is free at the hotel, compared to $9.00 per day for a hotel nearer the convention center and Disneyland.  A Starbucks and a Subway sandwich shop is just around the corner.  So too is an Arco gas station but because of traffic considerations one must drive further and make some U-turns to actually drive next door.  Other than the Subway and Starbucks, there is no restaurant within walking distance.
+The hotel was relatively quiet and clean a big plus in my opinion.  The furniture and amenities were better than normal.  The queen size bed was comfortable and there was full size refrigerator, dishwasher and microwave in the room.  There was also a two burner electric "stove" together with pots, pans...I was attending a conference at the Anaheim Convention Center but did not want to pay very high rates for an average hotel.  Because I was driving this time, I would have a car and this made the Candlewood Suites very attractive.  It was half the price of a similar hotel nearer the convention center.The hotel is easy to find and is close to two major freeways and is just South of the convention center and Disneyland.  It is about a 5-10 minute drive to the convention center if there is no traffic.  Friday night traffic is horrible and it actually took another 20 minutes of bumper to bumper traffic one I neared the convention center and Disneyland.  Parking is free at the hotel, compared to $9.00 per day for a hotel nearer the convention center and Disneyland.  A Starbucks and a Subway sandwich shop is just around the corner.  So too is an Arco gas station but because of traffic considerations one must drive further and make some U-turns to actually drive next door.  Other than the Subway and Starbucks, there is no restaurant within walking distance.The hotel was relatively quiet and clean a big plus in my opinion.  The furniture and amenities were better than normal.  The queen size bed was comfortable and there was full size refrigerator, dishwasher and microwave in the room.  There was also a two burner electric "stove" together with pots, pans and dishes.  All were in excellent condition.  On the final day of my stay, some refurbishment was underway and workmen were repainting the corridor.There was free high speed internet but it required a network cable that was provided; there was no wireless internet.  The desk and chairs were excellent and quite comfortable.  The cable TV was also good but there were a number of channels including HBO that were difficult to see because of interference.  The room also had a DVD player with free DVD's available at the desk.  There was a CD-clock radio alarm with dual alarms that worked well once you figured out how to use it.  Instructions would have been a positive addition.There was a laundry room and a excellent work out room if you wanted to use it.  This was adjacent to a little mini shop that offered self-service drinks and microwave snacks for modest charges.  An example would be 12 oz. cans of soft drinks for just $0.50 instead of the $1.00 charges often found in machines.  My only real "complaint" about the room was the lack of daily maid service.  That being said, it was clear to me at the time of the booking that the hotel did not offer daily maid service so I cannot really complain.  If you wanted additional towels or linens they were available from the desk.I will likely stay here again and was perfectly satisfied with my experience.  The price was definitely right for me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r10257971-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>10257971</t>
+  </si>
+  <si>
+    <t>10/23/2007</t>
+  </si>
+  <si>
+    <t>Nice for a night.</t>
+  </si>
+  <si>
+    <t>Booked this room last minute for a one night stay st Disneyland when our usual hotel was booked. It's 3 miles away from the park, but easy enough to get to. It's a business traveler hotel, but we really enjoyed the comfy bed. Not bad for $50 a night from Priceline but I'd rather stay closer to the park if possible. The ammenities for business people looked great though, lots of cooking supplies (pots, pans, toaster, etc) in the cabinets and drawers.</t>
+  </si>
+  <si>
+    <t>October 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r7491900-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>7491900</t>
+  </si>
+  <si>
+    <t>04/30/2007</t>
+  </si>
+  <si>
+    <t>Terrible...smelled like smoke</t>
+  </si>
+  <si>
+    <t>This is one of the worst hotels I have stayed in...and I have stayed in at least 20. First of all, the hotel assigns me a smoking room when I specifically asked for a non-smoking room. I head up to the room and notice the hallway reaks of smoke. When I go to my room the key doesn't work...they gave me the wrong room number. I then trek down back to the check-in area (not staffed because it is at night...another horrible thing about this hotel.). When I get back to the check-in area I find the staffer left my paper with all my personal information on the counter for ANYONE to grab. (This includes my credit card number.) If I hadn't came back down who knows who would have grabbed it. After getting the correct room number I finally made it to my room. The room was ok, but the faucet on the sink kept coming off. Luckily, he did end up assigning me to a non-smoking room and it smelled ok. The common areas reaked of smoke however. That was the first time that ever happened to me at a hotel. Overall a hotel suited for businesspeople and not tourists, however they need to get their staffing issues in order.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2007</t>
+  </si>
+  <si>
+    <t>This is one of the worst hotels I have stayed in...and I have stayed in at least 20. First of all, the hotel assigns me a smoking room when I specifically asked for a non-smoking room. I head up to the room and notice the hallway reaks of smoke. When I go to my room the key doesn't work...they gave me the wrong room number. I then trek down back to the check-in area (not staffed because it is at night...another horrible thing about this hotel.). When I get back to the check-in area I find the staffer left my paper with all my personal information on the counter for ANYONE to grab. (This includes my credit card number.) If I hadn't came back down who knows who would have grabbed it. After getting the correct room number I finally made it to my room. The room was ok, but the faucet on the sink kept coming off. Luckily, he did end up assigning me to a non-smoking room and it smelled ok. The common areas reaked of smoke however. That was the first time that ever happened to me at a hotel. Overall a hotel suited for businesspeople and not tourists, however they need to get their staffing issues in order.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r7009366-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>7009366</t>
+  </si>
+  <si>
+    <t>03/09/2007</t>
+  </si>
+  <si>
+    <t>Just OK</t>
+  </si>
+  <si>
+    <t>Our family stayed here for 4 nights.  We have 2 young children ages 2 and 4.  I would not stay there again with young children. We stayed on the ground floor.  The bed was OK, but I think it was just a full size.  The sofa bed was OK for small kids but would have been terrible for an adult.  The carpets were so filthy that our feet got dirty; however the carpets were being cleaned on the day we checked out. The rooms were set up with handicap access in mind: the bathroom sink and toilet were the type you would find in a handicap accessible restroom.  The latch on the door was well within reach of our 4-year-old.  There was a nightstand in the bedroom only on one side.  The bar for hanging clothes in the closet was also very low and full length clothes would drag on the floor. I liked the full size refrigerator, free internet access, free laundry (pay only for soap), and free videos for both kids and adults (though none worked for very young kids).  Kitchen area is carpeted so it's hard to clean up spills.  Since the place is set up for longer term guests, there is no daily maid service.  The thermostat did nothing: no number display at all.  We asked and the maintenance person "looked at it" when we were out but no improvement.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2007</t>
+  </si>
+  <si>
+    <t>Our family stayed here for 4 nights.  We have 2 young children ages 2 and 4.  I would not stay there again with young children. We stayed on the ground floor.  The bed was OK, but I think it was just a full size.  The sofa bed was OK for small kids but would have been terrible for an adult.  The carpets were so filthy that our feet got dirty; however the carpets were being cleaned on the day we checked out. The rooms were set up with handicap access in mind: the bathroom sink and toilet were the type you would find in a handicap accessible restroom.  The latch on the door was well within reach of our 4-year-old.  There was a nightstand in the bedroom only on one side.  The bar for hanging clothes in the closet was also very low and full length clothes would drag on the floor. I liked the full size refrigerator, free internet access, free laundry (pay only for soap), and free videos for both kids and adults (though none worked for very young kids).  Kitchen area is carpeted so it's hard to clean up spills.  Since the place is set up for longer term guests, there is no daily maid service.  The thermostat did nothing: no number display at all.  We asked and the maintenance person "looked at it" when we were out but no improvement.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r5920188-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>5920188</t>
+  </si>
+  <si>
+    <t>10/04/2006</t>
+  </si>
+  <si>
+    <t>Yikes! What a nightmare</t>
+  </si>
+  <si>
+    <t>I booked this room, but was actually able to get my money back on Priceline. My bid was accepted for $37/night for 2 rooms. When I called to advise we would need beds for 3 people, this place wanted another $30/night per room. Rollaways are $10, however not generally available. This was not good news to me, but it got worse. Housekeeping takes place only AFTER 7 NIGHTS. And, there is no staff in the office in the evenings or at night. So be warned, if you are looking for a vacation facility, this place is probably not for you. If you want a long-term apartment/motel, then check in.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r4998370-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>4998370</t>
+  </si>
+  <si>
+    <t>04/22/2006</t>
+  </si>
+  <si>
+    <t>OK if you need to do your laundry!</t>
+  </si>
+  <si>
+    <t>We booked this room on Priceline for $42 a night. We got a studio suite that is to say the best rustic. The suites are very small and designed to be studio apartment style living for business travelers.The hotel does not provide daily maid service, toiletries in the bathroom, extra towels (we had to bring and use our own), there is not a swimming pool or access to ART shuttle to Disneyland.The hotel is about three miles from Disneyland and you need to drive or take a taxi to and from.The kitchen is minimally equipped, OK for snacks but not to prepare a meal.There is a free laundrymat for quests that was conveniant.We actually were booked for a six night stay and checked our early to stay elsewhere. I would not recommend this hotel to families but it may work out OK for a couple. There just isn't room here for families and there is nothing to do during your stay other than your laundry. You have to drive about a mile to get to resturants and stores, there is nothing within walking distance.Room is very small with queen bed, television, small table and kitchenette. There is a recliner but it was not of good quality and not very comfortable.The hotel is locked and has interior corriders so I found it to be safe and quiet.MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked this room on Priceline for $42 a night. We got a studio suite that is to say the best rustic. The suites are very small and designed to be studio apartment style living for business travelers.The hotel does not provide daily maid service, toiletries in the bathroom, extra towels (we had to bring and use our own), there is not a swimming pool or access to ART shuttle to Disneyland.The hotel is about three miles from Disneyland and you need to drive or take a taxi to and from.The kitchen is minimally equipped, OK for snacks but not to prepare a meal.There is a free laundrymat for quests that was conveniant.We actually were booked for a six night stay and checked our early to stay elsewhere. I would not recommend this hotel to families but it may work out OK for a couple. There just isn't room here for families and there is nothing to do during your stay other than your laundry. You have to drive about a mile to get to resturants and stores, there is nothing within walking distance.Room is very small with queen bed, television, small table and kitchenette. There is a recliner but it was not of good quality and not very comfortable.The hotel is locked and has interior corriders so I found it to be safe and quiet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r4771714-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>4771714</t>
+  </si>
+  <si>
+    <t>03/28/2006</t>
+  </si>
+  <si>
+    <t>It Works Well for Two</t>
+  </si>
+  <si>
+    <t>This hotel is near freeways and is a drivable distance to Disneyland. For all Priceline reservations, you get a studio with ONE queen bed (the hotel has a written policy stating it; the people in front of us argued, so I got to see it). This room set up works for two people who will sleep in the bed together. Sleeping bags on the floor would be crowded. The bed is adequate quality, but not that comfortable. Reading lights are on one side of the bed only, if you're on the other side, you have no light. There is a comfortable recliner in the room, but it needed to be replaced, there were holes in the fabric. 
+The kitchenette is extremely convenient, with a full size fridge, 2-burner cooktop, microwave and a dishwasher. A full size fridge is a huge help for the drinks and leftovers. There are only dishes for two people (2 spoons, 2 plates, 2 cups, etc). We supplemented with paper plates and stuff from our Knott's Berry Farm takeout.
+The good sized closet has a laundry basket, and the hotel has free washer and dryer. Soap is $1.25 per load (bring some with you along with dryer sheets).
+They have free high speed internet, but I forgot my laptop this trip. Free VHS tapes to borrow, but dumb titles (bring your own).
+Because it's an extended stay hotel, you have to stay 4 or more nights...This hotel is near freeways and is a drivable distance to Disneyland. For all Priceline reservations, you get a studio with ONE queen bed (the hotel has a written policy stating it; the people in front of us argued, so I got to see it). This room set up works for two people who will sleep in the bed together. Sleeping bags on the floor would be crowded. The bed is adequate quality, but not that comfortable. Reading lights are on one side of the bed only, if you're on the other side, you have no light. There is a comfortable recliner in the room, but it needed to be replaced, there were holes in the fabric. The kitchenette is extremely convenient, with a full size fridge, 2-burner cooktop, microwave and a dishwasher. A full size fridge is a huge help for the drinks and leftovers. There are only dishes for two people (2 spoons, 2 plates, 2 cups, etc). We supplemented with paper plates and stuff from our Knott's Berry Farm takeout.The good sized closet has a laundry basket, and the hotel has free washer and dryer. Soap is $1.25 per load (bring some with you along with dryer sheets).They have free high speed internet, but I forgot my laptop this trip. Free VHS tapes to borrow, but dumb titles (bring your own).Because it's an extended stay hotel, you have to stay 4 or more nights to get housekeeping services. That means no fresh sheets, towels, or glasses. You can turn your wet towels in at the front desk for fresh, but you can't pick them up until the mid afternoon because of the short supply the hotel has.  The studio will house two but is best for one traveler. I'm a corporate travel coordinator and review a lot of hotels. We paid less than $50/night during spring break via Priceline; so I'd stay here again now that I know what to expect.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is near freeways and is a drivable distance to Disneyland. For all Priceline reservations, you get a studio with ONE queen bed (the hotel has a written policy stating it; the people in front of us argued, so I got to see it). This room set up works for two people who will sleep in the bed together. Sleeping bags on the floor would be crowded. The bed is adequate quality, but not that comfortable. Reading lights are on one side of the bed only, if you're on the other side, you have no light. There is a comfortable recliner in the room, but it needed to be replaced, there were holes in the fabric. 
+The kitchenette is extremely convenient, with a full size fridge, 2-burner cooktop, microwave and a dishwasher. A full size fridge is a huge help for the drinks and leftovers. There are only dishes for two people (2 spoons, 2 plates, 2 cups, etc). We supplemented with paper plates and stuff from our Knott's Berry Farm takeout.
+The good sized closet has a laundry basket, and the hotel has free washer and dryer. Soap is $1.25 per load (bring some with you along with dryer sheets).
+They have free high speed internet, but I forgot my laptop this trip. Free VHS tapes to borrow, but dumb titles (bring your own).
+Because it's an extended stay hotel, you have to stay 4 or more nights...This hotel is near freeways and is a drivable distance to Disneyland. For all Priceline reservations, you get a studio with ONE queen bed (the hotel has a written policy stating it; the people in front of us argued, so I got to see it). This room set up works for two people who will sleep in the bed together. Sleeping bags on the floor would be crowded. The bed is adequate quality, but not that comfortable. Reading lights are on one side of the bed only, if you're on the other side, you have no light. There is a comfortable recliner in the room, but it needed to be replaced, there were holes in the fabric. The kitchenette is extremely convenient, with a full size fridge, 2-burner cooktop, microwave and a dishwasher. A full size fridge is a huge help for the drinks and leftovers. There are only dishes for two people (2 spoons, 2 plates, 2 cups, etc). We supplemented with paper plates and stuff from our Knott's Berry Farm takeout.The good sized closet has a laundry basket, and the hotel has free washer and dryer. Soap is $1.25 per load (bring some with you along with dryer sheets).They have free high speed internet, but I forgot my laptop this trip. Free VHS tapes to borrow, but dumb titles (bring your own).Because it's an extended stay hotel, you have to stay 4 or more nights to get housekeeping services. That means no fresh sheets, towels, or glasses. You can turn your wet towels in at the front desk for fresh, but you can't pick them up until the mid afternoon because of the short supply the hotel has.  The studio will house two but is best for one traveler. I'm a corporate travel coordinator and review a lot of hotels. We paid less than $50/night during spring break via Priceline; so I'd stay here again now that I know what to expect.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r4316334-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
+  </si>
+  <si>
+    <t>4316334</t>
+  </si>
+  <si>
+    <t>01/01/2006</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay</t>
+  </si>
+  <si>
+    <t>We stayed here on Thanksgiving weekend &amp; was pleasantly surprised to see the place. It was a fairly new building, clean, with kitchen utensils provided (but no pots/pans) and has a recliner. The bed was ok, something that you would expect from a $50/nite lodging (we got a great deal from Orbitz). They also let you borrow movies from the front desk (but the selection is limited). There's laundry &amp; workout room downstairs too. The only downside is that we don't feel that the area was safe at nite (although we didn't encounter any problems). But all in all, we would definitely stay here again!</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2696,5629 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>85</v>
+      </c>
+      <c r="X6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>100</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>106</v>
+      </c>
+      <c r="X9" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>114</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>115</v>
+      </c>
+      <c r="X10" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>123</v>
+      </c>
+      <c r="O11" t="s">
+        <v>100</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>124</v>
+      </c>
+      <c r="X11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" t="s">
+        <v>130</v>
+      </c>
+      <c r="L12" t="s">
+        <v>131</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>124</v>
+      </c>
+      <c r="X12" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L13" t="s">
+        <v>137</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>138</v>
+      </c>
+      <c r="O13" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>139</v>
+      </c>
+      <c r="X13" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s">
+        <v>146</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>147</v>
+      </c>
+      <c r="O14" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>148</v>
+      </c>
+      <c r="X14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" t="s">
+        <v>154</v>
+      </c>
+      <c r="L15" t="s">
+        <v>155</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>156</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>157</v>
+      </c>
+      <c r="X15" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>161</v>
+      </c>
+      <c r="J16" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" t="s">
+        <v>164</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O16" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>165</v>
+      </c>
+      <c r="X16" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" t="s">
+        <v>171</v>
+      </c>
+      <c r="L17" t="s">
+        <v>172</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>138</v>
+      </c>
+      <c r="O17" t="s">
+        <v>173</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>174</v>
+      </c>
+      <c r="X17" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>178</v>
+      </c>
+      <c r="J18" t="s">
+        <v>179</v>
+      </c>
+      <c r="K18" t="s">
+        <v>180</v>
+      </c>
+      <c r="L18" t="s">
+        <v>181</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>182</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>183</v>
+      </c>
+      <c r="X18" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>187</v>
+      </c>
+      <c r="J19" t="s">
+        <v>179</v>
+      </c>
+      <c r="K19" t="s">
+        <v>188</v>
+      </c>
+      <c r="L19" t="s">
+        <v>189</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" t="s">
+        <v>192</v>
+      </c>
+      <c r="K20" t="s">
+        <v>193</v>
+      </c>
+      <c r="L20" t="s">
+        <v>194</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>182</v>
+      </c>
+      <c r="O20" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>195</v>
+      </c>
+      <c r="X20" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>199</v>
+      </c>
+      <c r="J21" t="s">
+        <v>200</v>
+      </c>
+      <c r="K21" t="s">
+        <v>201</v>
+      </c>
+      <c r="L21" t="s">
+        <v>202</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>203</v>
+      </c>
+      <c r="O21" t="s">
+        <v>78</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>204</v>
+      </c>
+      <c r="X21" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>208</v>
+      </c>
+      <c r="J22" t="s">
+        <v>209</v>
+      </c>
+      <c r="K22" t="s">
+        <v>210</v>
+      </c>
+      <c r="L22" t="s">
+        <v>211</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>203</v>
+      </c>
+      <c r="O22" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>212</v>
+      </c>
+      <c r="X22" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>215</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>216</v>
+      </c>
+      <c r="J23" t="s">
+        <v>217</v>
+      </c>
+      <c r="K23" t="s">
+        <v>218</v>
+      </c>
+      <c r="L23" t="s">
+        <v>219</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>220</v>
+      </c>
+      <c r="O23" t="s">
+        <v>62</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>221</v>
+      </c>
+      <c r="X23" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>224</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>225</v>
+      </c>
+      <c r="J24" t="s">
+        <v>226</v>
+      </c>
+      <c r="K24" t="s">
+        <v>227</v>
+      </c>
+      <c r="L24" t="s">
+        <v>228</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>229</v>
+      </c>
+      <c r="O24" t="s">
+        <v>62</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>230</v>
+      </c>
+      <c r="X24" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>233</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>234</v>
+      </c>
+      <c r="J25" t="s">
+        <v>235</v>
+      </c>
+      <c r="K25" t="s">
+        <v>236</v>
+      </c>
+      <c r="L25" t="s">
+        <v>237</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>229</v>
+      </c>
+      <c r="O25" t="s">
+        <v>62</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>238</v>
+      </c>
+      <c r="X25" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>241</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>242</v>
+      </c>
+      <c r="J26" t="s">
+        <v>243</v>
+      </c>
+      <c r="K26" t="s">
+        <v>244</v>
+      </c>
+      <c r="L26" t="s">
+        <v>245</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>229</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>247</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>248</v>
+      </c>
+      <c r="J27" t="s">
+        <v>249</v>
+      </c>
+      <c r="K27" t="s">
+        <v>250</v>
+      </c>
+      <c r="L27" t="s">
+        <v>251</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>229</v>
+      </c>
+      <c r="O27" t="s">
+        <v>62</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>252</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J28" t="s">
+        <v>254</v>
+      </c>
+      <c r="K28" t="s">
+        <v>255</v>
+      </c>
+      <c r="L28" t="s">
+        <v>256</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>257</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>259</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>260</v>
+      </c>
+      <c r="J29" t="s">
+        <v>261</v>
+      </c>
+      <c r="K29" t="s">
+        <v>262</v>
+      </c>
+      <c r="L29" t="s">
+        <v>263</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>264</v>
+      </c>
+      <c r="O29" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>265</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>266</v>
+      </c>
+      <c r="J30" t="s">
+        <v>267</v>
+      </c>
+      <c r="K30" t="s">
+        <v>268</v>
+      </c>
+      <c r="L30" t="s">
+        <v>269</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>270</v>
+      </c>
+      <c r="O30" t="s">
+        <v>62</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>271</v>
+      </c>
+      <c r="X30" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>274</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>275</v>
+      </c>
+      <c r="J31" t="s">
+        <v>276</v>
+      </c>
+      <c r="K31" t="s">
+        <v>277</v>
+      </c>
+      <c r="L31" t="s">
+        <v>278</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>279</v>
+      </c>
+      <c r="O31" t="s">
+        <v>78</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>280</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>281</v>
+      </c>
+      <c r="J32" t="s">
+        <v>282</v>
+      </c>
+      <c r="K32" t="s">
+        <v>283</v>
+      </c>
+      <c r="L32" t="s">
+        <v>284</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>264</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>286</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>287</v>
+      </c>
+      <c r="J33" t="s">
+        <v>288</v>
+      </c>
+      <c r="K33" t="s">
+        <v>289</v>
+      </c>
+      <c r="L33" t="s">
+        <v>290</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>291</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>292</v>
+      </c>
+      <c r="X33" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>295</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>296</v>
+      </c>
+      <c r="J34" t="s">
+        <v>297</v>
+      </c>
+      <c r="K34" t="s">
+        <v>298</v>
+      </c>
+      <c r="L34" t="s">
+        <v>299</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>300</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>301</v>
+      </c>
+      <c r="J35" t="s">
+        <v>302</v>
+      </c>
+      <c r="K35" t="s">
+        <v>303</v>
+      </c>
+      <c r="L35" t="s">
+        <v>304</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>305</v>
+      </c>
+      <c r="O35" t="s">
+        <v>78</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>306</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>307</v>
+      </c>
+      <c r="J36" t="s">
+        <v>308</v>
+      </c>
+      <c r="K36" t="s">
+        <v>309</v>
+      </c>
+      <c r="L36" t="s">
+        <v>310</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>305</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>311</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>312</v>
+      </c>
+      <c r="J37" t="s">
+        <v>313</v>
+      </c>
+      <c r="K37" t="s">
+        <v>314</v>
+      </c>
+      <c r="L37" t="s">
+        <v>315</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>316</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>317</v>
+      </c>
+      <c r="X37" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>320</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>321</v>
+      </c>
+      <c r="J38" t="s">
+        <v>322</v>
+      </c>
+      <c r="K38" t="s">
+        <v>323</v>
+      </c>
+      <c r="L38" t="s">
+        <v>324</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>325</v>
+      </c>
+      <c r="X38" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>329</v>
+      </c>
+      <c r="J39" t="s">
+        <v>330</v>
+      </c>
+      <c r="K39" t="s">
+        <v>331</v>
+      </c>
+      <c r="L39" t="s">
+        <v>332</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>333</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>334</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>335</v>
+      </c>
+      <c r="J40" t="s">
+        <v>336</v>
+      </c>
+      <c r="K40" t="s">
+        <v>337</v>
+      </c>
+      <c r="L40" t="s">
+        <v>338</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>339</v>
+      </c>
+      <c r="O40" t="s">
+        <v>62</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>340</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>341</v>
+      </c>
+      <c r="J41" t="s">
+        <v>342</v>
+      </c>
+      <c r="K41" t="s">
+        <v>343</v>
+      </c>
+      <c r="L41" t="s">
+        <v>344</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>345</v>
+      </c>
+      <c r="O41" t="s">
+        <v>100</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>346</v>
+      </c>
+      <c r="X41" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>349</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>350</v>
+      </c>
+      <c r="J42" t="s">
+        <v>351</v>
+      </c>
+      <c r="K42" t="s">
+        <v>352</v>
+      </c>
+      <c r="L42" t="s">
+        <v>353</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>354</v>
+      </c>
+      <c r="O42" t="s">
+        <v>62</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>355</v>
+      </c>
+      <c r="X42" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>358</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>359</v>
+      </c>
+      <c r="J43" t="s">
+        <v>360</v>
+      </c>
+      <c r="K43" t="s">
+        <v>361</v>
+      </c>
+      <c r="L43" t="s">
+        <v>362</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>363</v>
+      </c>
+      <c r="X43" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>366</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>367</v>
+      </c>
+      <c r="J44" t="s">
+        <v>368</v>
+      </c>
+      <c r="K44" t="s">
+        <v>369</v>
+      </c>
+      <c r="L44" t="s">
+        <v>370</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>371</v>
+      </c>
+      <c r="O44" t="s">
+        <v>62</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>372</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>373</v>
+      </c>
+      <c r="J45" t="s">
+        <v>374</v>
+      </c>
+      <c r="K45" t="s">
+        <v>375</v>
+      </c>
+      <c r="L45" t="s">
+        <v>376</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>377</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>2</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>378</v>
+      </c>
+      <c r="X45" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>381</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>382</v>
+      </c>
+      <c r="J46" t="s">
+        <v>383</v>
+      </c>
+      <c r="K46" t="s">
+        <v>384</v>
+      </c>
+      <c r="L46" t="s">
+        <v>385</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>386</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>387</v>
+      </c>
+      <c r="X46" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>390</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>391</v>
+      </c>
+      <c r="J47" t="s">
+        <v>392</v>
+      </c>
+      <c r="K47" t="s">
+        <v>393</v>
+      </c>
+      <c r="L47" t="s">
+        <v>394</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>395</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>396</v>
+      </c>
+      <c r="X47" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>399</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>400</v>
+      </c>
+      <c r="J48" t="s">
+        <v>401</v>
+      </c>
+      <c r="K48" t="s">
+        <v>402</v>
+      </c>
+      <c r="L48" t="s">
+        <v>403</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>404</v>
+      </c>
+      <c r="O48" t="s">
+        <v>173</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>405</v>
+      </c>
+      <c r="X48" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>408</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>409</v>
+      </c>
+      <c r="J49" t="s">
+        <v>410</v>
+      </c>
+      <c r="K49" t="s">
+        <v>411</v>
+      </c>
+      <c r="L49" t="s">
+        <v>412</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>404</v>
+      </c>
+      <c r="O49" t="s">
+        <v>173</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>413</v>
+      </c>
+      <c r="X49" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>416</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>417</v>
+      </c>
+      <c r="J50" t="s">
+        <v>418</v>
+      </c>
+      <c r="K50" t="s">
+        <v>419</v>
+      </c>
+      <c r="L50" t="s">
+        <v>420</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>395</v>
+      </c>
+      <c r="O50" t="s">
+        <v>62</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>421</v>
+      </c>
+      <c r="X50" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>424</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>425</v>
+      </c>
+      <c r="J51" t="s">
+        <v>426</v>
+      </c>
+      <c r="K51" t="s">
+        <v>427</v>
+      </c>
+      <c r="L51" t="s">
+        <v>428</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>429</v>
+      </c>
+      <c r="O51" t="s">
+        <v>62</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>430</v>
+      </c>
+      <c r="X51" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>433</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>434</v>
+      </c>
+      <c r="J52" t="s">
+        <v>435</v>
+      </c>
+      <c r="K52" t="s">
+        <v>436</v>
+      </c>
+      <c r="L52" t="s">
+        <v>437</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>438</v>
+      </c>
+      <c r="O52" t="s">
+        <v>62</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>439</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>440</v>
+      </c>
+      <c r="J53" t="s">
+        <v>441</v>
+      </c>
+      <c r="K53" t="s">
+        <v>442</v>
+      </c>
+      <c r="L53" t="s">
+        <v>443</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>444</v>
+      </c>
+      <c r="O53" t="s">
+        <v>100</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>446</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>447</v>
+      </c>
+      <c r="J54" t="s">
+        <v>448</v>
+      </c>
+      <c r="K54" t="s">
+        <v>449</v>
+      </c>
+      <c r="L54" t="s">
+        <v>450</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>444</v>
+      </c>
+      <c r="O54" t="s">
+        <v>100</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>452</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>453</v>
+      </c>
+      <c r="J55" t="s">
+        <v>454</v>
+      </c>
+      <c r="K55" t="s">
+        <v>455</v>
+      </c>
+      <c r="L55" t="s">
+        <v>456</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>457</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>458</v>
+      </c>
+      <c r="X55" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>461</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>462</v>
+      </c>
+      <c r="J56" t="s">
+        <v>463</v>
+      </c>
+      <c r="K56" t="s">
+        <v>464</v>
+      </c>
+      <c r="L56" t="s">
+        <v>465</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>466</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>467</v>
+      </c>
+      <c r="X56" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>469</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>470</v>
+      </c>
+      <c r="J57" t="s">
+        <v>471</v>
+      </c>
+      <c r="K57" t="s">
+        <v>472</v>
+      </c>
+      <c r="L57" t="s">
+        <v>473</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>474</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>475</v>
+      </c>
+      <c r="X57" t="s">
+        <v>476</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>478</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>479</v>
+      </c>
+      <c r="J58" t="s">
+        <v>480</v>
+      </c>
+      <c r="K58" t="s">
+        <v>481</v>
+      </c>
+      <c r="L58" t="s">
+        <v>482</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>466</v>
+      </c>
+      <c r="O58" t="s">
+        <v>62</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>483</v>
+      </c>
+      <c r="X58" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>486</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>487</v>
+      </c>
+      <c r="J59" t="s">
+        <v>488</v>
+      </c>
+      <c r="K59" t="s">
+        <v>489</v>
+      </c>
+      <c r="L59" t="s">
+        <v>490</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>491</v>
+      </c>
+      <c r="O59" t="s">
+        <v>62</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>492</v>
+      </c>
+      <c r="X59" t="s">
+        <v>493</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>495</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>496</v>
+      </c>
+      <c r="J60" t="s">
+        <v>497</v>
+      </c>
+      <c r="K60" t="s">
+        <v>498</v>
+      </c>
+      <c r="L60" t="s">
+        <v>499</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>491</v>
+      </c>
+      <c r="O60" t="s">
+        <v>78</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>500</v>
+      </c>
+      <c r="X60" t="s">
+        <v>501</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>503</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>504</v>
+      </c>
+      <c r="J61" t="s">
+        <v>505</v>
+      </c>
+      <c r="K61" t="s">
+        <v>506</v>
+      </c>
+      <c r="L61" t="s">
+        <v>507</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>491</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>508</v>
+      </c>
+      <c r="X61" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>511</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>512</v>
+      </c>
+      <c r="J62" t="s">
+        <v>513</v>
+      </c>
+      <c r="K62" t="s">
+        <v>514</v>
+      </c>
+      <c r="L62" t="s">
+        <v>515</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>516</v>
+      </c>
+      <c r="X62" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>519</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>520</v>
+      </c>
+      <c r="J63" t="s">
+        <v>521</v>
+      </c>
+      <c r="K63" t="s">
+        <v>522</v>
+      </c>
+      <c r="L63" t="s">
+        <v>523</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>524</v>
+      </c>
+      <c r="O63" t="s">
+        <v>62</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>516</v>
+      </c>
+      <c r="X63" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>526</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>527</v>
+      </c>
+      <c r="J64" t="s">
+        <v>528</v>
+      </c>
+      <c r="K64" t="s">
+        <v>529</v>
+      </c>
+      <c r="L64" t="s">
+        <v>530</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>531</v>
+      </c>
+      <c r="O64" t="s">
+        <v>62</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>532</v>
+      </c>
+      <c r="X64" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>535</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>536</v>
+      </c>
+      <c r="J65" t="s">
+        <v>537</v>
+      </c>
+      <c r="K65" t="s">
+        <v>538</v>
+      </c>
+      <c r="L65" t="s">
+        <v>539</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>540</v>
+      </c>
+      <c r="O65" t="s">
+        <v>62</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>541</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>542</v>
+      </c>
+      <c r="J66" t="s">
+        <v>543</v>
+      </c>
+      <c r="K66" t="s">
+        <v>544</v>
+      </c>
+      <c r="L66" t="s">
+        <v>545</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>546</v>
+      </c>
+      <c r="O66" t="s">
+        <v>78</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>548</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>549</v>
+      </c>
+      <c r="J67" t="s">
+        <v>550</v>
+      </c>
+      <c r="K67" t="s">
+        <v>551</v>
+      </c>
+      <c r="L67" t="s">
+        <v>552</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>553</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>554</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>555</v>
+      </c>
+      <c r="J68" t="s">
+        <v>556</v>
+      </c>
+      <c r="K68" t="s">
+        <v>557</v>
+      </c>
+      <c r="L68" t="s">
+        <v>558</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>559</v>
+      </c>
+      <c r="O68" t="s">
+        <v>62</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>560</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>561</v>
+      </c>
+      <c r="J69" t="s">
+        <v>562</v>
+      </c>
+      <c r="K69" t="s">
+        <v>563</v>
+      </c>
+      <c r="L69" t="s">
+        <v>564</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>565</v>
+      </c>
+      <c r="O69" t="s">
+        <v>173</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>566</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>567</v>
+      </c>
+      <c r="J70" t="s">
+        <v>568</v>
+      </c>
+      <c r="K70" t="s">
+        <v>569</v>
+      </c>
+      <c r="L70" t="s">
+        <v>570</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>571</v>
+      </c>
+      <c r="O70" t="s">
+        <v>62</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>2</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>572</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>573</v>
+      </c>
+      <c r="J71" t="s">
+        <v>574</v>
+      </c>
+      <c r="K71" t="s">
+        <v>575</v>
+      </c>
+      <c r="L71" t="s">
+        <v>576</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>577</v>
+      </c>
+      <c r="O71" t="s">
+        <v>62</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>579</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>580</v>
+      </c>
+      <c r="J72" t="s">
+        <v>581</v>
+      </c>
+      <c r="K72" t="s">
+        <v>582</v>
+      </c>
+      <c r="L72" t="s">
+        <v>583</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>584</v>
+      </c>
+      <c r="O72" t="s">
+        <v>78</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>585</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>586</v>
+      </c>
+      <c r="J73" t="s">
+        <v>587</v>
+      </c>
+      <c r="K73" t="s">
+        <v>588</v>
+      </c>
+      <c r="L73" t="s">
+        <v>589</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>590</v>
+      </c>
+      <c r="O73" t="s">
+        <v>62</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>591</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>592</v>
+      </c>
+      <c r="J74" t="s">
+        <v>593</v>
+      </c>
+      <c r="K74" t="s">
+        <v>594</v>
+      </c>
+      <c r="L74" t="s">
+        <v>595</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>596</v>
+      </c>
+      <c r="O74" t="s">
+        <v>78</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>597</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>598</v>
+      </c>
+      <c r="J75" t="s">
+        <v>599</v>
+      </c>
+      <c r="K75" t="s">
+        <v>600</v>
+      </c>
+      <c r="L75" t="s">
+        <v>601</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
+        <v>602</v>
+      </c>
+      <c r="O75" t="s">
+        <v>62</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>603</v>
+      </c>
+      <c r="X75" t="s">
+        <v>604</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>606</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>607</v>
+      </c>
+      <c r="J76" t="s">
+        <v>608</v>
+      </c>
+      <c r="K76" t="s">
+        <v>609</v>
+      </c>
+      <c r="L76" t="s">
+        <v>610</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
+        <v>611</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>1</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>1</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>603</v>
+      </c>
+      <c r="X76" t="s">
+        <v>604</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>613</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>614</v>
+      </c>
+      <c r="J77" t="s">
+        <v>615</v>
+      </c>
+      <c r="K77" t="s">
+        <v>616</v>
+      </c>
+      <c r="L77" t="s">
+        <v>617</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>618</v>
+      </c>
+      <c r="O77" t="s">
+        <v>62</v>
+      </c>
+      <c r="P77" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>2</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>2</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>619</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>620</v>
+      </c>
+      <c r="J78" t="s">
+        <v>621</v>
+      </c>
+      <c r="K78" t="s">
+        <v>622</v>
+      </c>
+      <c r="L78" t="s">
+        <v>623</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>618</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1</v>
+      </c>
+      <c r="R78" t="n">
+        <v>1</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>2</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>625</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>626</v>
+      </c>
+      <c r="J79" t="s">
+        <v>627</v>
+      </c>
+      <c r="K79" t="s">
+        <v>628</v>
+      </c>
+      <c r="L79" t="s">
+        <v>629</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>630</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>631</v>
+      </c>
+      <c r="X79" t="s">
+        <v>632</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>634</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>635</v>
+      </c>
+      <c r="J80" t="s">
+        <v>636</v>
+      </c>
+      <c r="K80" t="s">
+        <v>637</v>
+      </c>
+      <c r="L80" t="s">
+        <v>638</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>639</v>
+      </c>
+      <c r="O80" t="s">
+        <v>62</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>641</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>642</v>
+      </c>
+      <c r="J81" t="s">
+        <v>643</v>
+      </c>
+      <c r="K81" t="s">
+        <v>644</v>
+      </c>
+      <c r="L81" t="s">
+        <v>645</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>646</v>
+      </c>
+      <c r="O81" t="s">
+        <v>62</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="s"/>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>648</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>649</v>
+      </c>
+      <c r="J82" t="s">
+        <v>650</v>
+      </c>
+      <c r="K82" t="s">
+        <v>651</v>
+      </c>
+      <c r="L82" t="s">
+        <v>652</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>653</v>
+      </c>
+      <c r="O82" t="s">
+        <v>78</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>654</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>655</v>
+      </c>
+      <c r="J83" t="s">
+        <v>656</v>
+      </c>
+      <c r="K83" t="s">
+        <v>657</v>
+      </c>
+      <c r="L83" t="s">
+        <v>658</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>659</v>
+      </c>
+      <c r="O83" t="s">
+        <v>100</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>661</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>662</v>
+      </c>
+      <c r="J84" t="s">
+        <v>663</v>
+      </c>
+      <c r="K84" t="s">
+        <v>664</v>
+      </c>
+      <c r="L84" t="s">
+        <v>665</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="s">
+        <v>666</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>2</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>2</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>668</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>669</v>
+      </c>
+      <c r="J85" t="s">
+        <v>670</v>
+      </c>
+      <c r="K85" t="s">
+        <v>671</v>
+      </c>
+      <c r="L85" t="s">
+        <v>672</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>673</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>674</v>
+      </c>
+      <c r="J86" t="s">
+        <v>675</v>
+      </c>
+      <c r="K86" t="s">
+        <v>676</v>
+      </c>
+      <c r="L86" t="s">
+        <v>677</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>2</v>
+      </c>
+      <c r="R86" t="s"/>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>2</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>679</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>680</v>
+      </c>
+      <c r="J87" t="s">
+        <v>681</v>
+      </c>
+      <c r="K87" t="s">
+        <v>682</v>
+      </c>
+      <c r="L87" t="s">
+        <v>683</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="s"/>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>36911</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>685</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>686</v>
+      </c>
+      <c r="J88" t="s">
+        <v>687</v>
+      </c>
+      <c r="K88" t="s">
+        <v>688</v>
+      </c>
+      <c r="L88" t="s">
+        <v>689</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s"/>
+      <c r="O88" t="s"/>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="s"/>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>689</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_97.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_97.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="776">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>onetake2</t>
+  </si>
+  <si>
     <t>06/29/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Checked out of the hotel 3/29/18.  Realized 5 hours later I forgot 2 expensive sweaters hanging in the closet.  I called immediately and was told they would check with housekeeping.  I never received a call the next day so I call them again.  Told they did not find them and they would do a more extensive search and call me back.  It's 3 days later and no return phone call.  Housekeeping or hotel staff most certainly found them and decided to keep them.  My fault for forgetting them but any reputable establishment would return items left behind if they cared about customer service.  My first and last time staying at this location.More</t>
   </si>
   <si>
+    <t>Tena E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r566182849-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>We stay regularly at IHG properties and Candlewood Suites frequently.  The staff was friendly and helpful. The property is run down and due for some building upgrades as well the furniture and fixtures.  The kitchenette area in our room had less than normal dishes,pans,silverware etc. All were worn. The items you could sign out and borrow were almost nonexistent. The pantry shop had very few choices in dry goods or refrigerated/frozen. Generally both areas are very well stocked with basic but good variety.  More</t>
   </si>
   <si>
+    <t>Ricky C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r538899982-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -232,6 +241,9 @@
   </si>
   <si>
     <t>November 2017</t>
+  </si>
+  <si>
+    <t>Keith R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r494573456-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
@@ -286,6 +298,9 @@
 And I'm just about positive that they're...My girlfriend and I came in for our vacation to Catalina island. After missing the boat, we had to stay somewhere overnight.As an IHG member and credit card holder, I booked a room here on the app. Received a generous AAA discount and got a free upgrade for being an IHG platinum member.The front desk personal was very nice and accommodating. The room was a very nice, clean 1 bedroom suite with full kitchen and appliances.The gym was clean and in order.There were appliances (blender) that we could check out. Overall the room/hotel/accommodations were excellent. Nearby to shopping,food and entertainment. We went out to lunch, did some shopping and seen a movie at a nearby theater.I was very impressed with my stay and would recommend a stay here.CONS: My only couple complaints are that the community laundry room and the gym are connected. So the gym was HOT from all the people doing their laundry.Also, it seems this place rents out to weekly/monthly residents. And not a very prestigious group.I wasn't pleased having to see women running around in flip flops and nightgowns / moomoos in and out of the laundry/gym area. Dirty men in their dirty work clothes or wearing boxer shorts and wifebeater tank tops in and out of the lobbyvarea and concession area.They really brought down the ambience of the place. And I'm just about positive that they're not paying anywhere close to the $105.00 I spent for the night.That's why it received a 4 star rather than 5. More</t>
   </si>
   <si>
+    <t>Cha123456789</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r479872725-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -310,6 +325,9 @@
     <t>Can't think of one good reason to ever stay here again. One bad experience after another. Everything from the room not ready, getting charged a rate other than contracted. No towel service or daily service. Maid carts in empty halls with no maids around. Noisy upstairs guests and the front desk would do nothing. Dogs barking all hours of day and night. Lights not working in bathrooms. Roaches. Employees "GRUNTING" at you like a pig when you asked them a questionMore</t>
   </si>
   <si>
+    <t>glennsaku</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r469924891-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -328,6 +346,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>LaYaya28</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r457752418-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -349,6 +370,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>SparkfromEK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r450485144-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -373,6 +397,9 @@
     <t>We had a fab stay here, free parking and very good wifi. All the staff were lovely. Room was clean with small kitchen area. Had a couple of minor issues but these were dealt with immediately which was great. Housekeeping only come once a week so you don't get beds made/new toiletries/fresh towels/ bins emptied daily. Although you can change towels for fresh ones at reception when you need to. Overall we enjoyed our stay.More</t>
   </si>
   <si>
+    <t>Lisa H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r447071549-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -400,6 +427,9 @@
     <t>"Ivy" the night concierge gave my family and I stellar customer service. I made an error and booked a hotel room with only one bed in it for my family of four. Ivy immediately accomidated my family and I by getting us another room so everyone had a place to sleep. Thank you so much for your outstanding  service! This is just another reason why I love this hotel! Sincerely, The Hasse FamilyMore</t>
   </si>
   <si>
+    <t>HotelGuruGirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r440776520-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -427,6 +457,9 @@
     <t>Property is not hard to find. Has plenty of parking.Check in was quick. Front desk lady was nice and professional.Room is spacious enough.Kitchen sink was not clean upon arrival.TV remote was missing from room. I was given a new one but it quit working as well.Front desk sent somebody right up to remedy the issues.TV channel line up is a little short but good enough. Room has a DVD player.They half updated the rooms which is nice.Bathroom was clean. Plenty of towels.Kitchenette and full size fridge were just what I needed for the week.They stock the kitchen with everything you need too.Wish their lending area had more appliances like a toaster oven or a pizza cooker. That would be nice.Stove top was a little weak so you had to turn it all the way up to get it hot enough.Property also has a fitness center, a small store with limited goodies and chilled beverages and a small laundry room.Out back there's a gazebo with bbq grills.This property does accept pets and even has a small outside pet area.Suites are sound proofed somewhat between rooms so I hardly ever heard other guests. Love my quiet time.I do wish they had a jacuzzi to relax in.I would come and stay again.More</t>
   </si>
   <si>
+    <t>Hime77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r438113365-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -445,6 +478,9 @@
     <t>I always love staying at the Candlewood because the beds are super comfortable, the shower has good water pressure and the room is relaxing and quiet. I love the kitchen area and you can even borrow a blender!More</t>
   </si>
   <si>
+    <t>syghana</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r435888480-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -470,6 +506,9 @@
   </si>
   <si>
     <t>It was clean and the staff handles the customer needs fine. They just seem a bit rushed and unsure at times about how to get answers. The security patrols and is around in the late evening. I appreciate that due to parking in the lot and walking at night. He is manerly, helpful and pleasant.The folks with kids above me room stomped, banged and were falling everyday at random time. They seem to have to control. I was a day sleeper and have frequented Candlewood in the past for long term businesss stays for weeks and was contented with my stay.Maybe there is new managentet now. The general manager is the same tho. I was told everytime i called that they would call thier room. EVERYDAY, NO REAL CHANGE. THEN , I GOT A WEIRD KNOCK AT MY DOOR BUT NO REAL CHANGE.Would I stay at this location again? After, speaking with them regarding some concession for my days of disturbance and unbridled annoyances, I WILL WRITE ANOTHER REVIEW WITH MORE DETAILS OF MY STAYS AND EXPERIENCES.More</t>
+  </si>
+  <si>
+    <t>Chime141</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r422784436-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
@@ -503,6 +542,9 @@
 Now for the good part.  These hotels carry a very small staff.  Despite that, the team was very friendly, answered our calls and requests immediately (like asking for the carpet guys to move to a different room when they started next door at 6am), and did everything they...We had bad timing for our stay.  The hotel had just begun the process of replacing the carpeting in the guest rooms when we arrived.  Old carpeting and padding is very stinky and new carpeting glue on top of that makes it very unpleasant.  We also were surrounded by hammers banging around us and workers speaking and eating in the hallways.  They cleaned up everything each night but it really made for an unpleasant environment.  Our room had not yet had its carpeting replaced.  The furniture was in good shape, but the drapes/sheer were frayed and the hem torn.  The tub shower did not drain well, which is pretty gross (we yanked out the plug entirely and it helped, although the thing was pretty nasty to look at.) This is one of the older Candlewoods, so there is almost no lobby.  The "cupboard" (self-service sundries shop) is wedged into the laundry room and sparsely stocked because of a high rate of theft.  This was unfortunate as I had to rely on that as a source of meal twice during the stay - cup o noodles gets old after a bite or two.  Now for the good part.  These hotels carry a very small staff.  Despite that, the team was very friendly, answered our calls and requests immediately (like asking for the carpet guys to move to a different room when they started next door at 6am), and did everything they could to make our stay better.  I like that the hotel is renovating a little - that plus a great staff will make future stays much better.  We just had bad timing.More</t>
   </si>
   <si>
+    <t>KQN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r417663199-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -530,6 +572,9 @@
     <t>I stayed at the Candlewood Suites in Garden Grove, CA for 2.5 weeks recently.The location is convenient to access near the intersection of highways 22, 5 and 57. There are 1 big asian supermarket in a strip mall 1/3 mile away on the same Garden Grove Boulevard and plenty of restaurants around.The room decor is the same as other Candlewood Suites but for the same price, room is smaller than the Candlewood Suites I stayed just before in Morris Plains, NJ although this hotel is bigger with 4 floors. The common areas, hallways, elevators appear more dated and are not as well kept as the NJ hotel. Checking was fast however I notice that the desk chair in the room had a large tear and had to ask the front desk to replace it. My stay overall is good. Pillows are soft and you can get a good sleep. The hotel is relatively well insulated from noise. Parking, security are good. High speed internet access over wifi is good and better here than in NJ.Given hotel prices in the Los Angeles basin, I can say this hotel does offer excellent value if you make your reservations fairly well in advance like I did.More</t>
   </si>
   <si>
+    <t>TheUnicorn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r411250642-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -554,6 +599,9 @@
     <t>Not a lot to tell .Reception was quick.Queen size bedroom (bed was a little too soft for my liking but that's my preference for a firm mattress).Functional albeit a little old.  Looks like it had been renovated - bathroom/shower etc were sort of modern but clean.  Carpet needs a good clean.Sufficient number of power points.Good kitchenette setup with 2 electric burners, microwave, pots and pans etc.Stayed just the night as was passing through.More</t>
   </si>
   <si>
+    <t>Michael H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r392160485-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -581,6 +629,9 @@
     <t>This is best bag for your dollar. Has kitchen no over but rest is there. Has BBQ area but no pool. Staff is very helpful was able to check in early. They will track down a blender if need one which we did for our BBQ that was very helpful. Close to highways   More</t>
   </si>
   <si>
+    <t>Jerry E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r387267843-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -608,6 +659,9 @@
     <t>We recently stayed here, and our experience was very positive throughout.  Our room was clean and and well equipped.  The staff was very helpful, and the rates very reasonable.  TV and Wifi were both decent.A few things though prevent me from giving it the perfect score.  First, everything inside and outside the rooms is dated.  The paint on the walls, the carpet in the hallways, the fridge in the room, it's all just OLD.  The lobby and side entrances don't have any automatic sliding doors. (Opening two sets of single regular doors while pushing a stroller and lugging a suitcase is not awesome). Also, as a very frequent IHG patron elite member, I'm used to traveling to other hotels in this chain and enjoying little perks like free bottled water at the front, free room upgrades, and so forth.  Small things like that add up to be a minor annoyance, although nothing like a dealbreaker.In the end, since the value was very good, I would have no problem staying here again, despite the little inconveniences.More</t>
   </si>
   <si>
+    <t>Michael B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r387260917-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -620,6 +674,9 @@
     <t>Rented 12 rooms here for a work conference nearby. Great location just off the freeway. Staff was very helpful and friendly. Rooms had a home-like feel. Beds were very comfortable. Great little kitchenette with all the necessities. I had one misunderstanding which was handled and resolved very professionally by their manager, Richard. We would definitely stay here again!</t>
   </si>
   <si>
+    <t>luis_rodriguez4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r381760158-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -644,6 +701,9 @@
     <t>The service was great, the room for super clean, location is good next to freeway access, it's near the beach to the Angel Stadium and Disneyland too, it was my first time being at this hotel, I recommend coming to stay if you need too, More</t>
   </si>
   <si>
+    <t>Melissa L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r378016025-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -671,6 +731,9 @@
     <t>Great stay! Rooms seem a little old for the price but offered everything we were looking for in our stay. Great location with an AMPM right next door. Comfy bed &amp; very spacious room. Didn't use the full kitchen but nice if you plan on doing some cooking. More</t>
   </si>
   <si>
+    <t>Jeremylum</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r373521800-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -695,6 +758,9 @@
     <t>The customer service  at the front desk when checking in was super friendly and professional.  I was greeted with a hello how are you every time I passed by the front desk.  I enjoyed how comfortable the room felt and how clean and quite the hotel is.   Looking forward to my next stay.More</t>
   </si>
   <si>
+    <t>fairgirl59</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r364719001-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -722,6 +788,9 @@
     <t>This is more or less a standard Candlewood Suites property.  I have stayed at a number across the country, and this is my least favorite for one reason.  The fitness center, 24/7 coffee machine, cupboard (store to buy food and drinks), laundry room, and area to pick out a game, crock pot, etc., is in one large room.  See attached photos.  I love to workout in the morning.  What a pain to be doing weights (really nice Matrix machine) or running on the treadmill and having people pop in all morning to get their cup of coffee, do laundry, or buy a granola bar.  Definitely not an ideal arrangement.  And, on top of it all, there is a large window that opens to the front desk/out into the parking lot where everyone passing can look in.  For this reason, I would not choose to stay here again.The staff is very hospitable and truly exudes the desire to please.  That said, within 48 hours, I had to go to the front desk and request creamer for my coffee three times - the basket was always out.The rooms are very nicely appointed, easy on/off access to the 22 freeway.More</t>
   </si>
   <si>
+    <t>Davfb69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r362661891-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -749,6 +818,9 @@
     <t>Elevators need maintenance. Over all very comfortable beds and service has been pleasant. Location is perfect for my commute to my job site with very little traffic issues. Very quit and well  maintained. More</t>
   </si>
   <si>
+    <t>gizzy15</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r358481567-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -773,6 +845,9 @@
     <t>I stay at alot of hotels, so I tend to be particular.  Candlewood was great!  Clean rooms, great service, soft beds and nice workout center.  It is located by many restaurants and shopping.  I would definitely recommend this hotel.More</t>
   </si>
   <si>
+    <t>mariamdlc568</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r353201759-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -791,6 +866,9 @@
     <t>I always wanted to stay in this hotel for almost a month but never had the opportunity. Until today (we) meaning my daughter and I wamted to get away from home at least one night. We live in riverside and came to visit my son which resides in the city of Anaheim,calif. finally i was passing by the suites and i ask my daughter "will you like to stay here? She said Yes! So we walk-in to see a very nice gentlemen and polite which help us with our registration. And we got the room, my daughter and i love it the room is very nice it was nice to see my littke one's face with a big smile.. She's only 4 years old and was having a great time this is her first night in a hotel and i love her smile and her happiness she was feeling at the moment. Thank YouSincerely,Maria De La Cruz More</t>
   </si>
   <si>
+    <t>marcsE3098VR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r352725358-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -806,6 +884,9 @@
     <t>The soft water was what made it for me. The kitchen had me at first sight. The desk is well equipped and useful. The tv has all my favorite channels and the bed was very comfortable room service was on point.</t>
   </si>
   <si>
+    <t>Tiffany E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r350301762-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -827,6 +908,9 @@
     <t>We decided to add an extra night and was informed the room we were going to have for the next 8 nights wasn't available so we would have to move rooms after the first night, I totally get it no biggie, pain but can't control how full they are. We got there around noon assuming we couldn't check in since it was early which again no biggie, walked in they were so friendly and welcoming, after telling her the name and we would have two reservations etc, after about five mins she said ok your room is ready and you won't have to move I was in shock, and it was on the top floor which we requested too. So we grab the buggy for luggage and head to the room, we opened the door to nice, clean room. The whole motel is non smoking so that was wonderful, everything was clean... It wad a great place, and we will stay here every two months from now on...great place, wonderful staffMore</t>
   </si>
   <si>
+    <t>Aaron v</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r345597008-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -845,6 +929,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>NERoadWarrior53</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r340342639-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -872,6 +959,9 @@
     <t>Usually get a great deal.  Larger room, comfortable bed.  Noisy AC/Heater though.  Fitness room better than average as it has a weight/pulley machine as well as cardio.  Cupboard a little barer than other Candelwoods. Room may or may not get done on alternate days.Location within walking distance of restaurants and a strip mall.  Good area.More</t>
   </si>
   <si>
+    <t>Rob T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r337432089-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -890,6 +980,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>bf96819</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r326166926-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -906,6 +999,9 @@
   </si>
   <si>
     <t>Show up w/ a party of 4 and they want to put you in a studio w/ 1 bed and a recliner...I don't think so. You can get a room w/ 2 beds in most Anaheim area hotels. We had to upgrade at additional cost to a 1 bedroom with a pullout couch. Very spacious w/ complete kitchen, free WIFI and 2 TVs; free laundry on premises but bring your own laundry soap as none is for sale; free parking. There is no daily housekeeping service so you exchange towels at the front desk...awkward...esp when towels are not available and they forget to bring them to your room so you have to make another trip downstairs. ART to Disneyland is available at sister property next door Holiday Inn ExpressMore</t>
+  </si>
+  <si>
+    <t>unchie12</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r324763158-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
@@ -939,6 +1035,9 @@
 The GM did call me back and after another hour or so on the phone and off the phone he called back to say that they amazingly "found" us a room. Really, great! We had a confirmation number and should have gotten a room hours prior, not after Midnight! I still gave...Booked this hotel the day we were due to stay via their own website. While we were in route to the Hotel we get a call from the Front Desk saying theyre overbooked, they cant accommodate us, theyre sorry and transferring us too the 800 reservation number. LONG, L.O.N.G story short and after being bounced back and forth between the Hotels Front Desk and the Reservation Number I demanded the GM of the Hotel. (Mind you this was over 2 hours into the ordeal.) During all this time we were told they would put us up and another Hotel not within their properties so we would have to provide our CC number to them, they would book the room, send us a confirmation number and we would receive a check to cover the room. Went to the stated Hotel and they had NO info on us at all. Again we were lied too and let down by IGH/Candlewood Suites. We then drove to the Airport thinking we knew it be a "safe"  and "watched after" area and to extend our rental car an additional day because this ordeal. The GM did call me back and after another hour or so on the phone and off the phone he called back to say that they amazingly "found" us a room. Really, great! We had a confirmation number and should have gotten a room hours prior, not after Midnight! I still gave them the benefit of the doubt and waited and waited for any type of follow-up which was never received. I then emailed IHG 3 times and have been told my email was being forwarded on to the Hotel Management for further assistance and Im yet to hear ANYTHING back. Very sad, very bad service and overall care for the Guests. I would highly recommend NOT staying at this property and too all around skip out on the IHG brand as they don't follow through on anything.More</t>
   </si>
   <si>
+    <t>Graeme R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r320916757-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -954,6 +1053,9 @@
     <t>Although we had booked through Expedia for some unknown reason they had cancelled our booking, but Ricardo on the front desk was most helpful in getting us booked in without stress. The BBQ gazebo area was great and the kitchen area had all that we needed.</t>
   </si>
   <si>
+    <t>BillCapeGirardeau</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r302618491-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -972,6 +1074,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>AlohaTilly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r294412763-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -987,6 +1092,9 @@
     <t>Super service from the time we arrived which was at 7:30am from Hawaii. Even though check-in isn't until 3pm Ricardo, desk manager, found a room for us to rest until our assigned room was ready.Location to major attractions (Disneyland, Anaheim etc) was perfect.Room was perfect for the two of us. Full refrigerator, stove, and dishwasher. Flat screen TV and free internet as well.Free laundry service as well. Work out center plus snack area which you pay on the honor system.Only downside is that there's a long working desk vice kitchen table, but for just the two of us it was fine.</t>
   </si>
   <si>
+    <t>maegenr2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r284473212-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -1014,6 +1122,9 @@
     <t>I tried to talk to the person at the front desk to find out if they knew of the best way to get to Disneyland and he acted as if I was inconveniencing him by asking him a question. The hotel seemed clean when we first arrived and then when I went to prepare to put my sons to bed I found different. I pulled the extra blanket out of the closet to use on the pull out sofa and found there to be what looked like blood on the blanket. I immediately through it on the closet floor to not be used. Then when I closed the door to the bedroom I found a "COACH" box next to the dresser. I had not been shopping at "COACH" so I knew it was from the previous occupant.  I also noticed that there were visible stains on the carpets in the room. At that point it was pretty clear to me that they do not properly clean the rooms after each guest leaves, which I found to be unacceptable for a hotel. You could tell that the cleaning staff just really doesn't care about the quality of their work as if you look on the stairs you will see where they put down what looks like Carpet Fresh powder and then didn't bother vacuum it all up like you are supposed to. Even with that the hotel still wreaked of cigarettes...I tried to talk to the person at the front desk to find out if they knew of the best way to get to Disneyland and he acted as if I was inconveniencing him by asking him a question. The hotel seemed clean when we first arrived and then when I went to prepare to put my sons to bed I found different. I pulled the extra blanket out of the closet to use on the pull out sofa and found there to be what looked like blood on the blanket. I immediately through it on the closet floor to not be used. Then when I closed the door to the bedroom I found a "COACH" box next to the dresser. I had not been shopping at "COACH" so I knew it was from the previous occupant.  I also noticed that there were visible stains on the carpets in the room. At that point it was pretty clear to me that they do not properly clean the rooms after each guest leaves, which I found to be unacceptable for a hotel. You could tell that the cleaning staff just really doesn't care about the quality of their work as if you look on the stairs you will see where they put down what looks like Carpet Fresh powder and then didn't bother vacuum it all up like you are supposed to. Even with that the hotel still wreaked of cigarettes in the hallways and stairwells.  If you are looking to pay a decent price in this area and don't care about cleanliness then this is the place to stay.More</t>
   </si>
   <si>
+    <t>Tnot</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r276314874-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -1038,6 +1149,9 @@
     <t>I called this motel and ask for vacancies that would sleep 3 adults. I was told they had a room with a bed and a pull out sofa.  They told me the price so I book the room. After driving over an hour to get there and walked in only to find out that the room they were putting me in for the price they said was not the correct room. They told me the room didn't have a couch just a bed. I told them that wouldn't work. I was told they had the room for me with what I wanted. Now they are saying they didn't. So the man behind the counter try's to get rude and say no one would've told me that. Well. ... First of all I don't know what they have until someone told me. So I couldn't have made that up. The man continued to try and make me feel dumb but I know what I was told. Whoever talked to me on the phone misinformed me. And as a result of that I have to pay a higher rate to get what I was told I was getting the first time for a lower rate. I think  this was very unprofessional. #1 they need to be trained on what they tell every patron every time. #2 when a patron tells you what they were told don't try to make them feel like...I called this motel and ask for vacancies that would sleep 3 adults. I was told they had a room with a bed and a pull out sofa.  They told me the price so I book the room. After driving over an hour to get there and walked in only to find out that the room they were putting me in for the price they said was not the correct room. They told me the room didn't have a couch just a bed. I told them that wouldn't work. I was told they had the room for me with what I wanted. Now they are saying they didn't. So the man behind the counter try's to get rude and say no one would've told me that. Well. ... First of all I don't know what they have until someone told me. So I couldn't have made that up. The man continued to try and make me feel dumb but I know what I was told. Whoever talked to me on the phone misinformed me. And as a result of that I have to pay a higher rate to get what I was told I was getting the first time for a lower rate. I think  this was very unprofessional. #1 they need to be trained on what they tell every patron every time. #2 when a patron tells you what they were told don't try to make them feel like you are implying  they are lying and you could careless to help them. #3 you should try to make your patron happy or else word will spread and people will go other places to be treated better. All this guy kept saying is we are giving you a room. Which is true they did but NOT what was agreed upon. And had I had another place to go at that moment I would have. More</t>
   </si>
   <si>
+    <t>Roger A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r274882179-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -1056,6 +1170,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>ms0k</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r270364836-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -1072,6 +1189,9 @@
   </si>
   <si>
     <t>April 2015</t>
+  </si>
+  <si>
+    <t>Aaron R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r255495403-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
@@ -1105,6 +1225,9 @@
 The final instalment came when I checked out and there was an arbitrary 18 dollars per night fee that the front desk could not explain though they said it was probably a tax. I will be making a call to IHG to find out but...I had stayed at this hotel a few years ago and had a pleasant experience. This time however, it was a different experience. The room was fine and the front desk staff was friendly but in particular the general manager was not rude, but dismissive and not very customer sensitive when I brought up a few concerns including no toiletries being placed in the room and lack of cleaning staff to clean the rooms. At one point when I was made aware of the fact that there were no toiletries in the room I was required to come downstairs from the 3rd floor to get them myself. The GM's response was "well we are a long stay hotel and only have one staff after 5pm." I mentioned to him that the pricing for this hotel was comparable to other IHG properties and he responded with "that's not true the holiday inn next door is almost..." As a platinum ambassador level member of IHG I as quite shocked at his response. I didn't bring up the fact that there were cockroaches in the room and that someone was running around upstairs at 6 am prohibiting sleep. The final instalment came when I checked out and there was an arbitrary 18 dollars per night fee that the front desk could not explain though they said it was probably a tax. I will be making a call to IHG to find out but with that addition I could have stayed at Crowne Plaza. Rather than go on I will just vote with my wallet next time and not stay there. I would advise picking from one of the myriad of options nearby for the same price. More</t>
   </si>
   <si>
+    <t>BusinessTraveler611</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r251044166-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -1132,6 +1255,9 @@
     <t>This hotel has a lot of good things going for it like great price and amenities like full kitchen, cable TV,  free Internet and relatively clean rooms etc., but my two 7 day experiences along with reports from my colleagues during that time, compel me to report the negatives. The place is a pet friendly hotel and the oder in my room and stains confirms it. One guest had three dogs in her room and another was caught with a dog that she didn't report to management avoiding the pet deposit. Housekeeping services are once a week unless you want to pay extra for daily housekeeping. Unfortunately, I mistakenly had a "do not disturb" sign on my door during that one day and they didn't not try to come back the next day to make sure my room was clean which is really in their best interest having a full kitchen etc. Although I keep my room very clean  removing trash etc., one of my colleagues, reported having two cockroaches in her room. Two other co-workers had sewage come up in their bathroom sinks a few times. My coffee maker was really dirty and didn't work which was dissapointing. Other than that the staff was helpful and attentive, rooms well equipped and hotel a good value with subways, Popeyes chicken and Arco AM-PM next door. More</t>
   </si>
   <si>
+    <t>WNCTrvlr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r243766703-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -1156,6 +1282,9 @@
     <t>We got this place assigned to us on Priceline at the 2 star level. I understand that you get what you pay for, but at 80 bucks a night, this place was not worth the money. At check in, the staff had a MasterCard on file for us, which was disturbing, since we don't even have a MasterCard. I wonder whose card they were going to charge. We asked about a shuttle or city bus stop to Disneyland and was told there was a trolley, then were given a flyer for a shuttle to Huntington Beach. Ummm, okay.....So, no shuttle to Disneyland, or else the staff is clueless. The room was musty and smelled bad. We found we had been given a single queen, and were told there were no other options. A gentleman in the elevator told us that his room had no working AC and he was told "no big deal it's only 74 outside"! What an inappropriate response to a legitimate problem. Also, be aware that housekeeping comes only once a week here. Not worth the money. Stay elsewhere, as there are much better values in the Anaheim area. More</t>
   </si>
   <si>
+    <t>Viking94708</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r229685099-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -1174,6 +1303,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t xml:space="preserve">Swaymyway </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r215925713-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -1201,6 +1333,9 @@
     <t>There is a reason for the lower prices as the hotel is not up to par. My sister and I arrived around 1130p and just made it before the front desk closed for the night (there is a gate that comes down). When we asked for a luggage cart, we were advised it was on 1 of the floors and we had to look for it; we looked thru 4 floors and none were found. There is a muggy smell, stained carpets and small beds. Housekeeping seems to be once a week and there were only 1 or 2 parking spots left when we arrived. Overall we had booked a 10 day stay in error and just stood the 1 night before finding another hotel. Perhaps this place will due for an overnight stay...More</t>
   </si>
   <si>
+    <t>rustypenny</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r211240231-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -1226,6 +1361,9 @@
   </si>
   <si>
     <t>We were expecting a little better and were disappoint. There was no pool, no breakfast bar, no ice machine. The pull-out mattress was very thin. The sheets for these pull-out bed had holes in them. On the plus side the room was clean and modern.  All the appliances were in good condition and working. The area was quite.  More</t>
+  </si>
+  <si>
+    <t>NoelleTraveler</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r205396109-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
@@ -1265,6 +1403,9 @@
 I would not recommend this hotel at all. Sure, the...We stayed here for one night and then moved to another Candlewood in Irvine.The room was dirty, the linens had not been laundered, the bathroom was not cleaned, and the laundry room was filthy and disgusting. It was too late to change hotels by the time we got here, but we left asap in the morning to go to another Candlewood in Irvine. I stripped out the linens (fortunately, since we had planned to stay a while at Candlewood, I had packed extra linens in the suitcase).I tried to wash the hotel's dirty linens, but the laundry room was full, even at midnight!Since this is the closest Candlewood to the theme parks (Disneyland, Knott's Berry Farm), I assume that it attracts tourists, especially ones who are staying for an extended period of time. Some of those tourists may be treating the property not like a hotel (where people should be considerate of other guests) but like home (where they probably feel free to mess up the place like pigs).The Candlewood in Garden Grove is also the most expensive of all the Candlewoods in the area. What's more, when there is a convention in town, or during graduation, or spring break, or high tourist season, the prices are jacked up even more. But that is actually typical of all the hotels near Anaheim - they gouge tourists.I would not recommend this hotel at all. Sure, the free laundry is a draw, but why pay the outrageous prices for a poorly-maintained and sloppy facility? Stay somewhere else, at a real hotel that has daily housekeeping service and just go to the laundromat if you're going to be there a while.More</t>
   </si>
   <si>
+    <t>drdroad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r205260601-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -1292,6 +1433,9 @@
     <t>Dirty carpet, my recliner had the vinyl ripped off of both armrests. Poor lighting in rear parking lot. Definitely not up to the standards of most Candlewood Suites. My truck was broken into one night, no video cameras on exterior though.More</t>
   </si>
   <si>
+    <t>Jaleisha J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r200042680-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -1316,6 +1460,9 @@
     <t>I had stayed a Candlewood Suites in Texas and had a great experience, so I decided to book a room with Candlewood for my family's Disneyland vacation. The carpet in the hallway and in the room was stained. The sofa cushions were also stained. The housekeeper did not clean our room or provide us with new towels. I had to ask for them at the front desk. There was areas of exposed dry wall in the room. The good things about the hotel are the friendly staff and price. I would not choose to stay here again nor recommend this Candlewood to family or friends.More</t>
   </si>
   <si>
+    <t>steve375</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r197224644-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -1340,6 +1487,9 @@
     <t>First of all the hotel management is the best. They went out of their way to make sure my stay was acceptable. The room was clean and comfortable, the Candlewood Kitchen was well stocked and everything in the workout room seemed to be functioning well. A good location right off the highway. Best of all are the room prices. I will return on my next visit to the area.More</t>
   </si>
   <si>
+    <t>esther7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r194012181-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -1367,6 +1517,9 @@
     <t>The good - the bed was very comfortable and the water pressure in the shower was very strong.The bad - the location is in a residential area, I wouldn't recommend walking around thereThe ugly - the hallway carpet is not just dirty but downright filthy and unsanitary. If you travelling with small kids, then the germ factor is very high here.  Check in - the person who checked me announced my room number for anyone in the narrow check in area to hear. I thought that was Hospitality 101 that room numbers should be written down and shared only with the guest.I read the reviews before coming here. The place is dirty.  There are some nice touches in the room but the carpet itself in the room had a huge stain on it.  The carpets in this entire hotel need to be replaced like immediately.More</t>
   </si>
   <si>
+    <t>Wayne G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r192171231-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -1385,6 +1538,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>Want2GoHome</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r185942194-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -1404,6 +1560,9 @@
   </si>
   <si>
     <t>Doing a "mattrice run" to qualify for the Bin Win promotion of the frequent guest program and needed a cheap hotel in the LA area.  This priced out the lowest.I was a little worried about the hotel given the uneven reviews.  I was pleasantly surprised.  The staff is friendly, the area is decent (mostly business parks) and my room was actually very nice.  I got conflicting stories on what rooms are renovated - it sounded like most of the rooms, but not all, are renovated.The bed is slightly soft but OK and comfortable.  The renovation did not change the refregirator or dishwasher - so they look a little out of place.  The AC unit is brand new and quiet - have never seen one this fancy.  Windows open all the way.  The bathroom sink is beautiful.  The rolling chair, even raised to highest, is a little low to work on my computer.There are imperfections - stairway not very clean, spots on the carpet and incorrect pricing/room # sign in my room - I was on the 4th floor but the sign in the back of the closet door said it was room 3xx!  That is sloppy work.  Luckily, the fire evacuation sign on the door was correct.  I did not feel the hotel was dirty like some others commented and you don't expect perfection at this hotel category.More</t>
+  </si>
+  <si>
+    <t>Rex L</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r184932292-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
@@ -1426,6 +1585,9 @@
 I've stayed at Candlewood Suites Garden Grove several times since August and am currently staying as an extended stay guest.  Consequently, I've been in a keen position to watch how management staff treat and respond to their guests and I can honestly say that at no time have I ever witnessed management or staff...I recently moved back to Orange County to open my own law practice. I haven't decided whether to buy or rent a house and apartment living is not an option for me so I started looking into "extended stay" hotels and discovered Candlewod Suites Garden Grove.  I'm glad I did.  First, you simply can't find a better value. $88 dollars (including hotel and city taxes) for a suite is a bargain considering what you get: a spacious room; modern, stylish kitchen and bathroom fixtures; range, microwave, dishwasher and refrigerator; a work area large enough to actually work at; comfortable recliner chair; late model Panasonic flat screen television; and the most comfortable bed I've ever slept on.  (Seriously.)  For approximately $30 more there are also "one bedroom" units which are similar in layout and floor design, except that they feature a separate "living room" with a sleeper sofa, and a separate bedroom.  Washers and dryers are located on the first floor and are available for use 24 hours a day at no charge.  There is also a very well-equipped exercise and weight room on the same floor.  I've stayed at Candlewood Suites Garden Grove several times since August and am currently staying as an extended stay guest.  Consequently, I've been in a keen position to watch how management staff treat and respond to their guests and I can honestly say that at no time have I ever witnessed management or staff treat any guest disrespectfully or rudely.  As for how I've been treated, Manager Debbie Mahone has consistently gone out of her way to make my stay here the best and most pleasant it can be. She has always succeeded.  I typically travel a lot and I’ve stayed at many hotels and I've never seen any manager come close to Debbie with respect to the high level of customer service she provides.  Her professionalism is reflected in the front desk staff she manages, including Gabby and Aidee, but especially Bliss Cosme, who is extremely competent, possesses outstanding customer service skills, and always laughs at my jokes.  I don't have a lot of free time and posting online reviews is not something I typically do.  In fact, this is only the second internet review I've ever posted.  When I come across a good deal and excellent customer service, however – the type I've consistently received during my stay at Candlewood Suites Garden Grove – I'm happy to take the time to publicly acknowledge it.More</t>
   </si>
   <si>
+    <t>Bob B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r179147565-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -1453,6 +1615,9 @@
     <t>We had two rooms, an efficiency and a 1 bedroom suite. Two granddaughters with us to sleep on the sofa bed ..... ghastly uncomfortable and also dirty mattress. Staff very pleasant. Beds comfortable, except the sofa bed. Carpet in rooms so dirty our feet and socks got dirty. Kitchens equipped well enough for us.More</t>
   </si>
   <si>
+    <t>Tim B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r172510484-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -1475,6 +1640,9 @@
   </si>
   <si>
     <t>My family stayed here for 11 days in a one bedroom suite (201). The rooms are just as pictured on the web site very modern and clean. The kitchen had everything we need to make Breakfast and dinners. The room has 2 LCD TVs a pull out couch a reclining chair and a table/desk area. The room also has two large closets and lots of drawers to put clothes in. The bath area was very nice with great towels. The clean - free laundry was a big help.We did have one issue. The bed in our room was very- very squeaky (but it was comfortable). The first night we checked in the hotel was full and management offered to move us the next day but we declined because our room was at the end of the hall and very quiet. A couple of days later I wondered into a room that was being cleaned and the bed was very nice. I would stay at this location and brand again.More</t>
+  </si>
+  <si>
+    <t>SandySanJoseCA</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r171821095-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
@@ -1516,6 +1684,9 @@
 - After sometime, I realized that I need some blankets and sheets. I went back to front desk and request for it. Initially I was told they are running short of sheets &amp; blankets but finally was given...Based on reviews on tripadvisor, I booked my stay in the hotel from 08/08/13 to 08/10/13. Here is my experience :- I checked into hotel and checkin was smooth. I was given room/suite # 134- I opened the door and the room had smell. I ignored the smell and started settling down - I opened the bathroom door and saw there was no shower curtain. Just Shower. I went to front desk and reported the issue. The guy came with me and looked at bathroom and gave me wage explanation that bathroom is meant to be like this. There are no fixtures for bathroom curtain so he can not do anything- After sometime, I noticed the toilet paper holder is missing. I went again and reported the issue to front desk. The answer was that "Some hockey team was occupying the room and might have taken it out". I requested if I can be moved into another room and I was told it is not possible.- The old style bathroom sink which was tilting and was about to fall. I am not even sure how these guys have got license to run hotel with this type of room.- After sometime, I realized that I need some blankets and sheets. I went back to front desk and request for it. Initially I was told they are running short of sheets &amp; blankets but finally was given the blanket &amp; sheet.- Out of three keys (magnetic card) given to me, only one worked. The other two were so much worn and it seems the magnetic strip was not getting sensed properlyThe front desk was great in listening and understanding the issues but I didn't see them acting on it or at least acknowledging the issues. I normally don't write reviews but I feel the reviews on tripadvisor didn't give me clear picture on the quality and service of this hotel. I am writing my experience  so other users get fair picture and quality of this hotel.More</t>
   </si>
   <si>
+    <t>1ibrahim</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r168733268-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -1540,6 +1711,9 @@
     <t>I nice hotel located in a great location just minutes off the freeway. The room was clean and spacious and the bed was comfortable. we were on our way to Rancho Bernardo and it was only about little over a hour from Orange County.More</t>
   </si>
   <si>
+    <t>longtermtraveler_10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r159537729-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -1567,6 +1741,9 @@
     <t>this place is a true model that other extended stay hotels need to take lessons from. From the manager,to Francasca Tyler and Anya they treat you like family. The rooms are spacious,well equipped kitchens,( more than 2 spoons,a plate and microwave) I have traveled around the country and this is one of the best places ever, This hotel offers free laundry,weekly housekeeping ( they are excellent. )  This place is more like an apartment than an small hotel room. If you are visiting area, this place is worth a drive to stay here. Near disneyland,freeways, lots of parking, Has lots of amenties like gym ,wide selection of TV channels, DVD movies, and the famous Candlewood Kitchen.More</t>
   </si>
   <si>
+    <t>lincolnbelohorizonte</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r158109068-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -1591,6 +1768,9 @@
     <t>there is no daily housekeeping but you can change towels everyday.If you dont want to spend lots of money with hotel it is a good option.Clean simple and confortable with mini kitchen.Sometimes smell of food outside the room.More</t>
   </si>
   <si>
+    <t>Christopher L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r157737693-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -1615,6 +1795,9 @@
     <t>We recently booked a block of rooms for our wedding at this hotel. The hotel was absolutely wonderful and all of our guests expressed how much they enjoyed the rooms. The rooms were very spacious and have definitely been updated. The kitchen in the room is wonderful stocked with plenty of dishes and appliances  and the beds are comfortable. The facility is very clean and is very inviting. There is free laundry and a nice fitness center as well as the Candlewood Cupboard to purchase those little things to snack on.   Lisa in sales  and her front desk team, especially Francesca and Tyler went above and beyond for not only us but for our guests as well. You will not be disappointed!  Next time we are in the area we will stay again!More</t>
   </si>
   <si>
+    <t>yissylevi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r148163669-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -1639,6 +1822,9 @@
     <t>We stayed here while visiting Disneyland. It is very close by and the amenities at the hotel was excellent. Allthough we had a problem with the heating Brenda the manager was amazing and sorted it all out to our satisfaction. We would happily stay again.More</t>
   </si>
   <si>
+    <t>riverratcat1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r148094208-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -1687,6 +1873,9 @@
     <t>well worth the little extra compared to other extended stay hotels,and not far from Disneyland,love the free laundry mini store to pickup snacks ,ect, rooms are well equipped with full size refrigator stove top and very nice cookware, Disneyland bus next door, as is many fast food places within walking distance.lots of parkingMore</t>
   </si>
   <si>
+    <t>Ken J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r137388018-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -1705,6 +1894,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>Autumnekay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r135587398-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -1726,6 +1918,9 @@
     <t>My boyfriend and I have been coming here once a year for the past 3 years now for a 2-4night stay usually. We really like this place because they allow pets, they have a kitchen top stove, microwave, fridge, and washers/dryers conveniently down stairs next to work out room. For the price its at, in my opinion is much more suitable instead of staying in a $120-$300 a night stay with out a mini kitchen in it, free laundry (that you do yourself) Plus the going rates for most pet stays are outrageous even, or you simply can't find many places that allow them anyways. Plus, It's an easy drive to Huntington dog beach for us as well, including the theme parks are even closer yet. There was a time when our TV didn't work, not that we stayed in the room watching television to begin with, However we informed the front desk. They came up and took a look, apologized for the inconvenience and gave us the option to switch rooms into a one bedroom suite for our last night - no extra charge if we wanted. We thought that was very courteous of them. Overall, its clean, convenient, quiet, has bonuses when it comes to kitchenette, laundry, and for allowing pets. thumbs up for sure.More</t>
   </si>
   <si>
+    <t>Tonya R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r135468817-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -1744,6 +1939,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>TWC1954</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r124730149-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -1762,6 +1960,9 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>Boots K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r123817054-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -1780,6 +1981,9 @@
     <t>December 2011</t>
   </si>
   <si>
+    <t>mattata1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r122743834-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -1798,6 +2002,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>racerd0g</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r115872726-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -1819,6 +2026,9 @@
     <t>The Candlewood Suites in Garden Grove California is one of those hotels that you start off by trying to convince yourself your choice wasn't that bad. At $100/per night you try to say its a good value. It isn't. I asked for a king suite. I got a double queen room. I asked for non-smoking. I got a room that smelled of something between a chemical mix of cleaner spray and rancid cigarette smoke. The clerk at the front desk put on a good show of disgust and distain, mid her throaty smokers cough. But at least they were kind enough to say that my credit card wouldn't be charged. I departed with a lie, stating that I may stay there sometime in the future. Sorry Candlewood. Your hotel sucks. That was my short and vivid experience.More</t>
   </si>
   <si>
+    <t>ozziecarr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r114772495-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -1837,6 +2047,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>SculptorCFDguy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r111184185-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -1855,6 +2068,9 @@
     <t>May 2011</t>
   </si>
   <si>
+    <t>peters2468</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r92570255-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -1873,6 +2089,9 @@
     <t>December 2010</t>
   </si>
   <si>
+    <t>Brad H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r82379509-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -1898,6 +2117,9 @@
   </si>
   <si>
     <t>Wow, this is the WORST hotel I have ever stayed at period. The room was very dirty, carpets stained. The sheets had dried blood on them, pillows had hairs from previous guests, carpets stained, lights falling off the ceiling, small holes in the wall. I am shocked that a division of Holiday Inn hotels allows this to be operated. It looked more like a hotel that should be rented by the hour,not by the week. Look at the phoots, read others reviews then really decide if you would ever stay here by yourself, or even worse with your family. Dont let their low rates lure you in, you will regret it. I regret staying here even after the fact I got a free night for complaining, I wish in hinsight I would have left and PAID for a room at another hotel in the area.More</t>
+  </si>
+  <si>
+    <t>thedj38</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r78178911-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
@@ -1925,6 +2147,9 @@
 I should have known this was going to be bad from the moment we stepped up to the desk, but it was late, we were tired and just wanted a room to sleep in.  Now, I know that Priceline only guarantees double occupancy - but the Candlewood Suites thought is was OK for me and my son to share a Queen bed.  No rollaway.  No pullout.  No hide-a-bed.  He's 6' tall and I am 6'2" tall.  This wasn't a great nights sleep, but the hotel was quiet that night.  I was told when we checked in that 'All they had were Queen Studios - nothing else.'  It turns out that after visiting the front desk the next morning, they did have a 1 Bedroom Suite with a Hide-A-Bed.  It was $33 extra a night which I argued about since I had not been told the truth last night and she went ahead and ran me keys for the 1 Bedroom....I will warn you ahead of time - this is a LONG review, but the entire US needs to know what happened to us at the Candlewood Suites - if you don't value your belongings, stay here.My son and I got a decently priced room here from Priceline (we'll never do this again at anything less than a 3star level, by the way).  We came down here for a father/son trip to Disneyland Resort the weekend of August 13-15.  I should have known this was going to be bad from the moment we stepped up to the desk, but it was late, we were tired and just wanted a room to sleep in.  Now, I know that Priceline only guarantees double occupancy - but the Candlewood Suites thought is was OK for me and my son to share a Queen bed.  No rollaway.  No pullout.  No hide-a-bed.  He's 6' tall and I am 6'2" tall.  This wasn't a great nights sleep, but the hotel was quiet that night.  I was told when we checked in that 'All they had were Queen Studios - nothing else.'  It turns out that after visiting the front desk the next morning, they did have a 1 Bedroom Suite with a Hide-A-Bed.  It was $33 extra a night which I argued about since I had not been told the truth last night and she went ahead and ran me keys for the 1 Bedroom.Saturday was uneventful.  At one point we couldn't get into the outside door closest to our room but it started working the next day.  By this night we figured out that this wasn't just a hotel, it was a residence for some people.  Sunday started off great.  We spent the day at Disneyland Resort and got tired mid-day and came back to the room around 4pm to take a cat-nap.  We left our room at 8pm to head back to the DL Resort to watch World of Color.  After the park closed at 11pm (Cali Adventure) we headed to the Denny's on Katella.  We left at 12:45am to head back to Candlewood Suites stopping at the AM/PM around the corner to fill up the rental car. (nice Nissan Cube we got from Avis BTW for $12/day)I walked in the door to our LOCKED room to find a empty stop on my desk where my Apple 17" Macbook Pro laptop was plugged in sitting on the desk.  It was gone.  My Digital Camera and HD Camcorder were also missing.  Also missing were a pile of SDHC cards, USB Drives, and 1TB Lacie Hard Drive.  Now, I am one of those way too trusting people that was naive enough to think that if i left my hotel locked at 8pm, it would be safe and secure.   There was no sign of forced entry into my room.  This hotel has no official staff on duty after 11pm.  After leaving 3 voice messages at the front desk for the night management I decided to go to the office.  The door was answered by Alex the night manager who had just listened to my messages according to him.  We proceeded to tell him what had happened, and while he was apologetic, he was unwilling to contact the hotel manager in the night after $4000 of a guests merchandise had been stolen.I asked Alex to check the key computer log and he told my son and I that there had been 6 keys issued to my room.  I had 2 keys.  So obviously someone on the hotel staff had issued 4 other keys to someone - not us.  Alex's story changed over the course of the rest of conveying to him my frustration from 6 to 4 to 2 keys.  We had a Garden Grove Police Officer come over a take a police report from us.  The officer told me that Alex wasn't being very cooperative he apparently was unable to show the office the key logs and the security footage for the hotel.  Basically, my son and I had to be on a plane in 3 hours back home to Oregon - the officer recommended to just head home and file a claim with the hotel.  Candlewood Suites is owned by IHG - they also own Holiday Inns, Crowne Plaza and more.  After filing a report with IHG Complaint I was told the process would take 3 weeks.  In 2 weeks I got a letter from IHG telling me there's nothing more they could do and if I wanted to pursue it any further, to contact the hotel.  After calling and speaking to a rep at IHG after getting the letter, I was told that "IHG is not responsible - contact my personal insurance company or the hotel (who is no help - they wont return any phone calls and the general manger is never available).At the Candlewood Suites, my belongings were not safe and secure in my hotel room that I paid money for.  The chain that hotel is part of claims NO RESPONSIBILITY and now I am out $1000 since I have to claim this on homeowners insurance.  We come to Anaheim at least 5 times a year for trips to the Disneyland Resort or to attend the NAMM show in January - we will never stay here again, nor would I recommend  anyone stay here for business or pleasure.  The rooms at Candlewood Suites Garden Grove are NOT SAFE.More</t>
   </si>
   <si>
+    <t>gwgreen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r72796351-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -1943,6 +2168,9 @@
     <t>July 2010</t>
   </si>
   <si>
+    <t>lkat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r70566445-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -1959,6 +2187,9 @@
   </si>
   <si>
     <t>Though the staff was generally polite and friendly here, this really feels like a motel masquerading as a suites-hotel.  Yes, there is a tiny kitchen - ours had chips in the counter, peeled back linoleum on the floor and a tiny fridge - but the room was too small to be considered a suite.  It looked as if a wall was erected in the middle of a large room to section it off into a living room and bedroom - the result is both are small and cramped.  Maid service only once a week, and from the look of the bathroom it hadn't been cleaned well in quite some time.  Basic TV, no swimming pool, no wireless internet and no restaurants in the vicinity -- basically, nothing for the kids to do here - and the area is so questionable we felt uncomfortable walking to the gas station next door to get drinks.  If you don't require much space, only need a place to sleep and all other hotels in the area are booked, you might be able to tolerate the Candlewood Suites.  Otherwise I would suggest traveling a little further down the freeway and looking for a room in Anaheim or Irvine.More</t>
+  </si>
+  <si>
+    <t>banam75</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r36489784-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
@@ -1990,6 +2221,9 @@
     <t>I am very upset with my stay at your hotel chain. First, I went to the gym, and the temperature was set at 85 degrees! I informed the front desk (Paul), said that they could not do anything about it. He told me to "crack the window." What type of hotel worker tells me to crack the window and takes no initiative to fix the problem. 
 Secondly, check-out time is 12p. The maid came and knocked on our door while we were asleep at 9a and wanted to service the room. She had assumed that we already checked out. Maid services should make sure that guests have completely checked out before intruding on our hotel. Plus, check out time should be a huge factor before they decide to service the room anyway.
 Thirdly, I had made reservations through your website. There was nothing on there stating that you only service rooms once a week! I understand the need to cut costs, but you need to clearly indicate that so that customers can make decisions of staying with your hotel or not. I happen to think that is a big factor in determining whether or not I would stay with you all. I finally researched it on the website and the "service once a week" was in the "govt and military section" of the website. So, this means that only govt and military people are informed of the once a week...I am very upset with my stay at your hotel chain. First, I went to the gym, and the temperature was set at 85 degrees! I informed the front desk (Paul), said that they could not do anything about it. He told me to "crack the window." What type of hotel worker tells me to crack the window and takes no initiative to fix the problem. Secondly, check-out time is 12p. The maid came and knocked on our door while we were asleep at 9a and wanted to service the room. She had assumed that we already checked out. Maid services should make sure that guests have completely checked out before intruding on our hotel. Plus, check out time should be a huge factor before they decide to service the room anyway.Thirdly, I had made reservations through your website. There was nothing on there stating that you only service rooms once a week! I understand the need to cut costs, but you need to clearly indicate that so that customers can make decisions of staying with your hotel or not. I happen to think that is a big factor in determining whether or not I would stay with you all. I finally researched it on the website and the "service once a week" was in the "govt and military section" of the website. So, this means that only govt and military people are informed of the once a week service? This is ridiculous! I felt that I was deceived and conned into staying at your hotel because I got a great deal, but the most important information I wanted to see, or maybe didn't even think about at first, was hidden from me for some type of purpose. *Suggestion: You should clearly indicate that you only service the rooms once a week, customers have to take out their own trash everyday on your front home page website, or at least when the reservation page comes up.I understand the needs to cut costs, but sacrificing service for that will only lead your company on to becoming bankrupt faster because no one will want to stay at your hotel. The point of a hotel is to receive concierge service and we received none of that with our stay. The desk ran out of laundry soap, you had to go to the desk to ask for towels, etc... I will most likely never stay at this self-service hotel again.More</t>
+  </si>
+  <si>
+    <t>doggone31</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r19363286-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
@@ -2039,6 +2273,9 @@
 There is a shabby but pleasant park (Twin...And when I say, Kinda like home, it means that when I got back to my room after a day out, there was my unmade bed, orange peels on the table, and a damp towel on the towel rack. I guess I tolerate my slovenly behavior slightly better in my own home than I do at a place where I thought I was paying someone else $65 a day to do so.Pros: - Kitchenette means you can eat in if you want &amp; can have cold beverages, fruit etc. - Very comfortable bed.- Free laundry.- Clean (at least for the first day) and quiet. - Neighbourhood felt reasonably safe for a large city.Cons:- No daily housekeeping, not even to take out the garbage.- Nothing nearby (No, really. Nothing) except for Starbucks, Subway, and an Arco station.- Exercise room has 4 pieces of old rundown equipment and overlooks the laundry room/convenience store, which is constantly full of people taking advantage of the free laundry.- Rooms facing east are dark. Rooms are on the small side.- What's with putting a round toilet seat on a elongated toilet? Seriously, new toilet seats are $20 - get one that fits. It was uncomfortable enough for an able-bodied person - I can't imagine it would be comfortable for someone with a disability (I was given an accessible suite).jThere is a shabby but pleasant park (Twin Lakes Park) about 1/2 mile north on Haster Ave with a small pond and jogging trail, and a shamefully decrepit Safeway/Vons supermarket about 1 mile north at Haster &amp; Chapman which offers the very basics. If you walk 1/2 mile west to Harbor Blvd, the 43 bus runs up and down Harbor to Disneyland every 15-20 minutes.This would be an acceptable place for a small family wanting affordable accommodation reasonably close to Disneyland.More</t>
   </si>
   <si>
+    <t>LLion</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r14368950-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -2064,6 +2301,9 @@
 The hotel was relatively quiet and clean a big plus in my opinion.  The furniture and amenities were better than normal.  The queen size bed was comfortable and there was full size refrigerator, dishwasher and microwave in the room.  There was also a two burner electric "stove" together with pots, pans...I was attending a conference at the Anaheim Convention Center but did not want to pay very high rates for an average hotel.  Because I was driving this time, I would have a car and this made the Candlewood Suites very attractive.  It was half the price of a similar hotel nearer the convention center.The hotel is easy to find and is close to two major freeways and is just South of the convention center and Disneyland.  It is about a 5-10 minute drive to the convention center if there is no traffic.  Friday night traffic is horrible and it actually took another 20 minutes of bumper to bumper traffic one I neared the convention center and Disneyland.  Parking is free at the hotel, compared to $9.00 per day for a hotel nearer the convention center and Disneyland.  A Starbucks and a Subway sandwich shop is just around the corner.  So too is an Arco gas station but because of traffic considerations one must drive further and make some U-turns to actually drive next door.  Other than the Subway and Starbucks, there is no restaurant within walking distance.The hotel was relatively quiet and clean a big plus in my opinion.  The furniture and amenities were better than normal.  The queen size bed was comfortable and there was full size refrigerator, dishwasher and microwave in the room.  There was also a two burner electric "stove" together with pots, pans and dishes.  All were in excellent condition.  On the final day of my stay, some refurbishment was underway and workmen were repainting the corridor.There was free high speed internet but it required a network cable that was provided; there was no wireless internet.  The desk and chairs were excellent and quite comfortable.  The cable TV was also good but there were a number of channels including HBO that were difficult to see because of interference.  The room also had a DVD player with free DVD's available at the desk.  There was a CD-clock radio alarm with dual alarms that worked well once you figured out how to use it.  Instructions would have been a positive addition.There was a laundry room and a excellent work out room if you wanted to use it.  This was adjacent to a little mini shop that offered self-service drinks and microwave snacks for modest charges.  An example would be 12 oz. cans of soft drinks for just $0.50 instead of the $1.00 charges often found in machines.  My only real "complaint" about the room was the lack of daily maid service.  That being said, it was clear to me at the time of the booking that the hotel did not offer daily maid service so I cannot really complain.  If you wanted additional towels or linens they were available from the desk.I will likely stay here again and was perfectly satisfied with my experience.  The price was definitely right for me.More</t>
   </si>
   <si>
+    <t>CariBelle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r10257971-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -2082,6 +2322,9 @@
     <t>October 2007</t>
   </si>
   <si>
+    <t>JosephSD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r7491900-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -2103,6 +2346,9 @@
     <t>This is one of the worst hotels I have stayed in...and I have stayed in at least 20. First of all, the hotel assigns me a smoking room when I specifically asked for a non-smoking room. I head up to the room and notice the hallway reaks of smoke. When I go to my room the key doesn't work...they gave me the wrong room number. I then trek down back to the check-in area (not staffed because it is at night...another horrible thing about this hotel.). When I get back to the check-in area I find the staffer left my paper with all my personal information on the counter for ANYONE to grab. (This includes my credit card number.) If I hadn't came back down who knows who would have grabbed it. After getting the correct room number I finally made it to my room. The room was ok, but the faucet on the sink kept coming off. Luckily, he did end up assigning me to a non-smoking room and it smelled ok. The common areas reaked of smoke however. That was the first time that ever happened to me at a hotel. Overall a hotel suited for businesspeople and not tourists, however they need to get their staffing issues in order.More</t>
   </si>
   <si>
+    <t>sunnytravelCA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r7009366-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -2124,6 +2370,9 @@
     <t>Our family stayed here for 4 nights.  We have 2 young children ages 2 and 4.  I would not stay there again with young children. We stayed on the ground floor.  The bed was OK, but I think it was just a full size.  The sofa bed was OK for small kids but would have been terrible for an adult.  The carpets were so filthy that our feet got dirty; however the carpets were being cleaned on the day we checked out. The rooms were set up with handicap access in mind: the bathroom sink and toilet were the type you would find in a handicap accessible restroom.  The latch on the door was well within reach of our 4-year-old.  There was a nightstand in the bedroom only on one side.  The bar for hanging clothes in the closet was also very low and full length clothes would drag on the floor. I liked the full size refrigerator, free internet access, free laundry (pay only for soap), and free videos for both kids and adults (though none worked for very young kids).  Kitchen area is carpeted so it's hard to clean up spills.  Since the place is set up for longer term guests, there is no daily maid service.  The thermostat did nothing: no number display at all.  We asked and the maintenance person "looked at it" when we were out but no improvement.More</t>
   </si>
   <si>
+    <t>EvaPep</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r5920188-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -2139,6 +2388,9 @@
     <t>I booked this room, but was actually able to get my money back on Priceline. My bid was accepted for $37/night for 2 rooms. When I called to advise we would need beds for 3 people, this place wanted another $30/night per room. Rollaways are $10, however not generally available. This was not good news to me, but it got worse. Housekeeping takes place only AFTER 7 NIGHTS. And, there is no staff in the office in the evenings or at night. So be warned, if you are looking for a vacation facility, this place is probably not for you. If you want a long-term apartment/motel, then check in.</t>
   </si>
   <si>
+    <t>Iluvkids</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r4998370-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
   </si>
   <si>
@@ -2155,6 +2407,9 @@
   </si>
   <si>
     <t>We booked this room on Priceline for $42 a night. We got a studio suite that is to say the best rustic. The suites are very small and designed to be studio apartment style living for business travelers.The hotel does not provide daily maid service, toiletries in the bathroom, extra towels (we had to bring and use our own), there is not a swimming pool or access to ART shuttle to Disneyland.The hotel is about three miles from Disneyland and you need to drive or take a taxi to and from.The kitchen is minimally equipped, OK for snacks but not to prepare a meal.There is a free laundrymat for quests that was conveniant.We actually were booked for a six night stay and checked our early to stay elsewhere. I would not recommend this hotel to families but it may work out OK for a couple. There just isn't room here for families and there is nothing to do during your stay other than your laundry. You have to drive about a mile to get to resturants and stores, there is nothing within walking distance.Room is very small with queen bed, television, small table and kitchenette. There is a recliner but it was not of good quality and not very comfortable.The hotel is locked and has interior corriders so I found it to be safe and quiet.More</t>
+  </si>
+  <si>
+    <t>Gardyloo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r4771714-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
@@ -2181,6 +2436,9 @@
 The good sized closet has a laundry basket, and the hotel has free washer and dryer. Soap is $1.25 per load (bring some with you along with dryer sheets).
 They have free high speed internet, but I forgot my laptop this trip. Free VHS tapes to borrow, but dumb titles (bring your own).
 Because it's an extended stay hotel, you have to stay 4 or more nights...This hotel is near freeways and is a drivable distance to Disneyland. For all Priceline reservations, you get a studio with ONE queen bed (the hotel has a written policy stating it; the people in front of us argued, so I got to see it). This room set up works for two people who will sleep in the bed together. Sleeping bags on the floor would be crowded. The bed is adequate quality, but not that comfortable. Reading lights are on one side of the bed only, if you're on the other side, you have no light. There is a comfortable recliner in the room, but it needed to be replaced, there were holes in the fabric. The kitchenette is extremely convenient, with a full size fridge, 2-burner cooktop, microwave and a dishwasher. A full size fridge is a huge help for the drinks and leftovers. There are only dishes for two people (2 spoons, 2 plates, 2 cups, etc). We supplemented with paper plates and stuff from our Knott's Berry Farm takeout.The good sized closet has a laundry basket, and the hotel has free washer and dryer. Soap is $1.25 per load (bring some with you along with dryer sheets).They have free high speed internet, but I forgot my laptop this trip. Free VHS tapes to borrow, but dumb titles (bring your own).Because it's an extended stay hotel, you have to stay 4 or more nights to get housekeeping services. That means no fresh sheets, towels, or glasses. You can turn your wet towels in at the front desk for fresh, but you can't pick them up until the mid afternoon because of the short supply the hotel has.  The studio will house two but is best for one traveler. I'm a corporate travel coordinator and review a lot of hotels. We paid less than $50/night during spring break via Priceline; so I'd stay here again now that I know what to expect.More</t>
+  </si>
+  <si>
+    <t>AF-Trip</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32420-d78789-r4316334-Candlewood_Suites_North_Orange_County-Garden_Grove_California.html</t>
@@ -2700,43 +2958,47 @@
       <c r="A2" t="n">
         <v>36911</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>129995</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -2752,56 +3014,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>36911</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>129996</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2813,56 +3079,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>36911</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>24537</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2876,50 +3146,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>36911</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>35773</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2933,41 +3207,45 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>36911</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>129997</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
@@ -2984,56 +3262,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="X6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>36911</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>129998</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3047,50 +3329,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>36911</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>129999</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3104,50 +3390,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>36911</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>130000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3159,56 +3449,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="X9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>36911</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>11115</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3220,56 +3514,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="X10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="Y10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>36911</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>130001</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="O11" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3281,56 +3579,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="X11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="Y11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>36911</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>130002</v>
+      </c>
+      <c r="C12" t="s">
+        <v>137</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="K12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -3352,56 +3654,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="X12" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="Y12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>36911</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>130003</v>
+      </c>
+      <c r="C13" t="s">
+        <v>144</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="K13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="O13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -3423,56 +3729,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="X13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="Y13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>36911</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>130004</v>
+      </c>
+      <c r="C14" t="s">
+        <v>154</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="J14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="O14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -3488,56 +3798,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="X14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="Y14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>36911</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>130005</v>
+      </c>
+      <c r="C15" t="s">
+        <v>164</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="J15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="K15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -3553,56 +3867,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="X15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="Y15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>36911</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>130006</v>
+      </c>
+      <c r="C16" t="s">
+        <v>174</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="J16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="K16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="O16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3614,56 +3932,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="X16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="Y16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>36911</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>236</v>
+      </c>
+      <c r="C17" t="s">
+        <v>183</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="J17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="K17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="O17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3675,56 +3997,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="X17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="Y17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>36911</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>130007</v>
+      </c>
+      <c r="C18" t="s">
+        <v>193</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="J18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="K18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="L18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3736,47 +4062,51 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="X18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="Y18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>36911</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>967</v>
+      </c>
+      <c r="C19" t="s">
+        <v>203</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="J19" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="K19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="L19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
@@ -3795,50 +4125,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>36911</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>130008</v>
+      </c>
+      <c r="C20" t="s">
+        <v>208</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="J20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="O20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3860,56 +4194,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="X20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="Y20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>36911</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>6827</v>
+      </c>
+      <c r="C21" t="s">
+        <v>217</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="J21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K21" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="L21" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="O21" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -3931,56 +4269,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="X21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="Y21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>36911</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>130009</v>
+      </c>
+      <c r="C22" t="s">
+        <v>227</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="J22" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="K22" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="L22" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="O22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -4002,56 +4344,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="X22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="Y22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>36911</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>130010</v>
+      </c>
+      <c r="C23" t="s">
+        <v>236</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="J23" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="K23" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="L23" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="O23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -4069,56 +4415,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="X23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="Y23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>36911</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>130011</v>
+      </c>
+      <c r="C24" t="s">
+        <v>246</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="J24" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="K24" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="L24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="O24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -4140,56 +4490,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="X24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="Y24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>36911</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>130012</v>
+      </c>
+      <c r="C25" t="s">
+        <v>256</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="J25" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="K25" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="L25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="O25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -4205,56 +4559,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="X25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="Y25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>36911</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>130013</v>
+      </c>
+      <c r="C26" t="s">
+        <v>265</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="J26" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="K26" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="L26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -4278,50 +4636,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>36911</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>130014</v>
+      </c>
+      <c r="C27" t="s">
+        <v>272</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="J27" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="K27" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="L27" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="O27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4337,50 +4699,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>36911</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>1072</v>
+      </c>
+      <c r="C28" t="s">
+        <v>278</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="J28" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="K28" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="L28" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4394,50 +4760,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>36911</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>130015</v>
+      </c>
+      <c r="C29" t="s">
+        <v>286</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="J29" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="K29" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="L29" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="O29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4455,50 +4825,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>36911</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>130016</v>
+      </c>
+      <c r="C30" t="s">
+        <v>293</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="J30" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="K30" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="L30" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="O30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4516,56 +4890,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="X30" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="Y30" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>36911</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>57703</v>
+      </c>
+      <c r="C31" t="s">
+        <v>303</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="J31" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="K31" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="L31" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="O31" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4583,50 +4961,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>36911</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>130017</v>
+      </c>
+      <c r="C32" t="s">
+        <v>310</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="J32" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="K32" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="L32" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -4644,50 +5026,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>36911</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>130018</v>
+      </c>
+      <c r="C33" t="s">
+        <v>317</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="J33" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="K33" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="L33" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4703,47 +5089,51 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="X33" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="Y33" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>36911</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>130019</v>
+      </c>
+      <c r="C34" t="s">
+        <v>327</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="J34" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="K34" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="L34" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
@@ -4762,50 +5152,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>36911</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>130020</v>
+      </c>
+      <c r="C35" t="s">
+        <v>333</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="J35" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="K35" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="L35" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="O35" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -4825,50 +5219,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>36911</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>130021</v>
+      </c>
+      <c r="C36" t="s">
+        <v>340</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="J36" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="K36" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="L36" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4886,50 +5284,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>36911</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>130022</v>
+      </c>
+      <c r="C37" t="s">
+        <v>346</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="J37" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="K37" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="L37" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>2</v>
@@ -4945,47 +5347,51 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="X37" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="Y37" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>36911</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>130023</v>
+      </c>
+      <c r="C38" t="s">
+        <v>356</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="J38" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="K38" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="L38" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
@@ -5002,56 +5408,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="X38" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="Y38" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>36911</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>10408</v>
+      </c>
+      <c r="C39" t="s">
+        <v>365</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="J39" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="K39" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="L39" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -5069,50 +5479,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>36911</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>130024</v>
+      </c>
+      <c r="C40" t="s">
+        <v>372</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="J40" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="K40" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="L40" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="O40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5130,50 +5544,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>36911</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>47434</v>
+      </c>
+      <c r="C41" t="s">
+        <v>379</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="J41" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="K41" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="L41" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="M41" t="n">
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="O41" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5185,56 +5603,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="X41" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="Y41" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>36911</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>130025</v>
+      </c>
+      <c r="C42" t="s">
+        <v>389</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="J42" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="K42" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="L42" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="O42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5246,47 +5668,51 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="X42" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="Y42" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>36911</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>130026</v>
+      </c>
+      <c r="C43" t="s">
+        <v>399</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="J43" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="K43" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="L43" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
@@ -5303,56 +5729,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="X43" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="Y43" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>36911</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>130027</v>
+      </c>
+      <c r="C44" t="s">
+        <v>408</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="J44" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="K44" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="L44" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="O44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="n">
@@ -5372,50 +5802,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>36911</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>130028</v>
+      </c>
+      <c r="C45" t="s">
+        <v>415</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="J45" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
       <c r="K45" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
       <c r="L45" t="s">
-        <v>376</v>
+        <v>420</v>
       </c>
       <c r="M45" t="n">
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>2</v>
@@ -5433,56 +5867,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="X45" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="Y45" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>36911</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>130029</v>
+      </c>
+      <c r="C46" t="s">
+        <v>425</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>381</v>
+        <v>426</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="J46" t="s">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="K46" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="L46" t="s">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="M46" t="n">
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>386</v>
+        <v>431</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5494,56 +5932,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>387</v>
+        <v>432</v>
       </c>
       <c r="X46" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="Y46" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>36911</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>111460</v>
+      </c>
+      <c r="C47" t="s">
+        <v>435</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>390</v>
+        <v>436</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="J47" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
       <c r="K47" t="s">
-        <v>393</v>
+        <v>439</v>
       </c>
       <c r="L47" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>1</v>
@@ -5565,56 +6007,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="X47" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="Y47" t="s">
-        <v>398</v>
+        <v>444</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>36911</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>130030</v>
+      </c>
+      <c r="C48" t="s">
+        <v>445</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="J48" t="s">
-        <v>401</v>
+        <v>448</v>
       </c>
       <c r="K48" t="s">
-        <v>402</v>
+        <v>449</v>
       </c>
       <c r="L48" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
       <c r="M48" t="n">
         <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
       <c r="O48" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="P48" t="n">
         <v>2</v>
@@ -5636,56 +6082,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>405</v>
+        <v>452</v>
       </c>
       <c r="X48" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
       <c r="Y48" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>36911</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>130031</v>
+      </c>
+      <c r="C49" t="s">
+        <v>455</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>408</v>
+        <v>456</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>409</v>
+        <v>457</v>
       </c>
       <c r="J49" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
       <c r="K49" t="s">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="L49" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
       <c r="O49" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5697,56 +6147,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="X49" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="Y49" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>36911</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>130032</v>
+      </c>
+      <c r="C50" t="s">
+        <v>464</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="J50" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="K50" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="L50" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="O50" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5768,56 +6222,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="X50" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="Y50" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>36911</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>130033</v>
+      </c>
+      <c r="C51" t="s">
+        <v>473</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>424</v>
+        <v>474</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="J51" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="K51" t="s">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="L51" t="s">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="M51" t="n">
         <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="O51" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P51" t="n">
         <v>2</v>
@@ -5839,56 +6297,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="X51" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
       <c r="Y51" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>36911</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>43937</v>
+      </c>
+      <c r="C52" t="s">
+        <v>483</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
       <c r="J52" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
       <c r="K52" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
       <c r="L52" t="s">
-        <v>437</v>
+        <v>488</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>438</v>
+        <v>489</v>
       </c>
       <c r="O52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -5912,50 +6374,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>437</v>
+        <v>488</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>36911</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>36480</v>
+      </c>
+      <c r="C53" t="s">
+        <v>490</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>439</v>
+        <v>491</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="J53" t="s">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="K53" t="s">
-        <v>442</v>
+        <v>494</v>
       </c>
       <c r="L53" t="s">
-        <v>443</v>
+        <v>495</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
       <c r="O53" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -5979,50 +6445,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>445</v>
+        <v>497</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>36911</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>130034</v>
+      </c>
+      <c r="C54" t="s">
+        <v>498</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>446</v>
+        <v>499</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="J54" t="s">
-        <v>448</v>
+        <v>501</v>
       </c>
       <c r="K54" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="L54" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
       <c r="O54" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -6046,50 +6516,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>36911</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>15091</v>
+      </c>
+      <c r="C55" t="s">
+        <v>505</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>453</v>
+        <v>507</v>
       </c>
       <c r="J55" t="s">
-        <v>454</v>
+        <v>508</v>
       </c>
       <c r="K55" t="s">
-        <v>455</v>
+        <v>509</v>
       </c>
       <c r="L55" t="s">
-        <v>456</v>
+        <v>510</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>457</v>
+        <v>511</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -6111,56 +6585,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>458</v>
+        <v>512</v>
       </c>
       <c r="X55" t="s">
-        <v>459</v>
+        <v>513</v>
       </c>
       <c r="Y55" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>36911</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>2649</v>
+      </c>
+      <c r="C56" t="s">
+        <v>515</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>461</v>
+        <v>516</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>462</v>
+        <v>517</v>
       </c>
       <c r="J56" t="s">
-        <v>463</v>
+        <v>518</v>
       </c>
       <c r="K56" t="s">
-        <v>464</v>
+        <v>519</v>
       </c>
       <c r="L56" t="s">
-        <v>465</v>
+        <v>520</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -6182,56 +6660,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>467</v>
+        <v>522</v>
       </c>
       <c r="X56" t="s">
-        <v>459</v>
+        <v>513</v>
       </c>
       <c r="Y56" t="s">
-        <v>468</v>
+        <v>523</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>36911</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>130035</v>
+      </c>
+      <c r="C57" t="s">
+        <v>524</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>469</v>
+        <v>525</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>470</v>
+        <v>526</v>
       </c>
       <c r="J57" t="s">
-        <v>471</v>
+        <v>527</v>
       </c>
       <c r="K57" t="s">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="L57" t="s">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>474</v>
+        <v>530</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>2</v>
@@ -6253,56 +6735,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>475</v>
+        <v>531</v>
       </c>
       <c r="X57" t="s">
-        <v>476</v>
+        <v>532</v>
       </c>
       <c r="Y57" t="s">
-        <v>477</v>
+        <v>533</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>36911</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>130036</v>
+      </c>
+      <c r="C58" t="s">
+        <v>534</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>479</v>
+        <v>536</v>
       </c>
       <c r="J58" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
       <c r="K58" t="s">
-        <v>481</v>
+        <v>538</v>
       </c>
       <c r="L58" t="s">
-        <v>482</v>
+        <v>539</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="O58" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6314,56 +6800,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>483</v>
+        <v>540</v>
       </c>
       <c r="X58" t="s">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="Y58" t="s">
-        <v>485</v>
+        <v>542</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>36911</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>130037</v>
+      </c>
+      <c r="C59" t="s">
+        <v>543</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>486</v>
+        <v>544</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>487</v>
+        <v>545</v>
       </c>
       <c r="J59" t="s">
-        <v>488</v>
+        <v>546</v>
       </c>
       <c r="K59" t="s">
-        <v>489</v>
+        <v>547</v>
       </c>
       <c r="L59" t="s">
-        <v>490</v>
+        <v>548</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>491</v>
+        <v>549</v>
       </c>
       <c r="O59" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6385,56 +6875,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>492</v>
+        <v>550</v>
       </c>
       <c r="X59" t="s">
-        <v>493</v>
+        <v>551</v>
       </c>
       <c r="Y59" t="s">
-        <v>494</v>
+        <v>552</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>36911</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>47940</v>
+      </c>
+      <c r="C60" t="s">
+        <v>553</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>495</v>
+        <v>554</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>496</v>
+        <v>555</v>
       </c>
       <c r="J60" t="s">
-        <v>497</v>
+        <v>556</v>
       </c>
       <c r="K60" t="s">
-        <v>498</v>
+        <v>557</v>
       </c>
       <c r="L60" t="s">
-        <v>499</v>
+        <v>558</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>491</v>
+        <v>549</v>
       </c>
       <c r="O60" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -6456,56 +6950,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>500</v>
+        <v>559</v>
       </c>
       <c r="X60" t="s">
-        <v>501</v>
+        <v>560</v>
       </c>
       <c r="Y60" t="s">
-        <v>502</v>
+        <v>561</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>36911</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>41162</v>
+      </c>
+      <c r="C61" t="s">
+        <v>562</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>503</v>
+        <v>563</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>504</v>
+        <v>564</v>
       </c>
       <c r="J61" t="s">
-        <v>505</v>
+        <v>565</v>
       </c>
       <c r="K61" t="s">
-        <v>506</v>
+        <v>566</v>
       </c>
       <c r="L61" t="s">
-        <v>507</v>
+        <v>567</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>491</v>
+        <v>549</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6527,47 +7025,51 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>508</v>
+        <v>568</v>
       </c>
       <c r="X61" t="s">
-        <v>509</v>
+        <v>569</v>
       </c>
       <c r="Y61" t="s">
-        <v>510</v>
+        <v>570</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>36911</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>130038</v>
+      </c>
+      <c r="C62" t="s">
+        <v>571</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>511</v>
+        <v>572</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>512</v>
+        <v>573</v>
       </c>
       <c r="J62" t="s">
-        <v>513</v>
+        <v>574</v>
       </c>
       <c r="K62" t="s">
-        <v>514</v>
+        <v>575</v>
       </c>
       <c r="L62" t="s">
-        <v>515</v>
+        <v>576</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
@@ -6594,56 +7096,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>516</v>
+        <v>577</v>
       </c>
       <c r="X62" t="s">
-        <v>517</v>
+        <v>578</v>
       </c>
       <c r="Y62" t="s">
-        <v>518</v>
+        <v>579</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>36911</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>130039</v>
+      </c>
+      <c r="C63" t="s">
+        <v>580</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>519</v>
+        <v>581</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>520</v>
+        <v>582</v>
       </c>
       <c r="J63" t="s">
-        <v>521</v>
+        <v>583</v>
       </c>
       <c r="K63" t="s">
-        <v>522</v>
+        <v>584</v>
       </c>
       <c r="L63" t="s">
-        <v>523</v>
+        <v>585</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>524</v>
+        <v>586</v>
       </c>
       <c r="O63" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6665,56 +7171,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>516</v>
+        <v>577</v>
       </c>
       <c r="X63" t="s">
-        <v>517</v>
+        <v>578</v>
       </c>
       <c r="Y63" t="s">
-        <v>525</v>
+        <v>587</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>36911</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>130036</v>
+      </c>
+      <c r="C64" t="s">
+        <v>543</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>526</v>
+        <v>588</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>527</v>
+        <v>589</v>
       </c>
       <c r="J64" t="s">
-        <v>528</v>
+        <v>590</v>
       </c>
       <c r="K64" t="s">
-        <v>529</v>
+        <v>591</v>
       </c>
       <c r="L64" t="s">
-        <v>530</v>
+        <v>592</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>531</v>
+        <v>593</v>
       </c>
       <c r="O64" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6736,56 +7246,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="X64" t="s">
-        <v>533</v>
+        <v>595</v>
       </c>
       <c r="Y64" t="s">
-        <v>534</v>
+        <v>596</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>36911</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>46800</v>
+      </c>
+      <c r="C65" t="s">
+        <v>597</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>535</v>
+        <v>598</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>536</v>
+        <v>599</v>
       </c>
       <c r="J65" t="s">
-        <v>537</v>
+        <v>600</v>
       </c>
       <c r="K65" t="s">
-        <v>538</v>
+        <v>601</v>
       </c>
       <c r="L65" t="s">
-        <v>539</v>
+        <v>602</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>540</v>
+        <v>603</v>
       </c>
       <c r="O65" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6809,50 +7323,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>539</v>
+        <v>602</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>36911</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>130040</v>
+      </c>
+      <c r="C66" t="s">
+        <v>604</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>541</v>
+        <v>605</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>542</v>
+        <v>606</v>
       </c>
       <c r="J66" t="s">
-        <v>543</v>
+        <v>607</v>
       </c>
       <c r="K66" t="s">
-        <v>544</v>
+        <v>608</v>
       </c>
       <c r="L66" t="s">
-        <v>545</v>
+        <v>609</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>546</v>
+        <v>610</v>
       </c>
       <c r="O66" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6876,50 +7394,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>547</v>
+        <v>611</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>36911</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>13668</v>
+      </c>
+      <c r="C67" t="s">
+        <v>612</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>548</v>
+        <v>613</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>549</v>
+        <v>614</v>
       </c>
       <c r="J67" t="s">
-        <v>550</v>
+        <v>615</v>
       </c>
       <c r="K67" t="s">
-        <v>551</v>
+        <v>616</v>
       </c>
       <c r="L67" t="s">
-        <v>552</v>
+        <v>617</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>553</v>
+        <v>618</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6943,50 +7465,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>552</v>
+        <v>617</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>36911</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>130041</v>
+      </c>
+      <c r="C68" t="s">
+        <v>619</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>555</v>
+        <v>621</v>
       </c>
       <c r="J68" t="s">
-        <v>556</v>
+        <v>622</v>
       </c>
       <c r="K68" t="s">
-        <v>557</v>
+        <v>623</v>
       </c>
       <c r="L68" t="s">
-        <v>558</v>
+        <v>624</v>
       </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
       <c r="N68" t="s">
-        <v>559</v>
+        <v>625</v>
       </c>
       <c r="O68" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P68" t="n">
         <v>1</v>
@@ -7010,50 +7536,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>558</v>
+        <v>624</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>36911</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>130042</v>
+      </c>
+      <c r="C69" t="s">
+        <v>626</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>560</v>
+        <v>627</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>561</v>
+        <v>628</v>
       </c>
       <c r="J69" t="s">
-        <v>562</v>
+        <v>629</v>
       </c>
       <c r="K69" t="s">
-        <v>563</v>
+        <v>630</v>
       </c>
       <c r="L69" t="s">
-        <v>564</v>
+        <v>631</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>565</v>
+        <v>632</v>
       </c>
       <c r="O69" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -7077,50 +7607,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>564</v>
+        <v>631</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>36911</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>130043</v>
+      </c>
+      <c r="C70" t="s">
+        <v>633</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>566</v>
+        <v>634</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>567</v>
+        <v>635</v>
       </c>
       <c r="J70" t="s">
-        <v>568</v>
+        <v>636</v>
       </c>
       <c r="K70" t="s">
-        <v>569</v>
+        <v>637</v>
       </c>
       <c r="L70" t="s">
-        <v>570</v>
+        <v>638</v>
       </c>
       <c r="M70" t="n">
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>571</v>
+        <v>639</v>
       </c>
       <c r="O70" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P70" t="n">
         <v>3</v>
@@ -7144,50 +7678,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>570</v>
+        <v>638</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>36911</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>130044</v>
+      </c>
+      <c r="C71" t="s">
+        <v>640</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>572</v>
+        <v>641</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>573</v>
+        <v>642</v>
       </c>
       <c r="J71" t="s">
-        <v>574</v>
+        <v>643</v>
       </c>
       <c r="K71" t="s">
-        <v>575</v>
+        <v>644</v>
       </c>
       <c r="L71" t="s">
-        <v>576</v>
+        <v>645</v>
       </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
       <c r="N71" t="s">
-        <v>577</v>
+        <v>646</v>
       </c>
       <c r="O71" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P71" t="n">
         <v>1</v>
@@ -7207,50 +7745,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>578</v>
+        <v>647</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>36911</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>130045</v>
+      </c>
+      <c r="C72" t="s">
+        <v>648</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>579</v>
+        <v>649</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>580</v>
+        <v>650</v>
       </c>
       <c r="J72" t="s">
-        <v>581</v>
+        <v>651</v>
       </c>
       <c r="K72" t="s">
-        <v>582</v>
+        <v>652</v>
       </c>
       <c r="L72" t="s">
-        <v>583</v>
+        <v>653</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>584</v>
+        <v>654</v>
       </c>
       <c r="O72" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -7270,50 +7812,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>583</v>
+        <v>653</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>36911</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>130046</v>
+      </c>
+      <c r="C73" t="s">
+        <v>655</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>585</v>
+        <v>656</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>586</v>
+        <v>657</v>
       </c>
       <c r="J73" t="s">
-        <v>587</v>
+        <v>658</v>
       </c>
       <c r="K73" t="s">
-        <v>588</v>
+        <v>659</v>
       </c>
       <c r="L73" t="s">
-        <v>589</v>
+        <v>660</v>
       </c>
       <c r="M73" t="n">
         <v>3</v>
       </c>
       <c r="N73" t="s">
-        <v>590</v>
+        <v>661</v>
       </c>
       <c r="O73" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7333,50 +7879,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>589</v>
+        <v>660</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>36911</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>130047</v>
+      </c>
+      <c r="C74" t="s">
+        <v>662</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>591</v>
+        <v>663</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>592</v>
+        <v>664</v>
       </c>
       <c r="J74" t="s">
-        <v>593</v>
+        <v>665</v>
       </c>
       <c r="K74" t="s">
-        <v>594</v>
+        <v>666</v>
       </c>
       <c r="L74" t="s">
-        <v>595</v>
+        <v>667</v>
       </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>596</v>
+        <v>668</v>
       </c>
       <c r="O74" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P74" t="n">
         <v>1</v>
@@ -7400,50 +7950,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>595</v>
+        <v>667</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>36911</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>7478</v>
+      </c>
+      <c r="C75" t="s">
+        <v>669</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>597</v>
+        <v>670</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>598</v>
+        <v>671</v>
       </c>
       <c r="J75" t="s">
-        <v>599</v>
+        <v>672</v>
       </c>
       <c r="K75" t="s">
-        <v>600</v>
+        <v>673</v>
       </c>
       <c r="L75" t="s">
-        <v>601</v>
+        <v>674</v>
       </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
       <c r="N75" t="s">
-        <v>602</v>
+        <v>675</v>
       </c>
       <c r="O75" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P75" t="n">
         <v>1</v>
@@ -7465,56 +8019,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>603</v>
+        <v>676</v>
       </c>
       <c r="X75" t="s">
-        <v>604</v>
+        <v>677</v>
       </c>
       <c r="Y75" t="s">
-        <v>605</v>
+        <v>678</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>36911</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>130048</v>
+      </c>
+      <c r="C76" t="s">
+        <v>679</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>606</v>
+        <v>680</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>607</v>
+        <v>681</v>
       </c>
       <c r="J76" t="s">
-        <v>608</v>
+        <v>682</v>
       </c>
       <c r="K76" t="s">
-        <v>609</v>
+        <v>683</v>
       </c>
       <c r="L76" t="s">
-        <v>610</v>
+        <v>684</v>
       </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
       <c r="N76" t="s">
-        <v>611</v>
+        <v>685</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>1</v>
@@ -7536,56 +8094,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>603</v>
+        <v>676</v>
       </c>
       <c r="X76" t="s">
-        <v>604</v>
+        <v>677</v>
       </c>
       <c r="Y76" t="s">
-        <v>612</v>
+        <v>686</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>36911</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>130049</v>
+      </c>
+      <c r="C77" t="s">
+        <v>687</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>613</v>
+        <v>688</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>614</v>
+        <v>689</v>
       </c>
       <c r="J77" t="s">
-        <v>615</v>
+        <v>690</v>
       </c>
       <c r="K77" t="s">
-        <v>616</v>
+        <v>691</v>
       </c>
       <c r="L77" t="s">
-        <v>617</v>
+        <v>692</v>
       </c>
       <c r="M77" t="n">
         <v>3</v>
       </c>
       <c r="N77" t="s">
-        <v>618</v>
+        <v>693</v>
       </c>
       <c r="O77" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P77" t="n">
         <v>2</v>
@@ -7609,50 +8171,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>617</v>
+        <v>692</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>36911</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>130050</v>
+      </c>
+      <c r="C78" t="s">
+        <v>694</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>619</v>
+        <v>695</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>620</v>
+        <v>696</v>
       </c>
       <c r="J78" t="s">
-        <v>621</v>
+        <v>697</v>
       </c>
       <c r="K78" t="s">
-        <v>622</v>
+        <v>698</v>
       </c>
       <c r="L78" t="s">
-        <v>623</v>
+        <v>699</v>
       </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
       <c r="N78" t="s">
-        <v>618</v>
+        <v>693</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>2</v>
@@ -7676,50 +8242,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>624</v>
+        <v>700</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>36911</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>130051</v>
+      </c>
+      <c r="C79" t="s">
+        <v>701</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>625</v>
+        <v>702</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>626</v>
+        <v>703</v>
       </c>
       <c r="J79" t="s">
-        <v>627</v>
+        <v>704</v>
       </c>
       <c r="K79" t="s">
-        <v>628</v>
+        <v>705</v>
       </c>
       <c r="L79" t="s">
-        <v>629</v>
+        <v>706</v>
       </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
       <c r="N79" t="s">
-        <v>630</v>
+        <v>707</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="n">
         <v>1</v>
@@ -7741,56 +8311,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>631</v>
+        <v>708</v>
       </c>
       <c r="X79" t="s">
-        <v>632</v>
+        <v>709</v>
       </c>
       <c r="Y79" t="s">
-        <v>633</v>
+        <v>710</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>36911</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>92096</v>
+      </c>
+      <c r="C80" t="s">
+        <v>711</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>634</v>
+        <v>712</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>635</v>
+        <v>713</v>
       </c>
       <c r="J80" t="s">
-        <v>636</v>
+        <v>714</v>
       </c>
       <c r="K80" t="s">
-        <v>637</v>
+        <v>715</v>
       </c>
       <c r="L80" t="s">
-        <v>638</v>
+        <v>716</v>
       </c>
       <c r="M80" t="n">
         <v>3</v>
       </c>
       <c r="N80" t="s">
-        <v>639</v>
+        <v>717</v>
       </c>
       <c r="O80" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P80" t="n">
         <v>3</v>
@@ -7814,50 +8388,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>640</v>
+        <v>718</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>36911</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>130052</v>
+      </c>
+      <c r="C81" t="s">
+        <v>719</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>641</v>
+        <v>720</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>642</v>
+        <v>721</v>
       </c>
       <c r="J81" t="s">
-        <v>643</v>
+        <v>722</v>
       </c>
       <c r="K81" t="s">
-        <v>644</v>
+        <v>723</v>
       </c>
       <c r="L81" t="s">
-        <v>645</v>
+        <v>724</v>
       </c>
       <c r="M81" t="n">
         <v>3</v>
       </c>
       <c r="N81" t="s">
-        <v>646</v>
+        <v>725</v>
       </c>
       <c r="O81" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7879,50 +8457,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>647</v>
+        <v>726</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>36911</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>59844</v>
+      </c>
+      <c r="C82" t="s">
+        <v>727</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>648</v>
+        <v>728</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>649</v>
+        <v>729</v>
       </c>
       <c r="J82" t="s">
-        <v>650</v>
+        <v>730</v>
       </c>
       <c r="K82" t="s">
-        <v>651</v>
+        <v>731</v>
       </c>
       <c r="L82" t="s">
-        <v>652</v>
+        <v>732</v>
       </c>
       <c r="M82" t="n">
         <v>3</v>
       </c>
       <c r="N82" t="s">
-        <v>653</v>
+        <v>733</v>
       </c>
       <c r="O82" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P82" t="n">
         <v>3</v>
@@ -7946,50 +8528,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>652</v>
+        <v>732</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>36911</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>130053</v>
+      </c>
+      <c r="C83" t="s">
+        <v>734</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>654</v>
+        <v>735</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>655</v>
+        <v>736</v>
       </c>
       <c r="J83" t="s">
-        <v>656</v>
+        <v>737</v>
       </c>
       <c r="K83" t="s">
-        <v>657</v>
+        <v>738</v>
       </c>
       <c r="L83" t="s">
-        <v>658</v>
+        <v>739</v>
       </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
       <c r="N83" t="s">
-        <v>659</v>
+        <v>740</v>
       </c>
       <c r="O83" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="P83" t="n">
         <v>1</v>
@@ -8013,50 +8599,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>660</v>
+        <v>741</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>36911</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>130054</v>
+      </c>
+      <c r="C84" t="s">
+        <v>742</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>661</v>
+        <v>743</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>662</v>
+        <v>744</v>
       </c>
       <c r="J84" t="s">
-        <v>663</v>
+        <v>745</v>
       </c>
       <c r="K84" t="s">
-        <v>664</v>
+        <v>746</v>
       </c>
       <c r="L84" t="s">
-        <v>665</v>
+        <v>747</v>
       </c>
       <c r="M84" t="n">
         <v>2</v>
       </c>
       <c r="N84" t="s">
-        <v>666</v>
+        <v>748</v>
       </c>
       <c r="O84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P84" t="n">
         <v>2</v>
@@ -8080,41 +8670,45 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>667</v>
+        <v>749</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>36911</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>111894</v>
+      </c>
+      <c r="C85" t="s">
+        <v>750</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>668</v>
+        <v>751</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>669</v>
+        <v>752</v>
       </c>
       <c r="J85" t="s">
-        <v>670</v>
+        <v>753</v>
       </c>
       <c r="K85" t="s">
-        <v>671</v>
+        <v>754</v>
       </c>
       <c r="L85" t="s">
-        <v>672</v>
+        <v>755</v>
       </c>
       <c r="M85" t="n">
         <v>1</v>
@@ -8133,41 +8727,45 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>672</v>
+        <v>755</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>36911</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>130055</v>
+      </c>
+      <c r="C86" t="s">
+        <v>756</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>673</v>
+        <v>757</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>674</v>
+        <v>758</v>
       </c>
       <c r="J86" t="s">
-        <v>675</v>
+        <v>759</v>
       </c>
       <c r="K86" t="s">
-        <v>676</v>
+        <v>760</v>
       </c>
       <c r="L86" t="s">
-        <v>677</v>
+        <v>761</v>
       </c>
       <c r="M86" t="n">
         <v>2</v>
@@ -8194,41 +8792,45 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>678</v>
+        <v>762</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>36911</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>130056</v>
+      </c>
+      <c r="C87" t="s">
+        <v>763</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>679</v>
+        <v>764</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>680</v>
+        <v>765</v>
       </c>
       <c r="J87" t="s">
-        <v>681</v>
+        <v>766</v>
       </c>
       <c r="K87" t="s">
-        <v>682</v>
+        <v>767</v>
       </c>
       <c r="L87" t="s">
-        <v>683</v>
+        <v>768</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
@@ -8255,41 +8857,45 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>684</v>
+        <v>769</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>36911</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>130057</v>
+      </c>
+      <c r="C88" t="s">
+        <v>770</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>685</v>
+        <v>771</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>686</v>
+        <v>772</v>
       </c>
       <c r="J88" t="s">
-        <v>687</v>
+        <v>773</v>
       </c>
       <c r="K88" t="s">
-        <v>688</v>
+        <v>774</v>
       </c>
       <c r="L88" t="s">
-        <v>689</v>
+        <v>775</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
@@ -8316,7 +8922,7 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>689</v>
+        <v>775</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_97.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_97.xlsx
@@ -2959,7 +2959,7 @@
         <v>36911</v>
       </c>
       <c r="B2" t="n">
-        <v>129995</v>
+        <v>160703</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -3028,7 +3028,7 @@
         <v>36911</v>
       </c>
       <c r="B3" t="n">
-        <v>129996</v>
+        <v>160704</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -3215,7 +3215,7 @@
         <v>36911</v>
       </c>
       <c r="B6" t="n">
-        <v>129997</v>
+        <v>160705</v>
       </c>
       <c r="C6" t="s">
         <v>84</v>
@@ -3276,7 +3276,7 @@
         <v>36911</v>
       </c>
       <c r="B7" t="n">
-        <v>129998</v>
+        <v>160706</v>
       </c>
       <c r="C7" t="s">
         <v>93</v>
@@ -3337,7 +3337,7 @@
         <v>36911</v>
       </c>
       <c r="B8" t="n">
-        <v>129999</v>
+        <v>160707</v>
       </c>
       <c r="C8" t="s">
         <v>100</v>
@@ -3398,7 +3398,7 @@
         <v>36911</v>
       </c>
       <c r="B9" t="n">
-        <v>130000</v>
+        <v>160708</v>
       </c>
       <c r="C9" t="s">
         <v>108</v>
@@ -3528,7 +3528,7 @@
         <v>36911</v>
       </c>
       <c r="B11" t="n">
-        <v>130001</v>
+        <v>160709</v>
       </c>
       <c r="C11" t="s">
         <v>127</v>
@@ -3593,7 +3593,7 @@
         <v>36911</v>
       </c>
       <c r="B12" t="n">
-        <v>130002</v>
+        <v>160710</v>
       </c>
       <c r="C12" t="s">
         <v>137</v>
@@ -3668,7 +3668,7 @@
         <v>36911</v>
       </c>
       <c r="B13" t="n">
-        <v>130003</v>
+        <v>160711</v>
       </c>
       <c r="C13" t="s">
         <v>144</v>
@@ -3743,7 +3743,7 @@
         <v>36911</v>
       </c>
       <c r="B14" t="n">
-        <v>130004</v>
+        <v>160712</v>
       </c>
       <c r="C14" t="s">
         <v>154</v>
@@ -3812,7 +3812,7 @@
         <v>36911</v>
       </c>
       <c r="B15" t="n">
-        <v>130005</v>
+        <v>160713</v>
       </c>
       <c r="C15" t="s">
         <v>164</v>
@@ -3881,7 +3881,7 @@
         <v>36911</v>
       </c>
       <c r="B16" t="n">
-        <v>130006</v>
+        <v>160714</v>
       </c>
       <c r="C16" t="s">
         <v>174</v>
@@ -4011,7 +4011,7 @@
         <v>36911</v>
       </c>
       <c r="B18" t="n">
-        <v>130007</v>
+        <v>160715</v>
       </c>
       <c r="C18" t="s">
         <v>193</v>
@@ -4133,7 +4133,7 @@
         <v>36911</v>
       </c>
       <c r="B20" t="n">
-        <v>130008</v>
+        <v>160716</v>
       </c>
       <c r="C20" t="s">
         <v>208</v>
@@ -4283,7 +4283,7 @@
         <v>36911</v>
       </c>
       <c r="B22" t="n">
-        <v>130009</v>
+        <v>160717</v>
       </c>
       <c r="C22" t="s">
         <v>227</v>
@@ -4358,7 +4358,7 @@
         <v>36911</v>
       </c>
       <c r="B23" t="n">
-        <v>130010</v>
+        <v>160718</v>
       </c>
       <c r="C23" t="s">
         <v>236</v>
@@ -4429,7 +4429,7 @@
         <v>36911</v>
       </c>
       <c r="B24" t="n">
-        <v>130011</v>
+        <v>160719</v>
       </c>
       <c r="C24" t="s">
         <v>246</v>
@@ -4504,7 +4504,7 @@
         <v>36911</v>
       </c>
       <c r="B25" t="n">
-        <v>130012</v>
+        <v>160720</v>
       </c>
       <c r="C25" t="s">
         <v>256</v>
@@ -4573,7 +4573,7 @@
         <v>36911</v>
       </c>
       <c r="B26" t="n">
-        <v>130013</v>
+        <v>160721</v>
       </c>
       <c r="C26" t="s">
         <v>265</v>
@@ -4644,7 +4644,7 @@
         <v>36911</v>
       </c>
       <c r="B27" t="n">
-        <v>130014</v>
+        <v>160722</v>
       </c>
       <c r="C27" t="s">
         <v>272</v>
@@ -4768,7 +4768,7 @@
         <v>36911</v>
       </c>
       <c r="B29" t="n">
-        <v>130015</v>
+        <v>160723</v>
       </c>
       <c r="C29" t="s">
         <v>286</v>
@@ -4833,7 +4833,7 @@
         <v>36911</v>
       </c>
       <c r="B30" t="n">
-        <v>130016</v>
+        <v>160724</v>
       </c>
       <c r="C30" t="s">
         <v>293</v>
@@ -4969,7 +4969,7 @@
         <v>36911</v>
       </c>
       <c r="B32" t="n">
-        <v>130017</v>
+        <v>160725</v>
       </c>
       <c r="C32" t="s">
         <v>310</v>
@@ -5034,7 +5034,7 @@
         <v>36911</v>
       </c>
       <c r="B33" t="n">
-        <v>130018</v>
+        <v>160726</v>
       </c>
       <c r="C33" t="s">
         <v>317</v>
@@ -5103,7 +5103,7 @@
         <v>36911</v>
       </c>
       <c r="B34" t="n">
-        <v>130019</v>
+        <v>160727</v>
       </c>
       <c r="C34" t="s">
         <v>327</v>
@@ -5160,7 +5160,7 @@
         <v>36911</v>
       </c>
       <c r="B35" t="n">
-        <v>130020</v>
+        <v>160728</v>
       </c>
       <c r="C35" t="s">
         <v>333</v>
@@ -5227,7 +5227,7 @@
         <v>36911</v>
       </c>
       <c r="B36" t="n">
-        <v>130021</v>
+        <v>160729</v>
       </c>
       <c r="C36" t="s">
         <v>340</v>
@@ -5292,7 +5292,7 @@
         <v>36911</v>
       </c>
       <c r="B37" t="n">
-        <v>130022</v>
+        <v>160730</v>
       </c>
       <c r="C37" t="s">
         <v>346</v>
@@ -5361,7 +5361,7 @@
         <v>36911</v>
       </c>
       <c r="B38" t="n">
-        <v>130023</v>
+        <v>160731</v>
       </c>
       <c r="C38" t="s">
         <v>356</v>
@@ -5487,7 +5487,7 @@
         <v>36911</v>
       </c>
       <c r="B40" t="n">
-        <v>130024</v>
+        <v>160732</v>
       </c>
       <c r="C40" t="s">
         <v>372</v>
@@ -5617,7 +5617,7 @@
         <v>36911</v>
       </c>
       <c r="B42" t="n">
-        <v>130025</v>
+        <v>160733</v>
       </c>
       <c r="C42" t="s">
         <v>389</v>
@@ -5682,7 +5682,7 @@
         <v>36911</v>
       </c>
       <c r="B43" t="n">
-        <v>130026</v>
+        <v>160734</v>
       </c>
       <c r="C43" t="s">
         <v>399</v>
@@ -5743,7 +5743,7 @@
         <v>36911</v>
       </c>
       <c r="B44" t="n">
-        <v>130027</v>
+        <v>148524</v>
       </c>
       <c r="C44" t="s">
         <v>408</v>
@@ -5810,7 +5810,7 @@
         <v>36911</v>
       </c>
       <c r="B45" t="n">
-        <v>130028</v>
+        <v>160735</v>
       </c>
       <c r="C45" t="s">
         <v>415</v>
@@ -5881,7 +5881,7 @@
         <v>36911</v>
       </c>
       <c r="B46" t="n">
-        <v>130029</v>
+        <v>160736</v>
       </c>
       <c r="C46" t="s">
         <v>425</v>
@@ -6021,7 +6021,7 @@
         <v>36911</v>
       </c>
       <c r="B48" t="n">
-        <v>130030</v>
+        <v>160737</v>
       </c>
       <c r="C48" t="s">
         <v>445</v>
@@ -6096,7 +6096,7 @@
         <v>36911</v>
       </c>
       <c r="B49" t="n">
-        <v>130031</v>
+        <v>160738</v>
       </c>
       <c r="C49" t="s">
         <v>455</v>
@@ -6161,7 +6161,7 @@
         <v>36911</v>
       </c>
       <c r="B50" t="n">
-        <v>130032</v>
+        <v>160739</v>
       </c>
       <c r="C50" t="s">
         <v>464</v>
@@ -6236,7 +6236,7 @@
         <v>36911</v>
       </c>
       <c r="B51" t="n">
-        <v>130033</v>
+        <v>160740</v>
       </c>
       <c r="C51" t="s">
         <v>473</v>
@@ -6453,7 +6453,7 @@
         <v>36911</v>
       </c>
       <c r="B54" t="n">
-        <v>130034</v>
+        <v>160741</v>
       </c>
       <c r="C54" t="s">
         <v>498</v>
@@ -6674,7 +6674,7 @@
         <v>36911</v>
       </c>
       <c r="B57" t="n">
-        <v>130035</v>
+        <v>160742</v>
       </c>
       <c r="C57" t="s">
         <v>524</v>
@@ -6749,7 +6749,7 @@
         <v>36911</v>
       </c>
       <c r="B58" t="n">
-        <v>130036</v>
+        <v>160743</v>
       </c>
       <c r="C58" t="s">
         <v>534</v>
@@ -6814,7 +6814,7 @@
         <v>36911</v>
       </c>
       <c r="B59" t="n">
-        <v>130037</v>
+        <v>130011</v>
       </c>
       <c r="C59" t="s">
         <v>543</v>
@@ -7039,7 +7039,7 @@
         <v>36911</v>
       </c>
       <c r="B62" t="n">
-        <v>130038</v>
+        <v>160744</v>
       </c>
       <c r="C62" t="s">
         <v>571</v>
@@ -7110,7 +7110,7 @@
         <v>36911</v>
       </c>
       <c r="B63" t="n">
-        <v>130039</v>
+        <v>160745</v>
       </c>
       <c r="C63" t="s">
         <v>580</v>
@@ -7185,7 +7185,7 @@
         <v>36911</v>
       </c>
       <c r="B64" t="n">
-        <v>130036</v>
+        <v>130011</v>
       </c>
       <c r="C64" t="s">
         <v>543</v>
@@ -7331,7 +7331,7 @@
         <v>36911</v>
       </c>
       <c r="B66" t="n">
-        <v>130040</v>
+        <v>160746</v>
       </c>
       <c r="C66" t="s">
         <v>604</v>
@@ -7473,7 +7473,7 @@
         <v>36911</v>
       </c>
       <c r="B68" t="n">
-        <v>130041</v>
+        <v>160747</v>
       </c>
       <c r="C68" t="s">
         <v>619</v>
@@ -7544,7 +7544,7 @@
         <v>36911</v>
       </c>
       <c r="B69" t="n">
-        <v>130042</v>
+        <v>160748</v>
       </c>
       <c r="C69" t="s">
         <v>626</v>
@@ -7615,7 +7615,7 @@
         <v>36911</v>
       </c>
       <c r="B70" t="n">
-        <v>130043</v>
+        <v>160749</v>
       </c>
       <c r="C70" t="s">
         <v>633</v>
@@ -7686,7 +7686,7 @@
         <v>36911</v>
       </c>
       <c r="B71" t="n">
-        <v>130044</v>
+        <v>160750</v>
       </c>
       <c r="C71" t="s">
         <v>640</v>
@@ -7753,7 +7753,7 @@
         <v>36911</v>
       </c>
       <c r="B72" t="n">
-        <v>130045</v>
+        <v>160751</v>
       </c>
       <c r="C72" t="s">
         <v>648</v>
@@ -7820,7 +7820,7 @@
         <v>36911</v>
       </c>
       <c r="B73" t="n">
-        <v>130046</v>
+        <v>160752</v>
       </c>
       <c r="C73" t="s">
         <v>655</v>
@@ -7887,7 +7887,7 @@
         <v>36911</v>
       </c>
       <c r="B74" t="n">
-        <v>130047</v>
+        <v>160753</v>
       </c>
       <c r="C74" t="s">
         <v>662</v>
@@ -8033,7 +8033,7 @@
         <v>36911</v>
       </c>
       <c r="B76" t="n">
-        <v>130048</v>
+        <v>160754</v>
       </c>
       <c r="C76" t="s">
         <v>679</v>
@@ -8108,7 +8108,7 @@
         <v>36911</v>
       </c>
       <c r="B77" t="n">
-        <v>130049</v>
+        <v>160755</v>
       </c>
       <c r="C77" t="s">
         <v>687</v>
@@ -8179,7 +8179,7 @@
         <v>36911</v>
       </c>
       <c r="B78" t="n">
-        <v>130050</v>
+        <v>160756</v>
       </c>
       <c r="C78" t="s">
         <v>694</v>
@@ -8250,7 +8250,7 @@
         <v>36911</v>
       </c>
       <c r="B79" t="n">
-        <v>130051</v>
+        <v>160757</v>
       </c>
       <c r="C79" t="s">
         <v>701</v>
@@ -8396,7 +8396,7 @@
         <v>36911</v>
       </c>
       <c r="B81" t="n">
-        <v>130052</v>
+        <v>160758</v>
       </c>
       <c r="C81" t="s">
         <v>719</v>
@@ -8536,7 +8536,7 @@
         <v>36911</v>
       </c>
       <c r="B83" t="n">
-        <v>130053</v>
+        <v>160759</v>
       </c>
       <c r="C83" t="s">
         <v>734</v>
@@ -8607,7 +8607,7 @@
         <v>36911</v>
       </c>
       <c r="B84" t="n">
-        <v>130054</v>
+        <v>160760</v>
       </c>
       <c r="C84" t="s">
         <v>742</v>
@@ -8735,7 +8735,7 @@
         <v>36911</v>
       </c>
       <c r="B86" t="n">
-        <v>130055</v>
+        <v>160761</v>
       </c>
       <c r="C86" t="s">
         <v>756</v>
@@ -8800,7 +8800,7 @@
         <v>36911</v>
       </c>
       <c r="B87" t="n">
-        <v>130056</v>
+        <v>160762</v>
       </c>
       <c r="C87" t="s">
         <v>763</v>
@@ -8865,7 +8865,7 @@
         <v>36911</v>
       </c>
       <c r="B88" t="n">
-        <v>130057</v>
+        <v>160763</v>
       </c>
       <c r="C88" t="s">
         <v>770</v>
